--- a/01 DOCUEMENTOS/CENTRAL#14  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/BALANCE    ZAVALETA   DICIEMBRE     2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#14  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/BALANCE    ZAVALETA   DICIEMBRE     2021.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 12  DICIEMBRE   2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL#14  ARCHIVO  2 0 2 1\CENTRAL # 12  DICIEMBRE   2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="314">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1146,7 +1146,13 @@
     <t>/  /</t>
   </si>
   <si>
-    <t>03/01/2022</t>
+    <t>29-Oct-21-- se aplica como devoluciones</t>
+  </si>
+  <si>
+    <t>C-3929</t>
+  </si>
+  <si>
+    <t>C-3948</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1168,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1573,6 +1579,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -2813,7 +2826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3350,7 +3363,6 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3392,9 +3404,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="38" fillId="15" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="15" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3569,6 +3578,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="38" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="52" fillId="15" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="39" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3766,6 +3797,9 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3776,11 +3810,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FF800000"/>
       <color rgb="FFCCFF66"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF6600FF"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF99CCFF"/>
@@ -5369,23 +5403,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="395"/>
-      <c r="C1" s="397" t="s">
+      <c r="B1" s="405"/>
+      <c r="C1" s="407" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
-      <c r="F1" s="398"/>
-      <c r="G1" s="398"/>
-      <c r="H1" s="398"/>
-      <c r="I1" s="398"/>
-      <c r="J1" s="398"/>
-      <c r="K1" s="398"/>
-      <c r="L1" s="398"/>
-      <c r="M1" s="398"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="408"/>
+      <c r="J1" s="408"/>
+      <c r="K1" s="408"/>
+      <c r="L1" s="408"/>
+      <c r="M1" s="408"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="396"/>
+      <c r="B2" s="406"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -5395,17 +5429,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="399" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="400"/>
+      <c r="B3" s="409" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="410"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="401" t="s">
+      <c r="H3" s="411" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="401"/>
+      <c r="I3" s="411"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -5419,14 +5453,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="402" t="s">
+      <c r="E4" s="412" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="403"/>
-      <c r="H4" s="404" t="s">
+      <c r="F4" s="413"/>
+      <c r="H4" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="405"/>
+      <c r="I4" s="415"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -5436,10 +5470,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="376" t="s">
+      <c r="P4" s="386" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="377"/>
+      <c r="Q4" s="387"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -6880,11 +6914,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="378">
+      <c r="M39" s="388">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="380">
+      <c r="N39" s="390">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -6910,8 +6944,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="379"/>
-      <c r="N40" s="381"/>
+      <c r="M40" s="389"/>
+      <c r="N40" s="391"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -7126,29 +7160,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="382" t="s">
+      <c r="H52" s="392" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="383"/>
+      <c r="I52" s="393"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="384">
+      <c r="K52" s="394">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="385"/>
-      <c r="M52" s="386">
+      <c r="L52" s="395"/>
+      <c r="M52" s="396">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="387"/>
+      <c r="N52" s="397"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="388" t="s">
+      <c r="D53" s="398" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="388"/>
+      <c r="E53" s="398"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -7159,22 +7193,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="388" t="s">
+      <c r="D54" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="388"/>
+      <c r="E54" s="398"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="389" t="s">
+      <c r="I54" s="399" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="390"/>
-      <c r="K54" s="391">
+      <c r="J54" s="400"/>
+      <c r="K54" s="401">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="392"/>
+      <c r="L54" s="402"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -7207,11 +7241,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="393">
+      <c r="K56" s="403">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="394"/>
+      <c r="L56" s="404"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -7228,22 +7262,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="371" t="s">
+      <c r="D58" s="381" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="372"/>
+      <c r="E58" s="382"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="373" t="s">
+      <c r="I58" s="383" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="374"/>
-      <c r="K58" s="375">
+      <c r="J58" s="384"/>
+      <c r="K58" s="385">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="375"/>
+      <c r="L58" s="385"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -7422,8 +7456,8 @@
   </sheetPr>
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView topLeftCell="E40" workbookViewId="0">
-      <selection activeCell="O101" sqref="O101"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7601,8 +7635,8 @@
       <c r="K5" s="196">
         <v>10208</v>
       </c>
-      <c r="L5" s="260">
-        <v>44498</v>
+      <c r="L5" s="371" t="s">
+        <v>311</v>
       </c>
       <c r="M5" s="69">
         <v>6530.58</v>
@@ -7937,7 +7971,7 @@
       <c r="A16" s="140">
         <v>44489</v>
       </c>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="370" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="69">
@@ -7949,7 +7983,7 @@
       <c r="E16" s="69">
         <v>145000</v>
       </c>
-      <c r="F16" s="266">
+      <c r="F16" s="265">
         <f t="shared" si="0"/>
         <v>146930.89999999991</v>
       </c>
@@ -8747,7 +8781,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="406" t="s">
+      <c r="B41" s="416" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -8779,7 +8813,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="407"/>
+      <c r="B42" s="417"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -8807,7 +8841,7 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="140"/>
-      <c r="B43" s="280">
+      <c r="B43" s="279">
         <v>4472.5600000000004</v>
       </c>
       <c r="C43" s="69"/>
@@ -9264,13 +9298,13 @@
         <v>34125.46</v>
       </c>
       <c r="K60" s="69"/>
-      <c r="L60" s="284">
+      <c r="L60" s="282">
         <v>44533</v>
       </c>
-      <c r="M60" s="283">
+      <c r="M60" s="281">
         <v>547154.42000000004</v>
       </c>
-      <c r="N60" s="281">
+      <c r="N60" s="280">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10375,23 +10409,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="395"/>
-      <c r="C1" s="397" t="s">
+      <c r="B1" s="405"/>
+      <c r="C1" s="407" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
-      <c r="F1" s="398"/>
-      <c r="G1" s="398"/>
-      <c r="H1" s="398"/>
-      <c r="I1" s="398"/>
-      <c r="J1" s="398"/>
-      <c r="K1" s="398"/>
-      <c r="L1" s="398"/>
-      <c r="M1" s="398"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="408"/>
+      <c r="J1" s="408"/>
+      <c r="K1" s="408"/>
+      <c r="L1" s="408"/>
+      <c r="M1" s="408"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="396"/>
+      <c r="B2" s="406"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10401,21 +10435,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="399" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="400"/>
+      <c r="B3" s="409" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="410"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="401" t="s">
+      <c r="H3" s="411" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="401"/>
+      <c r="I3" s="411"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="425" t="s">
+      <c r="P3" s="435" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10430,14 +10464,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="402" t="s">
+      <c r="E4" s="412" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="403"/>
-      <c r="H4" s="404" t="s">
+      <c r="F4" s="413"/>
+      <c r="H4" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="405"/>
+      <c r="I4" s="415"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -10447,14 +10481,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="426"/>
-      <c r="Q4" s="288" t="s">
+      <c r="P4" s="436"/>
+      <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="408" t="s">
+      <c r="W4" s="418" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="408"/>
+      <c r="X4" s="418"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10497,7 +10531,7 @@
         <f>N5+M5+L5+I5+C5</f>
         <v>27763</v>
       </c>
-      <c r="Q5" s="289">
+      <c r="Q5" s="287">
         <f>P5-F5</f>
         <v>-27936</v>
       </c>
@@ -10505,8 +10539,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="408"/>
-      <c r="X5" s="408"/>
+      <c r="W5" s="418"/>
+      <c r="X5" s="418"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10547,11 +10581,11 @@
         <f>N6+M6+L6+I6+C6</f>
         <v>11269</v>
       </c>
-      <c r="Q6" s="289">
+      <c r="Q6" s="287">
         <f>P6-F6</f>
         <v>-26378</v>
       </c>
-      <c r="R6" s="287">
+      <c r="R6" s="285">
         <f>22000+4378</f>
         <v>26378</v>
       </c>
@@ -10600,11 +10634,11 @@
         <f t="shared" ref="P7:P32" si="0">N7+M7+L7+I7+C7</f>
         <v>4602</v>
       </c>
-      <c r="Q7" s="289">
+      <c r="Q7" s="287">
         <f t="shared" ref="Q7:Q35" si="1">P7-F7</f>
         <v>-30393</v>
       </c>
-      <c r="R7" s="287">
+      <c r="R7" s="285">
         <f>26000+4393</f>
         <v>30393</v>
       </c>
@@ -10661,11 +10695,11 @@
         <f t="shared" si="0"/>
         <v>22033</v>
       </c>
-      <c r="Q8" s="289">
+      <c r="Q8" s="287">
         <f t="shared" si="1"/>
         <v>-20199</v>
       </c>
-      <c r="R8" s="287">
+      <c r="R8" s="285">
         <f>20065+133</f>
         <v>20198</v>
       </c>
@@ -10722,11 +10756,11 @@
         <f>N9+M9+L9+I9+C9</f>
         <v>18006</v>
       </c>
-      <c r="Q9" s="289">
+      <c r="Q9" s="287">
         <f t="shared" si="1"/>
         <v>-35678</v>
       </c>
-      <c r="R9" s="287">
+      <c r="R9" s="285">
         <f>35678</f>
         <v>35678</v>
       </c>
@@ -10781,11 +10815,11 @@
         <f t="shared" ref="P10:P14" si="2">N10+M10+L10+I10+C10</f>
         <v>40368</v>
       </c>
-      <c r="Q10" s="289">
+      <c r="Q10" s="287">
         <f t="shared" si="1"/>
         <v>-30925</v>
       </c>
-      <c r="R10" s="287">
+      <c r="R10" s="285">
         <f>30925</f>
         <v>30925</v>
       </c>
@@ -10834,11 +10868,11 @@
         <f t="shared" si="2"/>
         <v>13621</v>
       </c>
-      <c r="Q11" s="289">
+      <c r="Q11" s="287">
         <f t="shared" si="1"/>
         <v>-35238</v>
       </c>
-      <c r="R11" s="287">
+      <c r="R11" s="285">
         <f>35238</f>
         <v>35238</v>
       </c>
@@ -10891,11 +10925,11 @@
         <f t="shared" si="2"/>
         <v>20195</v>
       </c>
-      <c r="Q12" s="289">
+      <c r="Q12" s="287">
         <f t="shared" si="1"/>
         <v>-29846</v>
       </c>
-      <c r="R12" s="287">
+      <c r="R12" s="285">
         <f>29000+846</f>
         <v>29846</v>
       </c>
@@ -10946,11 +10980,11 @@
         <f t="shared" si="2"/>
         <v>23882.36</v>
       </c>
-      <c r="Q13" s="289">
+      <c r="Q13" s="287">
         <f t="shared" si="1"/>
         <v>-41525.64</v>
       </c>
-      <c r="R13" s="287">
+      <c r="R13" s="285">
         <f>41050+1147</f>
         <v>42197</v>
       </c>
@@ -11005,11 +11039,11 @@
         <f t="shared" si="2"/>
         <v>25955.5</v>
       </c>
-      <c r="Q14" s="289">
+      <c r="Q14" s="287">
         <f t="shared" si="1"/>
         <v>-27969.5</v>
       </c>
-      <c r="R14" s="287">
+      <c r="R14" s="285">
         <v>27970</v>
       </c>
       <c r="S14" s="147"/>
@@ -11056,11 +11090,11 @@
         <f t="shared" si="0"/>
         <v>14542</v>
       </c>
-      <c r="Q15" s="289">
+      <c r="Q15" s="287">
         <f t="shared" si="1"/>
         <v>-32780</v>
       </c>
-      <c r="R15" s="287">
+      <c r="R15" s="285">
         <v>32780</v>
       </c>
       <c r="S15" s="147"/>
@@ -11107,11 +11141,11 @@
         <f t="shared" si="0"/>
         <v>21455</v>
       </c>
-      <c r="Q16" s="289">
+      <c r="Q16" s="287">
         <f t="shared" si="1"/>
         <v>-37376</v>
       </c>
-      <c r="R16" s="287">
+      <c r="R16" s="285">
         <v>37376</v>
       </c>
       <c r="S16" s="147"/>
@@ -11168,11 +11202,11 @@
         <f t="shared" si="0"/>
         <v>49619.33</v>
       </c>
-      <c r="Q17" s="289">
+      <c r="Q17" s="287">
         <f t="shared" si="1"/>
         <v>-9805.6699999999983</v>
       </c>
-      <c r="R17" s="287">
+      <c r="R17" s="285">
         <f>9805.9+12537.27+1285.71</f>
         <v>23628.879999999997</v>
       </c>
@@ -11218,11 +11252,11 @@
         <f t="shared" si="0"/>
         <v>23496</v>
       </c>
-      <c r="Q18" s="289">
+      <c r="Q18" s="287">
         <f t="shared" si="1"/>
         <v>-21680</v>
       </c>
-      <c r="R18" s="287">
+      <c r="R18" s="285">
         <v>21680</v>
       </c>
       <c r="S18" s="147"/>
@@ -11269,15 +11303,15 @@
         <f t="shared" si="0"/>
         <v>25718</v>
       </c>
-      <c r="Q19" s="289">
+      <c r="Q19" s="287">
         <f t="shared" si="1"/>
         <v>-26370</v>
       </c>
-      <c r="R19" s="287">
+      <c r="R19" s="285">
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="412">
+      <c r="W19" s="422">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -11321,16 +11355,16 @@
         <f t="shared" si="0"/>
         <v>22146.17</v>
       </c>
-      <c r="Q20" s="289">
+      <c r="Q20" s="287">
         <f t="shared" si="1"/>
         <v>-16395.830000000002</v>
       </c>
-      <c r="R20" s="287">
+      <c r="R20" s="285">
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="413"/>
-      <c r="X20" s="269"/>
+      <c r="W20" s="423"/>
+      <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
     <row r="21" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11370,16 +11404,16 @@
         <f t="shared" si="0"/>
         <v>15744.18</v>
       </c>
-      <c r="Q21" s="289">
+      <c r="Q21" s="287">
         <f t="shared" si="1"/>
         <v>-19188.82</v>
       </c>
-      <c r="R21" s="287">
+      <c r="R21" s="285">
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="414"/>
-      <c r="X21" s="414"/>
+      <c r="W21" s="424"/>
+      <c r="X21" s="424"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -11421,11 +11455,11 @@
         <f t="shared" si="0"/>
         <v>23348.28</v>
       </c>
-      <c r="Q22" s="289">
+      <c r="Q22" s="287">
         <f t="shared" si="1"/>
         <v>-33647.72</v>
       </c>
-      <c r="R22" s="287">
+      <c r="R22" s="285">
         <v>33647.72</v>
       </c>
       <c r="S22" s="147"/>
@@ -11472,16 +11506,16 @@
         <f t="shared" si="0"/>
         <v>31708.71</v>
       </c>
-      <c r="Q23" s="289">
+      <c r="Q23" s="287">
         <f t="shared" si="1"/>
         <v>-45217.29</v>
       </c>
-      <c r="R23" s="287">
+      <c r="R23" s="285">
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="415"/>
-      <c r="X23" s="415"/>
+      <c r="W23" s="425"/>
+      <c r="X23" s="425"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -11527,16 +11561,16 @@
         <f t="shared" si="0"/>
         <v>42092.83</v>
       </c>
-      <c r="Q24" s="289">
+      <c r="Q24" s="287">
         <f t="shared" si="1"/>
         <v>-23159.17</v>
       </c>
-      <c r="R24" s="287">
+      <c r="R24" s="285">
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="415"/>
-      <c r="X24" s="415"/>
+      <c r="W24" s="425"/>
+      <c r="X24" s="425"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -11571,19 +11605,19 @@
       <c r="N25" s="33">
         <v>10181</v>
       </c>
-      <c r="P25" s="285">
+      <c r="P25" s="283">
         <f t="shared" si="0"/>
         <v>10581</v>
       </c>
-      <c r="Q25" s="289">
+      <c r="Q25" s="287">
         <f t="shared" si="1"/>
         <v>-28952</v>
       </c>
-      <c r="R25" s="287">
+      <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="416"/>
-      <c r="X25" s="416"/>
+      <c r="W25" s="426"/>
+      <c r="X25" s="426"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -11623,19 +11657,19 @@
       <c r="O26" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="286">
+      <c r="P26" s="284">
         <f t="shared" si="0"/>
         <v>29939.5</v>
       </c>
-      <c r="Q26" s="289">
+      <c r="Q26" s="287">
         <f t="shared" si="1"/>
         <v>-21771.5</v>
       </c>
-      <c r="R26" s="287">
+      <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="416"/>
-      <c r="X26" s="416"/>
+      <c r="W26" s="426"/>
+      <c r="X26" s="426"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -11676,16 +11710,16 @@
         <f t="shared" si="0"/>
         <v>16423</v>
       </c>
-      <c r="Q27" s="289">
+      <c r="Q27" s="287">
         <f t="shared" si="1"/>
         <v>-14637</v>
       </c>
-      <c r="R27" s="287">
+      <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="409"/>
-      <c r="X27" s="410"/>
-      <c r="Y27" s="411"/>
+      <c r="W27" s="419"/>
+      <c r="X27" s="420"/>
+      <c r="Y27" s="421"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11728,16 +11762,16 @@
         <f t="shared" si="0"/>
         <v>53075</v>
       </c>
-      <c r="Q28" s="289">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="287">
-        <v>0</v>
-      </c>
-      <c r="W28" s="410"/>
-      <c r="X28" s="410"/>
-      <c r="Y28" s="411"/>
+      <c r="Q28" s="287">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="285">
+        <v>0</v>
+      </c>
+      <c r="W28" s="420"/>
+      <c r="X28" s="420"/>
+      <c r="Y28" s="421"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11782,16 +11816,16 @@
         <f t="shared" si="0"/>
         <v>174324</v>
       </c>
-      <c r="Q29" s="289">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="287">
+      <c r="Q29" s="287">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="285">
         <v>0</v>
       </c>
       <c r="W29" s="128"/>
-      <c r="X29" s="313"/>
-      <c r="Y29" s="314"/>
+      <c r="X29" s="311"/>
+      <c r="Y29" s="312"/>
       <c r="Z29" s="128"/>
     </row>
     <row r="30" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11832,11 +11866,11 @@
         <f t="shared" si="0"/>
         <v>90573</v>
       </c>
-      <c r="Q30" s="289">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="287"/>
+      <c r="Q30" s="287">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="285"/>
       <c r="X30" s="225"/>
       <c r="Y30" s="227"/>
     </row>
@@ -11878,11 +11912,11 @@
         <f t="shared" si="0"/>
         <v>70468</v>
       </c>
-      <c r="Q31" s="289">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="287"/>
+      <c r="Q31" s="287">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="285"/>
     </row>
     <row r="32" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
@@ -11921,7 +11955,7 @@
         <f t="shared" si="0"/>
         <v>47119</v>
       </c>
-      <c r="Q32" s="289">
+      <c r="Q32" s="287">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11955,7 +11989,7 @@
       <c r="P33" s="34">
         <v>0</v>
       </c>
-      <c r="Q33" s="289">
+      <c r="Q33" s="287">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11975,7 +12009,7 @@
       <c r="I34" s="30">
         <v>0</v>
       </c>
-      <c r="J34" s="267" t="s">
+      <c r="J34" s="266" t="s">
         <v>202</v>
       </c>
       <c r="K34" s="248">
@@ -11993,7 +12027,7 @@
       <c r="P34" s="34">
         <v>0</v>
       </c>
-      <c r="Q34" s="289">
+      <c r="Q34" s="287">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12019,7 +12053,7 @@
       <c r="I35" s="30">
         <v>0</v>
       </c>
-      <c r="J35" s="267" t="s">
+      <c r="J35" s="266" t="s">
         <v>202</v>
       </c>
       <c r="K35" s="249">
@@ -12028,16 +12062,16 @@
       <c r="L35" s="66">
         <v>182.52</v>
       </c>
-      <c r="M35" s="268">
-        <v>0</v>
-      </c>
-      <c r="N35" s="269">
+      <c r="M35" s="267">
+        <v>0</v>
+      </c>
+      <c r="N35" s="268">
         <v>0</v>
       </c>
       <c r="P35" s="34">
         <v>0</v>
       </c>
-      <c r="Q35" s="274">
+      <c r="Q35" s="273">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12063,7 +12097,7 @@
       <c r="I36" s="30">
         <v>0</v>
       </c>
-      <c r="J36" s="267" t="s">
+      <c r="J36" s="266" t="s">
         <v>203</v>
       </c>
       <c r="K36" s="250">
@@ -12072,19 +12106,19 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="427">
+      <c r="M36" s="437">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="429">
+      <c r="N36" s="439">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>467016</v>
       </c>
-      <c r="O36" s="277"/>
-      <c r="P36" s="278">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="431">
+      <c r="O36" s="276"/>
+      <c r="P36" s="277">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="441">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -12119,13 +12153,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="428"/>
-      <c r="N37" s="430"/>
-      <c r="O37" s="277"/>
-      <c r="P37" s="278">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="432"/>
+      <c r="M37" s="438"/>
+      <c r="N37" s="440"/>
+      <c r="O37" s="276"/>
+      <c r="P37" s="277">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="442"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -12156,12 +12190,12 @@
       <c r="L38" s="61">
         <v>549</v>
       </c>
-      <c r="M38" s="271"/>
-      <c r="N38" s="272"/>
+      <c r="M38" s="270"/>
+      <c r="N38" s="271"/>
       <c r="P38" s="151">
         <v>0</v>
       </c>
-      <c r="Q38" s="275"/>
+      <c r="Q38" s="274"/>
     </row>
     <row r="39" spans="1:18" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
@@ -12178,13 +12212,13 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="279"/>
-      <c r="N39" s="279"/>
+      <c r="M39" s="278"/>
+      <c r="N39" s="278"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>970067.86</v>
       </c>
-      <c r="Q39" s="276"/>
+      <c r="Q39" s="275"/>
     </row>
     <row r="40" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
@@ -12199,8 +12233,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="279"/>
-      <c r="N40" s="279"/>
+      <c r="M40" s="278"/>
+      <c r="N40" s="278"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="13"/>
     </row>
@@ -12217,8 +12251,8 @@
       <c r="J41" s="60"/>
       <c r="K41" s="41"/>
       <c r="L41" s="61"/>
-      <c r="M41" s="270"/>
-      <c r="N41" s="270"/>
+      <c r="M41" s="269"/>
+      <c r="N41" s="269"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="13"/>
     </row>
@@ -12235,8 +12269,8 @@
       <c r="J42" s="60"/>
       <c r="K42" s="41"/>
       <c r="L42" s="61"/>
-      <c r="M42" s="270"/>
-      <c r="N42" s="270"/>
+      <c r="M42" s="269"/>
+      <c r="N42" s="269"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="13"/>
     </row>
@@ -12253,8 +12287,8 @@
       <c r="J43" s="60"/>
       <c r="K43" s="41"/>
       <c r="L43" s="61"/>
-      <c r="M43" s="270"/>
-      <c r="N43" s="270"/>
+      <c r="M43" s="269"/>
+      <c r="N43" s="269"/>
       <c r="P43" s="34"/>
       <c r="Q43" s="13"/>
     </row>
@@ -12271,8 +12305,8 @@
       <c r="J44" s="60"/>
       <c r="K44" s="41"/>
       <c r="L44" s="61"/>
-      <c r="M44" s="270"/>
-      <c r="N44" s="270"/>
+      <c r="M44" s="269"/>
+      <c r="N44" s="269"/>
       <c r="P44" s="34"/>
       <c r="Q44" s="13"/>
     </row>
@@ -12289,8 +12323,8 @@
       <c r="J45" s="60"/>
       <c r="K45" s="41"/>
       <c r="L45" s="61"/>
-      <c r="M45" s="270"/>
-      <c r="N45" s="270"/>
+      <c r="M45" s="269"/>
+      <c r="N45" s="269"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -12307,8 +12341,8 @@
       <c r="J46" s="60"/>
       <c r="K46" s="41"/>
       <c r="L46" s="61"/>
-      <c r="M46" s="270"/>
-      <c r="N46" s="270"/>
+      <c r="M46" s="269"/>
+      <c r="N46" s="269"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="13"/>
     </row>
@@ -12325,8 +12359,8 @@
       <c r="J47" s="60"/>
       <c r="K47" s="41"/>
       <c r="L47" s="61"/>
-      <c r="M47" s="270"/>
-      <c r="N47" s="270"/>
+      <c r="M47" s="269"/>
+      <c r="N47" s="269"/>
       <c r="P47" s="34"/>
       <c r="Q47" s="13"/>
     </row>
@@ -12343,8 +12377,8 @@
       <c r="J48" s="60"/>
       <c r="K48" s="41"/>
       <c r="L48" s="61"/>
-      <c r="M48" s="270"/>
-      <c r="N48" s="270"/>
+      <c r="M48" s="269"/>
+      <c r="N48" s="269"/>
       <c r="P48" s="34"/>
       <c r="Q48" s="13"/>
     </row>
@@ -12415,27 +12449,27 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="382" t="s">
+      <c r="H52" s="392" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="383"/>
+      <c r="I52" s="393"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="384">
+      <c r="K52" s="394">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="417"/>
-      <c r="M52" s="273"/>
-      <c r="N52" s="273"/>
+      <c r="L52" s="427"/>
+      <c r="M52" s="272"/>
+      <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="388" t="s">
+      <c r="D53" s="398" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="388"/>
-      <c r="F53" s="315">
+      <c r="E53" s="398"/>
+      <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
       </c>
@@ -12443,47 +12477,47 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="418" t="s">
+      <c r="D54" s="428" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="418"/>
+      <c r="E54" s="428"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="389" t="s">
+      <c r="I54" s="399" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="390"/>
-      <c r="K54" s="391">
+      <c r="J54" s="400"/>
+      <c r="K54" s="401">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="391"/>
-      <c r="M54" s="419" t="s">
+      <c r="L54" s="401"/>
+      <c r="M54" s="429" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="420"/>
-      <c r="O54" s="420"/>
-      <c r="P54" s="420"/>
-      <c r="Q54" s="421"/>
+      <c r="N54" s="430"/>
+      <c r="O54" s="430"/>
+      <c r="P54" s="430"/>
+      <c r="Q54" s="431"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D55" s="316" t="s">
+      <c r="D55" s="314" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="317"/>
-      <c r="F55" s="318">
+      <c r="E55" s="315"/>
+      <c r="F55" s="316">
         <v>-164725.34</v>
       </c>
       <c r="I55" s="105"/>
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="422"/>
-      <c r="N55" s="423"/>
-      <c r="O55" s="423"/>
-      <c r="P55" s="423"/>
-      <c r="Q55" s="424"/>
+      <c r="M55" s="432"/>
+      <c r="N55" s="433"/>
+      <c r="O55" s="433"/>
+      <c r="P55" s="433"/>
+      <c r="Q55" s="434"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -12501,11 +12535,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="393">
+      <c r="K56" s="403">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="394"/>
+      <c r="L56" s="404"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -12522,22 +12556,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="371" t="s">
+      <c r="D58" s="381" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="372"/>
+      <c r="E58" s="382"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="373" t="s">
+      <c r="I58" s="383" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="374"/>
-      <c r="K58" s="375">
+      <c r="J58" s="384"/>
+      <c r="K58" s="385">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="375"/>
+      <c r="L58" s="385"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -12725,8 +12759,8 @@
   </sheetPr>
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12738,94 +12772,95 @@
     <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="116" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="290" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="294"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="292"/>
       <c r="F1" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="303" t="s">
+      <c r="I1" s="301" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="304"/>
-      <c r="K1" s="305"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="305"/>
-      <c r="N1" s="307" t="s">
+      <c r="J1" s="302"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="372"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="305" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="299" t="s">
+      <c r="A2" s="297" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="300" t="s">
+      <c r="B2" s="298" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="301" t="s">
+      <c r="C2" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="300" t="s">
+      <c r="D2" s="298" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="302" t="s">
+      <c r="E2" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="291" t="s">
+      <c r="F2" s="289" t="s">
         <v>210</v>
       </c>
-      <c r="I2" s="299" t="s">
+      <c r="I2" s="297" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="311" t="s">
+      <c r="J2" s="309" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="301" t="s">
+      <c r="K2" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="300" t="s">
+      <c r="L2" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="301" t="s">
+      <c r="M2" s="299" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="312" t="s">
+      <c r="N2" s="310" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="295" t="s">
+      <c r="A3" s="293" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="294" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="297">
+      <c r="C3" s="295">
         <v>15652.4</v>
       </c>
-      <c r="D3" s="298"/>
+      <c r="D3" s="296"/>
       <c r="E3" s="215"/>
       <c r="F3" s="183">
         <f>C3-E3</f>
         <v>15652.4</v>
       </c>
-      <c r="I3" s="308"/>
-      <c r="J3" s="309"/>
-      <c r="K3" s="310"/>
-      <c r="L3" s="308"/>
+      <c r="I3" s="306"/>
+      <c r="J3" s="307"/>
+      <c r="K3" s="308"/>
+      <c r="L3" s="374"/>
       <c r="M3" s="215"/>
       <c r="N3" s="183">
         <f>K3-M3</f>
@@ -12836,10 +12871,10 @@
       <c r="A4" s="245" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="261" t="s">
+      <c r="B4" s="260" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="262">
+      <c r="C4" s="261">
         <v>6679.8</v>
       </c>
       <c r="D4" s="136"/>
@@ -12849,7 +12884,7 @@
         <v>22332.2</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="I4" s="290" t="s">
+      <c r="I4" s="288" t="s">
         <v>125</v>
       </c>
       <c r="J4" s="38">
@@ -12858,8 +12893,8 @@
       <c r="K4" s="111">
         <v>5707.22</v>
       </c>
-      <c r="L4" s="290" t="s">
-        <v>195</v>
+      <c r="L4" s="375">
+        <v>44536</v>
       </c>
       <c r="M4" s="69"/>
       <c r="N4" s="137">
@@ -12871,10 +12906,10 @@
       <c r="A5" s="245" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="261" t="s">
+      <c r="B5" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="262">
+      <c r="C5" s="261">
         <v>18704.419999999998</v>
       </c>
       <c r="D5" s="136"/>
@@ -12883,7 +12918,7 @@
         <f t="shared" ref="F5:F56" si="0">F4+C5-E5</f>
         <v>41036.619999999995</v>
       </c>
-      <c r="I5" s="290" t="s">
+      <c r="I5" s="288" t="s">
         <v>125</v>
       </c>
       <c r="J5" s="38">
@@ -12892,8 +12927,8 @@
       <c r="K5" s="111">
         <v>30</v>
       </c>
-      <c r="L5" s="290" t="s">
-        <v>195</v>
+      <c r="L5" s="375">
+        <v>44536</v>
       </c>
       <c r="M5" s="69"/>
       <c r="N5" s="137">
@@ -12905,10 +12940,10 @@
       <c r="A6" s="245" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="261" t="s">
+      <c r="B6" s="260" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="262">
+      <c r="C6" s="261">
         <v>840</v>
       </c>
       <c r="D6" s="136"/>
@@ -12917,7 +12952,7 @@
         <f t="shared" si="0"/>
         <v>41876.619999999995</v>
       </c>
-      <c r="I6" s="290" t="s">
+      <c r="I6" s="288" t="s">
         <v>128</v>
       </c>
       <c r="J6" s="38">
@@ -12926,8 +12961,8 @@
       <c r="K6" s="111">
         <v>3667.5</v>
       </c>
-      <c r="L6" s="290" t="s">
-        <v>195</v>
+      <c r="L6" s="375">
+        <v>44536</v>
       </c>
       <c r="M6" s="69"/>
       <c r="N6" s="137">
@@ -12935,7 +12970,7 @@
         <v>9404.7200000000012</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="245" t="s">
         <v>131</v>
       </c>
@@ -12945,13 +12980,15 @@
       <c r="C7" s="111">
         <v>7697.8</v>
       </c>
-      <c r="D7" s="136"/>
+      <c r="D7" s="136" t="s">
+        <v>7</v>
+      </c>
       <c r="E7" s="69"/>
       <c r="F7" s="137">
         <f t="shared" si="0"/>
         <v>49574.42</v>
       </c>
-      <c r="I7" s="290" t="s">
+      <c r="I7" s="288" t="s">
         <v>128</v>
       </c>
       <c r="J7" s="38">
@@ -12960,8 +12997,8 @@
       <c r="K7" s="111">
         <v>120</v>
       </c>
-      <c r="L7" s="290" t="s">
-        <v>195</v>
+      <c r="L7" s="375">
+        <v>44536</v>
       </c>
       <c r="M7" s="69"/>
       <c r="N7" s="137">
@@ -12985,7 +13022,7 @@
         <f t="shared" si="0"/>
         <v>73417.320000000007</v>
       </c>
-      <c r="I8" s="290" t="s">
+      <c r="I8" s="288" t="s">
         <v>128</v>
       </c>
       <c r="J8" s="38">
@@ -12994,8 +13031,8 @@
       <c r="K8" s="111">
         <v>436.5</v>
       </c>
-      <c r="L8" s="290" t="s">
-        <v>195</v>
+      <c r="L8" s="375">
+        <v>44536</v>
       </c>
       <c r="M8" s="69"/>
       <c r="N8" s="137">
@@ -13019,7 +13056,7 @@
         <f t="shared" si="0"/>
         <v>102606.02</v>
       </c>
-      <c r="I9" s="290" t="s">
+      <c r="I9" s="288" t="s">
         <v>131</v>
       </c>
       <c r="J9" s="38">
@@ -13028,8 +13065,8 @@
       <c r="K9" s="111">
         <v>9412.4500000000007</v>
       </c>
-      <c r="L9" s="290" t="s">
-        <v>195</v>
+      <c r="L9" s="375">
+        <v>44536</v>
       </c>
       <c r="M9" s="69"/>
       <c r="N9" s="137">
@@ -13054,7 +13091,7 @@
         <v>104718.52</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="I10" s="290" t="s">
+      <c r="I10" s="288" t="s">
         <v>131</v>
       </c>
       <c r="J10" s="38">
@@ -13063,8 +13100,8 @@
       <c r="K10" s="111">
         <v>10285</v>
       </c>
-      <c r="L10" s="290" t="s">
-        <v>195</v>
+      <c r="L10" s="375">
+        <v>44536</v>
       </c>
       <c r="M10" s="69"/>
       <c r="N10" s="137">
@@ -13088,7 +13125,7 @@
         <f t="shared" si="0"/>
         <v>114742.32</v>
       </c>
-      <c r="I11" s="290" t="s">
+      <c r="I11" s="288" t="s">
         <v>134</v>
       </c>
       <c r="J11" s="38">
@@ -13097,8 +13134,8 @@
       <c r="K11" s="111">
         <v>2504.94</v>
       </c>
-      <c r="L11" s="290" t="s">
-        <v>195</v>
+      <c r="L11" s="375">
+        <v>44536</v>
       </c>
       <c r="M11" s="69"/>
       <c r="N11" s="137">
@@ -13122,7 +13159,7 @@
         <f t="shared" si="0"/>
         <v>144234.77000000002</v>
       </c>
-      <c r="I12" s="290" t="s">
+      <c r="I12" s="288" t="s">
         <v>137</v>
       </c>
       <c r="J12" s="38">
@@ -13131,8 +13168,8 @@
       <c r="K12" s="111">
         <v>800</v>
       </c>
-      <c r="L12" s="290" t="s">
-        <v>137</v>
+      <c r="L12" s="375">
+        <v>44512</v>
       </c>
       <c r="M12" s="69">
         <v>800</v>
@@ -13158,7 +13195,7 @@
         <f t="shared" si="0"/>
         <v>152682.27000000002</v>
       </c>
-      <c r="I13" s="290" t="s">
+      <c r="I13" s="288" t="s">
         <v>137</v>
       </c>
       <c r="J13" s="38">
@@ -13167,8 +13204,8 @@
       <c r="K13" s="111">
         <v>733.6</v>
       </c>
-      <c r="L13" s="290" t="s">
-        <v>195</v>
+      <c r="L13" s="375">
+        <v>44536</v>
       </c>
       <c r="M13" s="69"/>
       <c r="N13" s="137">
@@ -13192,7 +13229,7 @@
         <f t="shared" si="0"/>
         <v>153805.77000000002</v>
       </c>
-      <c r="I14" s="290" t="s">
+      <c r="I14" s="288" t="s">
         <v>137</v>
       </c>
       <c r="J14" s="38">
@@ -13201,8 +13238,8 @@
       <c r="K14" s="111">
         <v>675</v>
       </c>
-      <c r="L14" s="290" t="s">
-        <v>195</v>
+      <c r="L14" s="375">
+        <v>44536</v>
       </c>
       <c r="M14" s="69"/>
       <c r="N14" s="137">
@@ -13226,7 +13263,7 @@
         <f t="shared" si="0"/>
         <v>168484.37000000002</v>
       </c>
-      <c r="I15" s="290" t="s">
+      <c r="I15" s="288" t="s">
         <v>139</v>
       </c>
       <c r="J15" s="38">
@@ -13235,8 +13272,8 @@
       <c r="K15" s="111">
         <v>5566.27</v>
       </c>
-      <c r="L15" s="290" t="s">
-        <v>195</v>
+      <c r="L15" s="375">
+        <v>44536</v>
       </c>
       <c r="M15" s="69"/>
       <c r="N15" s="137">
@@ -13260,7 +13297,7 @@
         <f t="shared" si="0"/>
         <v>199614.07000000004</v>
       </c>
-      <c r="I16" s="290" t="s">
+      <c r="I16" s="288" t="s">
         <v>196</v>
       </c>
       <c r="J16" s="38">
@@ -13269,8 +13306,8 @@
       <c r="K16" s="111">
         <v>60</v>
       </c>
-      <c r="L16" s="290" t="s">
-        <v>195</v>
+      <c r="L16" s="375">
+        <v>44536</v>
       </c>
       <c r="M16" s="69"/>
       <c r="N16" s="137">
@@ -13294,7 +13331,7 @@
         <f t="shared" si="0"/>
         <v>213788.97000000003</v>
       </c>
-      <c r="I17" s="290" t="s">
+      <c r="I17" s="288" t="s">
         <v>196</v>
       </c>
       <c r="J17" s="38">
@@ -13303,8 +13340,8 @@
       <c r="K17" s="111">
         <v>4155</v>
       </c>
-      <c r="L17" s="290" t="s">
-        <v>195</v>
+      <c r="L17" s="375">
+        <v>44536</v>
       </c>
       <c r="M17" s="69"/>
       <c r="N17" s="137">
@@ -13328,7 +13365,7 @@
         <f t="shared" si="0"/>
         <v>216252.72000000003</v>
       </c>
-      <c r="I18" s="290" t="s">
+      <c r="I18" s="288" t="s">
         <v>142</v>
       </c>
       <c r="J18" s="38">
@@ -13337,8 +13374,8 @@
       <c r="K18" s="111">
         <v>1620.32</v>
       </c>
-      <c r="L18" s="290" t="s">
-        <v>195</v>
+      <c r="L18" s="375">
+        <v>44536</v>
       </c>
       <c r="M18" s="69"/>
       <c r="N18" s="137">
@@ -13362,7 +13399,7 @@
         <f t="shared" si="0"/>
         <v>226152.72000000003</v>
       </c>
-      <c r="I19" s="290" t="s">
+      <c r="I19" s="288" t="s">
         <v>144</v>
       </c>
       <c r="J19" s="38">
@@ -13371,8 +13408,8 @@
       <c r="K19" s="111">
         <v>2386.12</v>
       </c>
-      <c r="L19" s="290" t="s">
-        <v>195</v>
+      <c r="L19" s="375">
+        <v>44536</v>
       </c>
       <c r="M19" s="69"/>
       <c r="N19" s="137">
@@ -13396,7 +13433,7 @@
         <f t="shared" si="0"/>
         <v>246437.22000000003</v>
       </c>
-      <c r="I20" s="290" t="s">
+      <c r="I20" s="288" t="s">
         <v>144</v>
       </c>
       <c r="J20" s="38">
@@ -13405,8 +13442,8 @@
       <c r="K20" s="111">
         <v>2376.56</v>
       </c>
-      <c r="L20" s="290" t="s">
-        <v>195</v>
+      <c r="L20" s="375">
+        <v>44536</v>
       </c>
       <c r="M20" s="69"/>
       <c r="N20" s="137">
@@ -13430,7 +13467,7 @@
         <f t="shared" si="0"/>
         <v>255046.22000000003</v>
       </c>
-      <c r="I21" s="290" t="s">
+      <c r="I21" s="288" t="s">
         <v>147</v>
       </c>
       <c r="J21" s="38">
@@ -13439,8 +13476,8 @@
       <c r="K21" s="111">
         <v>3020.38</v>
       </c>
-      <c r="L21" s="290" t="s">
-        <v>195</v>
+      <c r="L21" s="375">
+        <v>44536</v>
       </c>
       <c r="M21" s="69"/>
       <c r="N21" s="137">
@@ -13465,7 +13502,7 @@
         <v>287890.52</v>
       </c>
       <c r="G22" s="138"/>
-      <c r="I22" s="290" t="s">
+      <c r="I22" s="288" t="s">
         <v>151</v>
       </c>
       <c r="J22" s="38">
@@ -13474,8 +13511,8 @@
       <c r="K22" s="111">
         <v>2524.2399999999998</v>
       </c>
-      <c r="L22" s="290" t="s">
-        <v>195</v>
+      <c r="L22" s="375">
+        <v>44536</v>
       </c>
       <c r="M22" s="69"/>
       <c r="N22" s="137">
@@ -13499,7 +13536,7 @@
         <f t="shared" si="0"/>
         <v>289692.32</v>
       </c>
-      <c r="I23" s="290" t="s">
+      <c r="I23" s="288" t="s">
         <v>154</v>
       </c>
       <c r="J23" s="38">
@@ -13508,8 +13545,8 @@
       <c r="K23" s="111">
         <v>1789.6</v>
       </c>
-      <c r="L23" s="290" t="s">
-        <v>195</v>
+      <c r="L23" s="375">
+        <v>44536</v>
       </c>
       <c r="M23" s="69"/>
       <c r="N23" s="137">
@@ -13533,7 +13570,7 @@
         <f t="shared" si="0"/>
         <v>290392.32000000001</v>
       </c>
-      <c r="I24" s="290" t="s">
+      <c r="I24" s="288" t="s">
         <v>154</v>
       </c>
       <c r="J24" s="38">
@@ -13542,8 +13579,8 @@
       <c r="K24" s="111">
         <v>2590.2199999999998</v>
       </c>
-      <c r="L24" s="290" t="s">
-        <v>195</v>
+      <c r="L24" s="375">
+        <v>44536</v>
       </c>
       <c r="M24" s="69"/>
       <c r="N24" s="137">
@@ -13567,7 +13604,7 @@
         <f t="shared" si="0"/>
         <v>290392.32000000001</v>
       </c>
-      <c r="I25" s="290" t="s">
+      <c r="I25" s="288" t="s">
         <v>157</v>
       </c>
       <c r="J25" s="38">
@@ -13576,8 +13613,8 @@
       <c r="K25" s="111">
         <v>5268.02</v>
       </c>
-      <c r="L25" s="290" t="s">
-        <v>195</v>
+      <c r="L25" s="375">
+        <v>44536</v>
       </c>
       <c r="M25" s="69"/>
       <c r="N25" s="137">
@@ -13601,7 +13638,7 @@
         <f t="shared" si="0"/>
         <v>325302.22000000003</v>
       </c>
-      <c r="I26" s="290" t="s">
+      <c r="I26" s="288" t="s">
         <v>157</v>
       </c>
       <c r="J26" s="38">
@@ -13610,8 +13647,8 @@
       <c r="K26" s="111">
         <v>1272.24</v>
       </c>
-      <c r="L26" s="290" t="s">
-        <v>195</v>
+      <c r="L26" s="375">
+        <v>44536</v>
       </c>
       <c r="M26" s="69"/>
       <c r="N26" s="137">
@@ -13635,7 +13672,7 @@
         <f t="shared" si="0"/>
         <v>330754.12000000005</v>
       </c>
-      <c r="I27" s="290" t="s">
+      <c r="I27" s="288" t="s">
         <v>197</v>
       </c>
       <c r="J27" s="38">
@@ -13644,8 +13681,8 @@
       <c r="K27" s="111">
         <v>2132.7199999999998</v>
       </c>
-      <c r="L27" s="290" t="s">
-        <v>195</v>
+      <c r="L27" s="375">
+        <v>44536</v>
       </c>
       <c r="M27" s="69"/>
       <c r="N27" s="137">
@@ -13669,7 +13706,7 @@
         <f t="shared" si="0"/>
         <v>336874.12000000005</v>
       </c>
-      <c r="I28" s="290" t="s">
+      <c r="I28" s="288" t="s">
         <v>162</v>
       </c>
       <c r="J28" s="38">
@@ -13678,8 +13715,8 @@
       <c r="K28" s="111">
         <v>5711.74</v>
       </c>
-      <c r="L28" s="290" t="s">
-        <v>195</v>
+      <c r="L28" s="375">
+        <v>44536</v>
       </c>
       <c r="M28" s="69"/>
       <c r="N28" s="137">
@@ -13703,7 +13740,7 @@
         <f t="shared" si="0"/>
         <v>337074.52000000008</v>
       </c>
-      <c r="I29" s="290" t="s">
+      <c r="I29" s="288" t="s">
         <v>165</v>
       </c>
       <c r="J29" s="38">
@@ -13712,8 +13749,8 @@
       <c r="K29" s="111">
         <v>1624.34</v>
       </c>
-      <c r="L29" s="290" t="s">
-        <v>195</v>
+      <c r="L29" s="375">
+        <v>44536</v>
       </c>
       <c r="M29" s="69"/>
       <c r="N29" s="137">
@@ -13738,7 +13775,7 @@
         <v>353510.72000000009</v>
       </c>
       <c r="G30" s="138"/>
-      <c r="I30" s="290" t="s">
+      <c r="I30" s="288" t="s">
         <v>167</v>
       </c>
       <c r="J30" s="38">
@@ -13747,8 +13784,8 @@
       <c r="K30" s="111">
         <v>1017</v>
       </c>
-      <c r="L30" s="290" t="s">
-        <v>195</v>
+      <c r="L30" s="375">
+        <v>44536</v>
       </c>
       <c r="M30" s="69"/>
       <c r="N30" s="137">
@@ -13772,7 +13809,7 @@
         <f t="shared" si="0"/>
         <v>359281.22000000009</v>
       </c>
-      <c r="I31" s="290" t="s">
+      <c r="I31" s="288" t="s">
         <v>170</v>
       </c>
       <c r="J31" s="38">
@@ -13781,8 +13818,8 @@
       <c r="K31" s="111">
         <v>2570.5</v>
       </c>
-      <c r="L31" s="290" t="s">
-        <v>195</v>
+      <c r="L31" s="375">
+        <v>44536</v>
       </c>
       <c r="M31" s="69"/>
       <c r="N31" s="137">
@@ -13806,7 +13843,7 @@
         <f t="shared" si="0"/>
         <v>391068.0500000001</v>
       </c>
-      <c r="I32" s="290" t="s">
+      <c r="I32" s="288" t="s">
         <v>170</v>
       </c>
       <c r="J32" s="38">
@@ -13815,8 +13852,8 @@
       <c r="K32" s="111">
         <v>220</v>
       </c>
-      <c r="L32" s="290" t="s">
-        <v>195</v>
+      <c r="L32" s="375">
+        <v>44536</v>
       </c>
       <c r="M32" s="69"/>
       <c r="N32" s="137">
@@ -13840,7 +13877,7 @@
         <f t="shared" si="0"/>
         <v>392101.65000000008</v>
       </c>
-      <c r="I33" s="290" t="s">
+      <c r="I33" s="288" t="s">
         <v>173</v>
       </c>
       <c r="J33" s="38">
@@ -13849,8 +13886,8 @@
       <c r="K33" s="111">
         <v>1057.4000000000001</v>
       </c>
-      <c r="L33" s="290" t="s">
-        <v>195</v>
+      <c r="L33" s="375">
+        <v>44536</v>
       </c>
       <c r="M33" s="69"/>
       <c r="N33" s="137">
@@ -13874,7 +13911,7 @@
         <f t="shared" si="0"/>
         <v>415429.0500000001</v>
       </c>
-      <c r="I34" s="290" t="s">
+      <c r="I34" s="288" t="s">
         <v>176</v>
       </c>
       <c r="J34" s="38">
@@ -13883,8 +13920,8 @@
       <c r="K34" s="111">
         <v>2185.46</v>
       </c>
-      <c r="L34" s="290" t="s">
-        <v>195</v>
+      <c r="L34" s="375">
+        <v>44536</v>
       </c>
       <c r="M34" s="69"/>
       <c r="N34" s="137">
@@ -13896,19 +13933,19 @@
       <c r="A35" s="245" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="263" t="s">
+      <c r="B35" s="262" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="264">
+      <c r="C35" s="263">
         <v>9701.98</v>
       </c>
-      <c r="D35" s="265"/>
+      <c r="D35" s="264"/>
       <c r="E35" s="69"/>
       <c r="F35" s="137">
         <f t="shared" si="0"/>
         <v>425131.03000000009</v>
       </c>
-      <c r="I35" s="290" t="s">
+      <c r="I35" s="288" t="s">
         <v>179</v>
       </c>
       <c r="J35" s="38">
@@ -13917,8 +13954,8 @@
       <c r="K35" s="111">
         <v>7065.94</v>
       </c>
-      <c r="L35" s="290" t="s">
-        <v>195</v>
+      <c r="L35" s="375">
+        <v>44536</v>
       </c>
       <c r="M35" s="69"/>
       <c r="N35" s="137">
@@ -13926,7 +13963,7 @@
         <v>89786.28</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="245" t="s">
         <v>173</v>
       </c>
@@ -13936,17 +13973,17 @@
       <c r="C36" s="111">
         <v>19002.599999999999</v>
       </c>
-      <c r="D36" s="140">
+      <c r="D36" s="380">
         <v>44536</v>
       </c>
-      <c r="E36" s="69">
+      <c r="E36" s="263">
         <v>440783.04</v>
       </c>
-      <c r="F36" s="281">
+      <c r="F36" s="369">
         <f t="shared" si="0"/>
         <v>3350.5900000000838</v>
       </c>
-      <c r="I36" s="290" t="s">
+      <c r="I36" s="288" t="s">
         <v>179</v>
       </c>
       <c r="J36" s="38">
@@ -13955,8 +13992,8 @@
       <c r="K36" s="111">
         <v>2509.7199999999998</v>
       </c>
-      <c r="L36" s="290" t="s">
-        <v>195</v>
+      <c r="L36" s="375">
+        <v>44536</v>
       </c>
       <c r="M36" s="69"/>
       <c r="N36" s="137">
@@ -13980,7 +14017,7 @@
         <f t="shared" si="0"/>
         <v>18355.090000000084</v>
       </c>
-      <c r="I37" s="290" t="s">
+      <c r="I37" s="288" t="s">
         <v>181</v>
       </c>
       <c r="J37" s="38">
@@ -13989,8 +14026,8 @@
       <c r="K37" s="111">
         <v>6480.14</v>
       </c>
-      <c r="L37" s="290" t="s">
-        <v>195</v>
+      <c r="L37" s="375">
+        <v>44536</v>
       </c>
       <c r="M37" s="69"/>
       <c r="N37" s="137">
@@ -14014,7 +14051,7 @@
         <f t="shared" si="0"/>
         <v>30008.090000000084</v>
       </c>
-      <c r="I38" s="290" t="s">
+      <c r="I38" s="288" t="s">
         <v>184</v>
       </c>
       <c r="J38" s="38">
@@ -14023,8 +14060,8 @@
       <c r="K38" s="111">
         <v>14917</v>
       </c>
-      <c r="L38" s="290" t="s">
-        <v>195</v>
+      <c r="L38" s="375">
+        <v>44536</v>
       </c>
       <c r="M38" s="69"/>
       <c r="N38" s="137">
@@ -14048,7 +14085,7 @@
         <f t="shared" si="0"/>
         <v>43572.490000000085</v>
       </c>
-      <c r="I39" s="290" t="s">
+      <c r="I39" s="288" t="s">
         <v>184</v>
       </c>
       <c r="J39" s="38">
@@ -14057,8 +14094,8 @@
       <c r="K39" s="111">
         <v>23258.400000000001</v>
       </c>
-      <c r="L39" s="290" t="s">
-        <v>195</v>
+      <c r="L39" s="375">
+        <v>44536</v>
       </c>
       <c r="M39" s="69"/>
       <c r="N39" s="137">
@@ -14082,7 +14119,7 @@
         <f t="shared" si="0"/>
         <v>66924.590000000084</v>
       </c>
-      <c r="I40" s="290" t="s">
+      <c r="I40" s="288" t="s">
         <v>186</v>
       </c>
       <c r="J40" s="38">
@@ -14091,8 +14128,8 @@
       <c r="K40" s="111">
         <v>4062.48</v>
       </c>
-      <c r="L40" s="290" t="s">
-        <v>195</v>
+      <c r="L40" s="375">
+        <v>44536</v>
       </c>
       <c r="M40" s="69"/>
       <c r="N40" s="137">
@@ -14116,7 +14153,7 @@
         <f t="shared" si="0"/>
         <v>67987.19000000009</v>
       </c>
-      <c r="I41" s="290" t="s">
+      <c r="I41" s="288" t="s">
         <v>189</v>
       </c>
       <c r="J41" s="38">
@@ -14125,8 +14162,8 @@
       <c r="K41" s="111">
         <v>2667.28</v>
       </c>
-      <c r="L41" s="290" t="s">
-        <v>195</v>
+      <c r="L41" s="375">
+        <v>44536</v>
       </c>
       <c r="M41" s="69"/>
       <c r="N41" s="137">
@@ -14150,7 +14187,7 @@
         <f t="shared" si="0"/>
         <v>91704.090000000084</v>
       </c>
-      <c r="I42" s="290" t="s">
+      <c r="I42" s="288" t="s">
         <v>189</v>
       </c>
       <c r="J42" s="38">
@@ -14159,8 +14196,8 @@
       <c r="K42" s="111">
         <v>19440.8</v>
       </c>
-      <c r="L42" s="290" t="s">
-        <v>195</v>
+      <c r="L42" s="375">
+        <v>44536</v>
       </c>
       <c r="M42" s="69"/>
       <c r="N42" s="137">
@@ -14184,7 +14221,7 @@
         <f t="shared" si="0"/>
         <v>91704.090000000084</v>
       </c>
-      <c r="I43" s="290" t="s">
+      <c r="I43" s="288" t="s">
         <v>189</v>
       </c>
       <c r="J43" s="38">
@@ -14193,8 +14230,8 @@
       <c r="K43" s="111">
         <v>803.24</v>
       </c>
-      <c r="L43" s="290" t="s">
-        <v>195</v>
+      <c r="L43" s="375">
+        <v>44536</v>
       </c>
       <c r="M43" s="69"/>
       <c r="N43" s="137">
@@ -14224,10 +14261,10 @@
       <c r="L44" s="282">
         <v>44536</v>
       </c>
-      <c r="M44" s="283">
+      <c r="M44" s="281">
         <v>163925.34</v>
       </c>
-      <c r="N44" s="281">
+      <c r="N44" s="280">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -14251,7 +14288,7 @@
       <c r="I45" s="219"/>
       <c r="J45" s="220"/>
       <c r="K45" s="221"/>
-      <c r="L45" s="140"/>
+      <c r="L45" s="253"/>
       <c r="M45" s="69"/>
       <c r="N45" s="137">
         <f t="shared" si="1"/>
@@ -14277,7 +14314,7 @@
       <c r="I46" s="219"/>
       <c r="J46" s="220"/>
       <c r="K46" s="221"/>
-      <c r="L46" s="140"/>
+      <c r="L46" s="253"/>
       <c r="M46" s="69"/>
       <c r="N46" s="137">
         <f t="shared" si="1"/>
@@ -14303,7 +14340,7 @@
       <c r="I47" s="219"/>
       <c r="J47" s="220"/>
       <c r="K47" s="221"/>
-      <c r="L47" s="140"/>
+      <c r="L47" s="253"/>
       <c r="M47" s="69"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
@@ -14312,24 +14349,24 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="242">
-        <v>44534</v>
+        <v>44533</v>
       </c>
       <c r="B48" s="241" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="C48" s="244">
-        <v>73956.800000000003</v>
+        <v>17024.8</v>
       </c>
       <c r="D48" s="140"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
         <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
+        <v>209173.34000000005</v>
       </c>
       <c r="I48" s="219"/>
       <c r="J48" s="220"/>
       <c r="K48" s="221"/>
-      <c r="L48" s="140"/>
+      <c r="L48" s="253"/>
       <c r="M48" s="69"/>
       <c r="N48" s="137">
         <f t="shared" si="1"/>
@@ -14337,19 +14374,25 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="140"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="215"/>
+      <c r="A49" s="140">
+        <v>44533</v>
+      </c>
+      <c r="B49" s="139" t="s">
+        <v>313</v>
+      </c>
+      <c r="C49" s="215">
+        <v>7870.56</v>
+      </c>
       <c r="D49" s="140"/>
       <c r="E49" s="69"/>
       <c r="F49" s="137">
         <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
+        <v>217043.90000000005</v>
       </c>
       <c r="I49" s="219"/>
       <c r="J49" s="220"/>
       <c r="K49" s="221"/>
-      <c r="L49" s="140"/>
+      <c r="L49" s="253"/>
       <c r="M49" s="69"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -14357,19 +14400,29 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="134"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="69"/>
+      <c r="A50" s="242">
+        <v>44534</v>
+      </c>
+      <c r="B50" s="241" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="244">
+        <v>73956.800000000003</v>
+      </c>
+      <c r="D50" s="140">
+        <v>44554</v>
+      </c>
+      <c r="E50" s="69">
+        <v>291000.7</v>
+      </c>
       <c r="F50" s="137">
         <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I50" s="134"/>
       <c r="J50" s="139"/>
       <c r="K50" s="69"/>
-      <c r="L50" s="140"/>
+      <c r="L50" s="253"/>
       <c r="M50" s="69"/>
       <c r="N50" s="137">
         <f t="shared" si="1"/>
@@ -14384,19 +14437,19 @@
       <c r="E51" s="69"/>
       <c r="F51" s="137">
         <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I51" s="141"/>
       <c r="J51" s="142"/>
       <c r="K51" s="143"/>
-      <c r="L51" s="140"/>
+      <c r="L51" s="253"/>
       <c r="M51" s="69"/>
       <c r="N51" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="141"/>
       <c r="B52" s="142"/>
       <c r="C52" s="143"/>
@@ -14404,19 +14457,19 @@
       <c r="E52" s="69"/>
       <c r="F52" s="137">
         <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I52" s="141"/>
       <c r="J52" s="142"/>
       <c r="K52" s="143"/>
-      <c r="L52" s="140"/>
+      <c r="L52" s="253"/>
       <c r="M52" s="69"/>
       <c r="N52" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="141"/>
       <c r="B53" s="142"/>
       <c r="C53" s="143"/>
@@ -14424,19 +14477,19 @@
       <c r="E53" s="69"/>
       <c r="F53" s="137">
         <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I53" s="141"/>
       <c r="J53" s="142"/>
       <c r="K53" s="143"/>
-      <c r="L53" s="140"/>
+      <c r="L53" s="253"/>
       <c r="M53" s="69"/>
       <c r="N53" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="141"/>
       <c r="B54" s="142"/>
       <c r="C54" s="143"/>
@@ -14444,19 +14497,19 @@
       <c r="E54" s="69"/>
       <c r="F54" s="137">
         <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I54" s="141"/>
       <c r="J54" s="142"/>
       <c r="K54" s="143"/>
-      <c r="L54" s="140"/>
+      <c r="L54" s="253"/>
       <c r="M54" s="69"/>
       <c r="N54" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="141"/>
       <c r="B55" s="142"/>
       <c r="C55" s="143"/>
@@ -14464,19 +14517,19 @@
       <c r="E55" s="69"/>
       <c r="F55" s="137">
         <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I55" s="141"/>
       <c r="J55" s="142"/>
       <c r="K55" s="143"/>
-      <c r="L55" s="140"/>
+      <c r="L55" s="253"/>
       <c r="M55" s="69"/>
       <c r="N55" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="141"/>
       <c r="B56" s="142"/>
       <c r="C56" s="143"/>
@@ -14484,19 +14537,19 @@
       <c r="E56" s="69"/>
       <c r="F56" s="137">
         <f t="shared" si="0"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I56" s="141"/>
       <c r="J56" s="142"/>
       <c r="K56" s="143"/>
-      <c r="L56" s="140"/>
+      <c r="L56" s="253"/>
       <c r="M56" s="69"/>
       <c r="N56" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="141"/>
       <c r="B57" s="142"/>
       <c r="C57" s="143"/>
@@ -14504,19 +14557,19 @@
       <c r="E57" s="69"/>
       <c r="F57" s="137">
         <f t="shared" ref="F57:F85" si="2">F56+C57-E57</f>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I57" s="141"/>
       <c r="J57" s="142"/>
       <c r="K57" s="143"/>
-      <c r="L57" s="140"/>
+      <c r="L57" s="253"/>
       <c r="M57" s="69"/>
       <c r="N57" s="137">
         <f t="shared" ref="N57:N85" si="3">N56+K57-M57</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="141"/>
       <c r="B58" s="142"/>
       <c r="C58" s="143"/>
@@ -14524,19 +14577,19 @@
       <c r="E58" s="69"/>
       <c r="F58" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I58" s="141"/>
       <c r="J58" s="142"/>
       <c r="K58" s="143"/>
-      <c r="L58" s="140"/>
+      <c r="L58" s="253"/>
       <c r="M58" s="69"/>
       <c r="N58" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="141"/>
       <c r="B59" s="142"/>
       <c r="C59" s="143"/>
@@ -14544,19 +14597,19 @@
       <c r="E59" s="69"/>
       <c r="F59" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I59" s="141"/>
       <c r="J59" s="142"/>
       <c r="K59" s="143"/>
-      <c r="L59" s="140"/>
+      <c r="L59" s="253"/>
       <c r="M59" s="69"/>
       <c r="N59" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="141"/>
       <c r="B60" s="142"/>
       <c r="C60" s="143"/>
@@ -14564,19 +14617,19 @@
       <c r="E60" s="69"/>
       <c r="F60" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I60" s="141"/>
       <c r="J60" s="142"/>
       <c r="K60" s="143"/>
-      <c r="L60" s="140"/>
+      <c r="L60" s="253"/>
       <c r="M60" s="69"/>
       <c r="N60" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="141"/>
       <c r="B61" s="142"/>
       <c r="C61" s="143"/>
@@ -14584,19 +14637,19 @@
       <c r="E61" s="69"/>
       <c r="F61" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I61" s="141"/>
       <c r="J61" s="142"/>
       <c r="K61" s="143"/>
-      <c r="L61" s="140"/>
+      <c r="L61" s="253"/>
       <c r="M61" s="69"/>
       <c r="N61" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="141"/>
       <c r="B62" s="142"/>
       <c r="C62" s="143"/>
@@ -14604,19 +14657,19 @@
       <c r="E62" s="69"/>
       <c r="F62" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I62" s="141"/>
       <c r="J62" s="142"/>
       <c r="K62" s="143"/>
-      <c r="L62" s="140"/>
+      <c r="L62" s="253"/>
       <c r="M62" s="69"/>
       <c r="N62" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="141"/>
       <c r="B63" s="142"/>
       <c r="C63" s="143"/>
@@ -14624,19 +14677,19 @@
       <c r="E63" s="69"/>
       <c r="F63" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I63" s="141"/>
       <c r="J63" s="142"/>
       <c r="K63" s="143"/>
-      <c r="L63" s="140"/>
+      <c r="L63" s="253"/>
       <c r="M63" s="69"/>
       <c r="N63" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="141"/>
       <c r="B64" s="142"/>
       <c r="C64" s="143"/>
@@ -14644,19 +14697,19 @@
       <c r="E64" s="69"/>
       <c r="F64" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I64" s="141"/>
       <c r="J64" s="142"/>
       <c r="K64" s="143"/>
-      <c r="L64" s="140"/>
+      <c r="L64" s="253"/>
       <c r="M64" s="69"/>
       <c r="N64" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="141"/>
       <c r="B65" s="142"/>
       <c r="C65" s="143"/>
@@ -14664,19 +14717,19 @@
       <c r="E65" s="69"/>
       <c r="F65" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I65" s="141"/>
       <c r="J65" s="142"/>
       <c r="K65" s="143"/>
-      <c r="L65" s="140"/>
+      <c r="L65" s="253"/>
       <c r="M65" s="69"/>
       <c r="N65" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="141"/>
       <c r="B66" s="142"/>
       <c r="C66" s="143"/>
@@ -14684,19 +14737,19 @@
       <c r="E66" s="69"/>
       <c r="F66" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I66" s="141"/>
       <c r="J66" s="142"/>
       <c r="K66" s="143"/>
-      <c r="L66" s="140"/>
+      <c r="L66" s="253"/>
       <c r="M66" s="69"/>
       <c r="N66" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="141"/>
       <c r="B67" s="142"/>
       <c r="C67" s="143"/>
@@ -14704,19 +14757,19 @@
       <c r="E67" s="69"/>
       <c r="F67" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I67" s="141"/>
       <c r="J67" s="142"/>
       <c r="K67" s="143"/>
-      <c r="L67" s="140"/>
+      <c r="L67" s="253"/>
       <c r="M67" s="69"/>
       <c r="N67" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="141"/>
       <c r="B68" s="142"/>
       <c r="C68" s="143"/>
@@ -14724,19 +14777,19 @@
       <c r="E68" s="69"/>
       <c r="F68" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I68" s="141"/>
       <c r="J68" s="142"/>
       <c r="K68" s="143"/>
-      <c r="L68" s="140"/>
+      <c r="L68" s="253"/>
       <c r="M68" s="69"/>
       <c r="N68" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="144"/>
       <c r="B69" s="145"/>
       <c r="C69" s="146"/>
@@ -14744,19 +14797,19 @@
       <c r="E69" s="34"/>
       <c r="F69" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I69" s="144"/>
       <c r="J69" s="145"/>
       <c r="K69" s="146"/>
-      <c r="L69" s="147"/>
+      <c r="L69" s="118"/>
       <c r="M69" s="34"/>
       <c r="N69" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="144"/>
       <c r="B70" s="145"/>
       <c r="C70" s="146"/>
@@ -14764,19 +14817,19 @@
       <c r="E70" s="34"/>
       <c r="F70" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I70" s="144"/>
       <c r="J70" s="145"/>
       <c r="K70" s="146"/>
-      <c r="L70" s="147"/>
+      <c r="L70" s="118"/>
       <c r="M70" s="34"/>
       <c r="N70" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="144"/>
       <c r="B71" s="145"/>
       <c r="C71" s="146"/>
@@ -14784,19 +14837,19 @@
       <c r="E71" s="34"/>
       <c r="F71" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I71" s="144"/>
       <c r="J71" s="145"/>
       <c r="K71" s="146"/>
-      <c r="L71" s="147"/>
+      <c r="L71" s="118"/>
       <c r="M71" s="34"/>
       <c r="N71" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="144"/>
       <c r="B72" s="145"/>
       <c r="C72" s="146"/>
@@ -14804,19 +14857,19 @@
       <c r="E72" s="34"/>
       <c r="F72" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I72" s="144"/>
       <c r="J72" s="145"/>
       <c r="K72" s="146"/>
-      <c r="L72" s="147"/>
+      <c r="L72" s="118"/>
       <c r="M72" s="34"/>
       <c r="N72" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="144"/>
       <c r="B73" s="145"/>
       <c r="C73" s="146"/>
@@ -14824,19 +14877,19 @@
       <c r="E73" s="34"/>
       <c r="F73" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I73" s="144"/>
       <c r="J73" s="145"/>
       <c r="K73" s="146"/>
-      <c r="L73" s="147"/>
+      <c r="L73" s="118"/>
       <c r="M73" s="34"/>
       <c r="N73" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="144"/>
       <c r="B74" s="145"/>
       <c r="C74" s="146"/>
@@ -14844,19 +14897,19 @@
       <c r="E74" s="34"/>
       <c r="F74" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I74" s="144"/>
       <c r="J74" s="145"/>
       <c r="K74" s="146"/>
-      <c r="L74" s="147"/>
+      <c r="L74" s="118"/>
       <c r="M74" s="34"/>
       <c r="N74" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="141"/>
       <c r="B75" s="142"/>
       <c r="C75" s="143"/>
@@ -14864,19 +14917,19 @@
       <c r="E75" s="69"/>
       <c r="F75" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I75" s="141"/>
       <c r="J75" s="142"/>
       <c r="K75" s="143"/>
-      <c r="L75" s="148"/>
+      <c r="L75" s="254"/>
       <c r="M75" s="69"/>
       <c r="N75" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="141"/>
       <c r="B76" s="142"/>
       <c r="C76" s="143"/>
@@ -14884,19 +14937,19 @@
       <c r="E76" s="69"/>
       <c r="F76" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I76" s="141"/>
       <c r="J76" s="142"/>
       <c r="K76" s="143"/>
-      <c r="L76" s="148"/>
+      <c r="L76" s="254"/>
       <c r="M76" s="69"/>
       <c r="N76" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="141"/>
       <c r="B77" s="142"/>
       <c r="C77" s="143"/>
@@ -14904,19 +14957,19 @@
       <c r="E77" s="69"/>
       <c r="F77" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I77" s="141"/>
       <c r="J77" s="142"/>
       <c r="K77" s="143"/>
-      <c r="L77" s="148"/>
+      <c r="L77" s="254"/>
       <c r="M77" s="69"/>
       <c r="N77" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="141"/>
       <c r="B78" s="142"/>
       <c r="C78" s="143"/>
@@ -14924,19 +14977,19 @@
       <c r="E78" s="69"/>
       <c r="F78" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I78" s="141"/>
       <c r="J78" s="142"/>
       <c r="K78" s="143"/>
-      <c r="L78" s="148"/>
+      <c r="L78" s="254"/>
       <c r="M78" s="69"/>
       <c r="N78" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="141"/>
       <c r="B79" s="142"/>
       <c r="C79" s="143"/>
@@ -14944,19 +14997,19 @@
       <c r="E79" s="69"/>
       <c r="F79" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I79" s="141"/>
       <c r="J79" s="142"/>
       <c r="K79" s="143"/>
-      <c r="L79" s="148"/>
+      <c r="L79" s="254"/>
       <c r="M79" s="69"/>
       <c r="N79" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="141"/>
       <c r="B80" s="142"/>
       <c r="C80" s="143"/>
@@ -14964,19 +15017,19 @@
       <c r="E80" s="69"/>
       <c r="F80" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I80" s="141"/>
       <c r="J80" s="142"/>
       <c r="K80" s="143"/>
-      <c r="L80" s="148"/>
+      <c r="L80" s="254"/>
       <c r="M80" s="69"/>
       <c r="N80" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="141"/>
       <c r="B81" s="142"/>
       <c r="C81" s="143"/>
@@ -14984,19 +15037,19 @@
       <c r="E81" s="69"/>
       <c r="F81" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I81" s="141"/>
       <c r="J81" s="142"/>
       <c r="K81" s="143"/>
-      <c r="L81" s="148"/>
+      <c r="L81" s="254"/>
       <c r="M81" s="69"/>
       <c r="N81" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="141"/>
       <c r="B82" s="142"/>
       <c r="C82" s="143"/>
@@ -15004,19 +15057,19 @@
       <c r="E82" s="69"/>
       <c r="F82" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I82" s="141"/>
       <c r="J82" s="142"/>
       <c r="K82" s="143"/>
-      <c r="L82" s="148"/>
+      <c r="L82" s="254"/>
       <c r="M82" s="69"/>
       <c r="N82" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="141"/>
       <c r="B83" s="142"/>
       <c r="C83" s="143"/>
@@ -15024,19 +15077,19 @@
       <c r="E83" s="69"/>
       <c r="F83" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I83" s="141"/>
       <c r="J83" s="142"/>
       <c r="K83" s="143"/>
-      <c r="L83" s="148"/>
+      <c r="L83" s="254"/>
       <c r="M83" s="69"/>
       <c r="N83" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="141"/>
       <c r="B84" s="142"/>
       <c r="C84" s="143"/>
@@ -15044,12 +15097,12 @@
       <c r="E84" s="69"/>
       <c r="F84" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I84" s="141"/>
       <c r="J84" s="142"/>
       <c r="K84" s="143"/>
-      <c r="L84" s="148"/>
+      <c r="L84" s="254"/>
       <c r="M84" s="69"/>
       <c r="N84" s="137">
         <f t="shared" si="3"/>
@@ -15066,14 +15119,14 @@
       <c r="E85" s="151"/>
       <c r="F85" s="137">
         <f t="shared" si="2"/>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="I85" s="149"/>
       <c r="J85" s="150"/>
       <c r="K85" s="151">
         <v>0</v>
       </c>
-      <c r="L85" s="152"/>
+      <c r="L85" s="255"/>
       <c r="M85" s="151"/>
       <c r="N85" s="137">
         <f t="shared" si="3"/>
@@ -15084,19 +15137,19 @@
       <c r="B86" s="211"/>
       <c r="C86" s="212">
         <f>SUM(C3:C85)</f>
-        <v>706888.38000000012</v>
+        <v>731783.74000000022</v>
       </c>
       <c r="D86" s="97"/>
       <c r="E86" s="1"/>
       <c r="F86" s="153">
         <f>F85</f>
-        <v>266105.34000000008</v>
+        <v>0</v>
       </c>
       <c r="K86" s="209">
         <f>SUM(K3:K85)</f>
         <v>164725.34</v>
       </c>
-      <c r="L86" s="97"/>
+      <c r="L86" s="256"/>
       <c r="M86" s="1"/>
       <c r="N86" s="153">
         <f>N85</f>
@@ -15108,11 +15161,11 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="433" t="s">
+      <c r="F87" s="443" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
-      <c r="L87" s="97"/>
+      <c r="L87" s="256"/>
       <c r="M87" s="3"/>
       <c r="N87" s="1"/>
     </row>
@@ -15121,9 +15174,9 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="434"/>
+      <c r="F88" s="444"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="97"/>
+      <c r="L88" s="256"/>
       <c r="M88" s="3"/>
       <c r="N88" s="1"/>
     </row>
@@ -15133,7 +15186,6 @@
       <c r="D89" s="23"/>
       <c r="I89"/>
       <c r="J89" s="194"/>
-      <c r="L89" s="23"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90"/>
@@ -15141,7 +15193,6 @@
       <c r="D90" s="23"/>
       <c r="I90"/>
       <c r="J90" s="194"/>
-      <c r="L90" s="23"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91"/>
@@ -15149,7 +15200,6 @@
       <c r="D91" s="23"/>
       <c r="I91"/>
       <c r="J91" s="194"/>
-      <c r="L91" s="23"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92"/>
@@ -15158,7 +15208,6 @@
       <c r="F92"/>
       <c r="I92"/>
       <c r="J92" s="194"/>
-      <c r="L92" s="23"/>
       <c r="N92"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -15168,7 +15217,6 @@
       <c r="F93"/>
       <c r="I93"/>
       <c r="J93" s="194"/>
-      <c r="L93" s="23"/>
       <c r="N93"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -15178,7 +15226,6 @@
       <c r="F94"/>
       <c r="I94"/>
       <c r="J94" s="194"/>
-      <c r="L94" s="23"/>
       <c r="N94"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -15188,7 +15235,6 @@
       <c r="F95"/>
       <c r="I95"/>
       <c r="J95" s="194"/>
-      <c r="L95" s="23"/>
       <c r="N95"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -15198,7 +15244,6 @@
       <c r="F96"/>
       <c r="I96"/>
       <c r="J96" s="194"/>
-      <c r="L96" s="23"/>
       <c r="N96"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -15208,7 +15253,6 @@
       <c r="F97"/>
       <c r="I97"/>
       <c r="J97" s="194"/>
-      <c r="L97" s="23"/>
       <c r="N97"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -15218,7 +15262,6 @@
       <c r="F98"/>
       <c r="I98"/>
       <c r="J98" s="194"/>
-      <c r="L98" s="23"/>
       <c r="N98"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -15228,7 +15271,6 @@
       <c r="F99"/>
       <c r="I99"/>
       <c r="J99" s="194"/>
-      <c r="L99" s="23"/>
       <c r="N99"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -15238,7 +15280,6 @@
       <c r="F100"/>
       <c r="I100"/>
       <c r="J100" s="194"/>
-      <c r="L100" s="23"/>
       <c r="N100"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -15249,7 +15290,6 @@
       <c r="F101"/>
       <c r="I101"/>
       <c r="J101" s="194"/>
-      <c r="L101" s="23"/>
       <c r="M101"/>
       <c r="N101"/>
     </row>
@@ -15261,7 +15301,6 @@
       <c r="F102"/>
       <c r="I102"/>
       <c r="J102" s="194"/>
-      <c r="L102" s="23"/>
       <c r="M102"/>
       <c r="N102"/>
     </row>
@@ -15273,7 +15312,6 @@
       <c r="F103"/>
       <c r="I103"/>
       <c r="J103" s="194"/>
-      <c r="L103" s="23"/>
       <c r="M103"/>
       <c r="N103"/>
     </row>
@@ -15285,7 +15323,6 @@
       <c r="F104"/>
       <c r="I104"/>
       <c r="J104" s="194"/>
-      <c r="L104" s="23"/>
       <c r="M104"/>
       <c r="N104"/>
     </row>
@@ -15297,7 +15334,6 @@
       <c r="F105"/>
       <c r="I105"/>
       <c r="J105" s="194"/>
-      <c r="L105" s="23"/>
       <c r="M105"/>
       <c r="N105"/>
     </row>
@@ -15309,7 +15345,6 @@
       <c r="F106"/>
       <c r="I106"/>
       <c r="J106" s="194"/>
-      <c r="L106" s="23"/>
       <c r="M106"/>
       <c r="N106"/>
     </row>
@@ -15318,7 +15353,6 @@
       <c r="D107" s="23"/>
       <c r="E107"/>
       <c r="J107" s="194"/>
-      <c r="L107" s="23"/>
       <c r="M107"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -15326,7 +15360,6 @@
       <c r="D108" s="23"/>
       <c r="E108"/>
       <c r="J108" s="194"/>
-      <c r="L108" s="23"/>
       <c r="M108"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -15334,7 +15367,6 @@
       <c r="D109" s="23"/>
       <c r="E109"/>
       <c r="J109" s="194"/>
-      <c r="L109" s="23"/>
       <c r="M109"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -15342,7 +15374,6 @@
       <c r="D110" s="23"/>
       <c r="E110"/>
       <c r="J110" s="194"/>
-      <c r="L110" s="23"/>
       <c r="M110"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -15350,7 +15381,6 @@
       <c r="D111" s="23"/>
       <c r="E111"/>
       <c r="J111" s="194"/>
-      <c r="L111" s="23"/>
       <c r="M111"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -15358,7 +15388,6 @@
       <c r="D112" s="23"/>
       <c r="E112"/>
       <c r="J112" s="194"/>
-      <c r="L112" s="23"/>
       <c r="M112"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
@@ -15366,7 +15395,6 @@
       <c r="D113" s="23"/>
       <c r="E113"/>
       <c r="J113" s="194"/>
-      <c r="L113" s="23"/>
       <c r="M113"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
@@ -15374,7 +15402,6 @@
       <c r="D114" s="23"/>
       <c r="E114"/>
       <c r="J114" s="194"/>
-      <c r="L114" s="23"/>
       <c r="M114"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
@@ -15382,7 +15409,6 @@
       <c r="D115" s="23"/>
       <c r="E115"/>
       <c r="J115" s="194"/>
-      <c r="L115" s="23"/>
       <c r="M115"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
@@ -15397,7 +15423,6 @@
       <c r="B118" s="23"/>
       <c r="D118" s="23"/>
       <c r="J118" s="194"/>
-      <c r="L118" s="23"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="23"/>
@@ -15431,7 +15456,7 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
@@ -15461,23 +15486,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="395"/>
-      <c r="C1" s="397" t="s">
+      <c r="B1" s="405"/>
+      <c r="C1" s="407" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
-      <c r="F1" s="398"/>
-      <c r="G1" s="398"/>
-      <c r="H1" s="398"/>
-      <c r="I1" s="398"/>
-      <c r="J1" s="398"/>
-      <c r="K1" s="398"/>
-      <c r="L1" s="398"/>
-      <c r="M1" s="398"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="408"/>
+      <c r="J1" s="408"/>
+      <c r="K1" s="408"/>
+      <c r="L1" s="408"/>
+      <c r="M1" s="408"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="396"/>
+      <c r="B2" s="406"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15487,24 +15512,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="399" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="400"/>
+      <c r="B3" s="409" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="410"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="401" t="s">
+      <c r="H3" s="411" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="401"/>
+      <c r="I3" s="411"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="425" t="s">
+      <c r="P3" s="435" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="435" t="s">
+      <c r="R3" s="445" t="s">
         <v>216</v>
       </c>
     </row>
@@ -15519,14 +15544,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="402" t="s">
+      <c r="E4" s="412" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="403"/>
-      <c r="H4" s="404" t="s">
+      <c r="F4" s="413"/>
+      <c r="H4" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="405"/>
+      <c r="I4" s="415"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -15536,15 +15561,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="426"/>
-      <c r="Q4" s="325" t="s">
+      <c r="P4" s="436"/>
+      <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="436"/>
-      <c r="W4" s="408" t="s">
+      <c r="R4" s="446"/>
+      <c r="W4" s="418" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="408"/>
+      <c r="X4" s="418"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15590,23 +15615,23 @@
       <c r="N5" s="33">
         <v>36272</v>
       </c>
-      <c r="O5" s="321"/>
+      <c r="O5" s="319"/>
       <c r="P5" s="34">
         <f>N5+M5+L5+I5+C5</f>
         <v>68001.14</v>
       </c>
-      <c r="Q5" s="328">
+      <c r="Q5" s="326">
         <f>P5-F5</f>
         <v>0.13999999999941792</v>
       </c>
-      <c r="R5" s="326">
+      <c r="R5" s="324">
         <v>1146750</v>
       </c>
-      <c r="S5" s="327" t="s">
+      <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="408"/>
-      <c r="X5" s="408"/>
+      <c r="W5" s="418"/>
+      <c r="X5" s="418"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15647,15 +15672,15 @@
         <f>N6+M6+L6+I6+C6</f>
         <v>71172</v>
       </c>
-      <c r="Q6" s="328">
+      <c r="Q6" s="326">
         <f>P6-F6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="322">
+      <c r="R6" s="320">
         <v>0</v>
       </c>
       <c r="S6" s="147"/>
-      <c r="U6" s="329" t="s">
+      <c r="U6" s="327" t="s">
         <v>223</v>
       </c>
       <c r="W6" s="234">
@@ -15702,15 +15727,15 @@
         <f t="shared" ref="P7:P32" si="0">N7+M7+L7+I7+C7</f>
         <v>54679.3</v>
       </c>
-      <c r="Q7" s="320">
+      <c r="Q7" s="318">
         <f t="shared" ref="Q7:Q35" si="1">P7-F7</f>
         <v>0.30000000000291038</v>
       </c>
-      <c r="R7" s="322">
+      <c r="R7" s="320">
         <v>0</v>
       </c>
       <c r="S7" s="147"/>
-      <c r="U7" s="330">
+      <c r="U7" s="328">
         <v>12941.5</v>
       </c>
       <c r="W7" s="234">
@@ -15757,15 +15782,15 @@
         <f t="shared" si="0"/>
         <v>73828.209999999992</v>
       </c>
-      <c r="Q8" s="320">
+      <c r="Q8" s="318">
         <f t="shared" si="1"/>
         <v>0.20999999999185093</v>
       </c>
-      <c r="R8" s="322">
+      <c r="R8" s="320">
         <v>0</v>
       </c>
       <c r="S8" s="147"/>
-      <c r="U8" s="330">
+      <c r="U8" s="328">
         <v>19442</v>
       </c>
       <c r="W8" s="234">
@@ -15812,15 +15837,15 @@
         <f>N9+M9+L9+I9+C9</f>
         <v>66009</v>
       </c>
-      <c r="Q9" s="320">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="322">
+      <c r="Q9" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="320">
         <v>0</v>
       </c>
       <c r="S9" s="147"/>
-      <c r="U9" s="330">
+      <c r="U9" s="328">
         <v>36844</v>
       </c>
       <c r="W9" s="234">
@@ -15868,15 +15893,15 @@
         <f t="shared" ref="P10:P14" si="2">N10+M10+L10+I10+C10</f>
         <v>71912.61</v>
       </c>
-      <c r="Q10" s="320">
+      <c r="Q10" s="318">
         <f t="shared" si="1"/>
         <v>-0.38999999999941792</v>
       </c>
-      <c r="R10" s="322">
+      <c r="R10" s="320">
         <v>0</v>
       </c>
       <c r="S10" s="147"/>
-      <c r="U10" s="330">
+      <c r="U10" s="328">
         <v>22942</v>
       </c>
       <c r="W10" s="234">
@@ -15923,15 +15948,15 @@
         <f t="shared" si="2"/>
         <v>52385</v>
       </c>
-      <c r="Q11" s="320">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="322">
+      <c r="Q11" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="320">
         <v>0</v>
       </c>
       <c r="S11" s="147"/>
-      <c r="U11" s="330">
+      <c r="U11" s="328">
         <v>15322.5</v>
       </c>
       <c r="W11" s="234">
@@ -15974,18 +15999,18 @@
       <c r="N12" s="33">
         <v>29594</v>
       </c>
-      <c r="O12" s="331" t="s">
+      <c r="O12" s="329" t="s">
         <v>225</v>
       </c>
       <c r="P12" s="39">
         <f t="shared" si="2"/>
         <v>69062</v>
       </c>
-      <c r="Q12" s="320">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="322">
+      <c r="Q12" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="320">
         <v>0</v>
       </c>
       <c r="S12" s="147"/>
@@ -16038,14 +16063,14 @@
         <f t="shared" si="2"/>
         <v>77884</v>
       </c>
-      <c r="Q13" s="320">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="322">
-        <v>0</v>
-      </c>
-      <c r="S13" s="319"/>
+      <c r="Q13" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="320">
+        <v>0</v>
+      </c>
+      <c r="S13" s="317"/>
       <c r="T13" s="2"/>
       <c r="U13" s="9"/>
       <c r="W13" s="234">
@@ -16093,11 +16118,11 @@
         <f t="shared" si="2"/>
         <v>91826.8</v>
       </c>
-      <c r="Q14" s="320">
+      <c r="Q14" s="318">
         <f t="shared" si="1"/>
         <v>-0.19999999999708962</v>
       </c>
-      <c r="R14" s="322">
+      <c r="R14" s="320">
         <v>0</v>
       </c>
       <c r="S14" s="147"/>
@@ -16145,11 +16170,11 @@
         <f t="shared" si="0"/>
         <v>93120</v>
       </c>
-      <c r="Q15" s="320">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="322">
+      <c r="Q15" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="320">
         <v>0</v>
       </c>
       <c r="S15" s="147"/>
@@ -16193,21 +16218,21 @@
       <c r="N16" s="33">
         <v>32373</v>
       </c>
-      <c r="O16" s="333" t="s">
+      <c r="O16" s="331" t="s">
         <v>229</v>
       </c>
       <c r="P16" s="39">
         <f t="shared" si="0"/>
         <v>142443</v>
       </c>
-      <c r="Q16" s="320">
+      <c r="Q16" s="318">
         <f>P16-F16-49100</f>
         <v>-150</v>
       </c>
-      <c r="R16" s="332">
+      <c r="R16" s="330">
         <v>49100</v>
       </c>
-      <c r="S16" s="334" t="s">
+      <c r="S16" s="332" t="s">
         <v>229</v>
       </c>
       <c r="W16" s="234">
@@ -16254,11 +16279,11 @@
         <f>N17+M17+L17+I17+C17-3135</f>
         <v>83134.5</v>
       </c>
-      <c r="Q17" s="328">
+      <c r="Q17" s="326">
         <f t="shared" si="1"/>
         <v>150.5</v>
       </c>
-      <c r="R17" s="322">
+      <c r="R17" s="320">
         <v>0</v>
       </c>
       <c r="S17" s="147"/>
@@ -16304,11 +16329,11 @@
         <f t="shared" si="0"/>
         <v>57841</v>
       </c>
-      <c r="Q18" s="320">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="322">
+      <c r="Q18" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="320">
         <v>0</v>
       </c>
       <c r="S18" s="147"/>
@@ -16355,15 +16380,15 @@
         <f t="shared" si="0"/>
         <v>107926.5</v>
       </c>
-      <c r="Q19" s="320">
+      <c r="Q19" s="318">
         <f t="shared" si="1"/>
         <v>-601.5</v>
       </c>
-      <c r="R19" s="322">
+      <c r="R19" s="320">
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="412">
+      <c r="W19" s="422">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -16407,16 +16432,16 @@
         <f t="shared" si="0"/>
         <v>142911</v>
       </c>
-      <c r="Q20" s="320">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="322">
+      <c r="Q20" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="320">
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="413"/>
-      <c r="X20" s="269"/>
+      <c r="W20" s="423"/>
+      <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
     <row r="21" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16456,16 +16481,16 @@
         <f t="shared" si="0"/>
         <v>155180</v>
       </c>
-      <c r="Q21" s="320">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="322">
+      <c r="Q21" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="320">
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="414"/>
-      <c r="X21" s="414"/>
+      <c r="W21" s="424"/>
+      <c r="X21" s="424"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -16507,11 +16532,11 @@
         <f t="shared" si="0"/>
         <v>213653</v>
       </c>
-      <c r="Q22" s="320">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="322">
+      <c r="Q22" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="320">
         <v>0</v>
       </c>
       <c r="S22" s="147"/>
@@ -16558,16 +16583,16 @@
         <f t="shared" si="0"/>
         <v>86805</v>
       </c>
-      <c r="Q23" s="320">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="322">
+      <c r="Q23" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="320">
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="415"/>
-      <c r="X23" s="415"/>
+      <c r="W23" s="425"/>
+      <c r="X23" s="425"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -16579,7 +16604,7 @@
       <c r="C24" s="161">
         <v>0</v>
       </c>
-      <c r="D24" s="335" t="s">
+      <c r="D24" s="333" t="s">
         <v>236</v>
       </c>
       <c r="E24" s="27">
@@ -16595,31 +16620,31 @@
       <c r="I24" s="160">
         <v>0</v>
       </c>
-      <c r="J24" s="336" t="s">
+      <c r="J24" s="334" t="s">
         <v>236</v>
       </c>
       <c r="K24" s="173"/>
       <c r="L24" s="52"/>
-      <c r="M24" s="337">
-        <v>0</v>
-      </c>
-      <c r="N24" s="338">
+      <c r="M24" s="335">
+        <v>0</v>
+      </c>
+      <c r="N24" s="336">
         <v>0</v>
       </c>
       <c r="P24" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="320">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="322">
+      <c r="Q24" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="320">
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="415"/>
-      <c r="X24" s="415"/>
+      <c r="W24" s="425"/>
+      <c r="X24" s="425"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -16654,19 +16679,19 @@
       <c r="N25" s="33">
         <v>10911</v>
       </c>
-      <c r="P25" s="285">
+      <c r="P25" s="283">
         <f t="shared" si="0"/>
         <v>27315</v>
       </c>
-      <c r="Q25" s="320">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="322">
-        <v>0</v>
-      </c>
-      <c r="W25" s="416"/>
-      <c r="X25" s="416"/>
+      <c r="Q25" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="320">
+        <v>0</v>
+      </c>
+      <c r="W25" s="426"/>
+      <c r="X25" s="426"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -16703,19 +16728,19 @@
       <c r="N26" s="33">
         <v>20952</v>
       </c>
-      <c r="P26" s="286">
+      <c r="P26" s="284">
         <f t="shared" si="0"/>
         <v>61027</v>
       </c>
-      <c r="Q26" s="320">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="322">
-        <v>0</v>
-      </c>
-      <c r="W26" s="416"/>
-      <c r="X26" s="416"/>
+      <c r="Q26" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="320">
+        <v>0</v>
+      </c>
+      <c r="W26" s="426"/>
+      <c r="X26" s="426"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -16762,11 +16787,11 @@
         <f t="shared" si="0"/>
         <v>84044</v>
       </c>
-      <c r="Q27" s="320">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="322">
+      <c r="Q27" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="320">
         <v>0</v>
       </c>
       <c r="U27" s="1">
@@ -16775,9 +16800,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="409"/>
-      <c r="X27" s="410"/>
-      <c r="Y27" s="411"/>
+      <c r="W27" s="419"/>
+      <c r="X27" s="420"/>
+      <c r="Y27" s="421"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16818,11 +16843,11 @@
         <f t="shared" si="0"/>
         <v>131824</v>
       </c>
-      <c r="Q28" s="340">
+      <c r="Q28" s="338">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="R28" s="322">
+      <c r="R28" s="320">
         <v>0</v>
       </c>
       <c r="U28" s="1">
@@ -16831,9 +16856,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="410"/>
-      <c r="X28" s="410"/>
-      <c r="Y28" s="411"/>
+      <c r="W28" s="420"/>
+      <c r="X28" s="420"/>
+      <c r="Y28" s="421"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16874,22 +16899,22 @@
         <f t="shared" si="0"/>
         <v>214178</v>
       </c>
-      <c r="Q29" s="320">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="322">
-        <v>0</v>
-      </c>
-      <c r="U29" s="339">
+      <c r="Q29" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="320">
+        <v>0</v>
+      </c>
+      <c r="U29" s="337">
         <v>3499</v>
       </c>
       <c r="V29" t="s">
         <v>240</v>
       </c>
       <c r="W29" s="128"/>
-      <c r="X29" s="313"/>
-      <c r="Y29" s="314"/>
+      <c r="X29" s="311"/>
+      <c r="Y29" s="312"/>
       <c r="Z29" s="128"/>
     </row>
     <row r="30" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16936,11 +16961,11 @@
         <f t="shared" si="0"/>
         <v>139265</v>
       </c>
-      <c r="Q30" s="320">
+      <c r="Q30" s="318">
         <f t="shared" si="1"/>
         <v>-13665</v>
       </c>
-      <c r="R30" s="323"/>
+      <c r="R30" s="321"/>
       <c r="U30" s="1">
         <f>SUM(U27:U29)</f>
         <v>7661</v>
@@ -16956,42 +16981,42 @@
       <c r="C31" s="161">
         <v>0</v>
       </c>
-      <c r="D31" s="347" t="s">
+      <c r="D31" s="345" t="s">
         <v>236</v>
       </c>
-      <c r="E31" s="341">
+      <c r="E31" s="339">
         <v>44562</v>
       </c>
-      <c r="F31" s="348">
-        <v>0</v>
-      </c>
-      <c r="G31" s="342"/>
-      <c r="H31" s="343">
+      <c r="F31" s="346">
+        <v>0</v>
+      </c>
+      <c r="G31" s="340"/>
+      <c r="H31" s="341">
         <v>44562</v>
       </c>
-      <c r="I31" s="349">
-        <v>0</v>
-      </c>
-      <c r="J31" s="344" t="s">
+      <c r="I31" s="347">
+        <v>0</v>
+      </c>
+      <c r="J31" s="342" t="s">
         <v>236</v>
       </c>
-      <c r="K31" s="345"/>
-      <c r="L31" s="346"/>
-      <c r="M31" s="337">
-        <v>0</v>
-      </c>
-      <c r="N31" s="338">
+      <c r="K31" s="343"/>
+      <c r="L31" s="344"/>
+      <c r="M31" s="335">
+        <v>0</v>
+      </c>
+      <c r="N31" s="336">
         <v>0</v>
       </c>
       <c r="P31" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="289">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="324"/>
+      <c r="Q31" s="287">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="322"/>
     </row>
     <row r="32" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
@@ -17031,7 +17056,7 @@
         <f t="shared" si="0"/>
         <v>18308</v>
       </c>
-      <c r="Q32" s="350">
+      <c r="Q32" s="348">
         <f t="shared" si="1"/>
         <v>-23017</v>
       </c>
@@ -17065,7 +17090,7 @@
       <c r="P33" s="34">
         <v>0</v>
       </c>
-      <c r="Q33" s="289">
+      <c r="Q33" s="287">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17081,7 +17106,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="36"/>
       <c r="I34" s="30"/>
-      <c r="J34" s="267"/>
+      <c r="J34" s="266"/>
       <c r="K34" s="248"/>
       <c r="L34" s="44"/>
       <c r="M34" s="32">
@@ -17093,7 +17118,7 @@
       <c r="P34" s="34">
         <v>0</v>
       </c>
-      <c r="Q34" s="289">
+      <c r="Q34" s="287">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17109,19 +17134,19 @@
       <c r="G35" s="2"/>
       <c r="H35" s="36"/>
       <c r="I35" s="30"/>
-      <c r="J35" s="267"/>
+      <c r="J35" s="266"/>
       <c r="K35" s="249"/>
       <c r="L35" s="66"/>
-      <c r="M35" s="268">
-        <v>0</v>
-      </c>
-      <c r="N35" s="269">
+      <c r="M35" s="267">
+        <v>0</v>
+      </c>
+      <c r="N35" s="268">
         <v>0</v>
       </c>
       <c r="P35" s="34">
         <v>0</v>
       </c>
-      <c r="Q35" s="274">
+      <c r="Q35" s="273">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17137,22 +17162,22 @@
       <c r="G36" s="2"/>
       <c r="H36" s="36"/>
       <c r="I36" s="30"/>
-      <c r="J36" s="267"/>
+      <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="427">
+      <c r="M36" s="437">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>1054774.3</v>
       </c>
-      <c r="N36" s="429">
+      <c r="N36" s="439">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>936398</v>
       </c>
-      <c r="O36" s="277"/>
-      <c r="P36" s="278">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="431">
+      <c r="O36" s="276"/>
+      <c r="P36" s="277">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="441">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-37279.94</v>
       </c>
@@ -17171,13 +17196,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="428"/>
-      <c r="N37" s="430"/>
-      <c r="O37" s="277"/>
-      <c r="P37" s="278">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="432"/>
+      <c r="M37" s="438"/>
+      <c r="N37" s="440"/>
+      <c r="O37" s="276"/>
+      <c r="P37" s="277">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="442"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -17192,12 +17217,12 @@
       <c r="J38" s="60"/>
       <c r="K38" s="177"/>
       <c r="L38" s="61"/>
-      <c r="M38" s="271"/>
-      <c r="N38" s="272"/>
+      <c r="M38" s="270"/>
+      <c r="N38" s="271"/>
       <c r="P38" s="151">
         <v>0</v>
       </c>
-      <c r="Q38" s="275"/>
+      <c r="Q38" s="274"/>
     </row>
     <row r="39" spans="1:18" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
@@ -17214,13 +17239,13 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="279"/>
-      <c r="N39" s="279"/>
+      <c r="M39" s="278"/>
+      <c r="N39" s="278"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>2455735.06</v>
       </c>
-      <c r="Q39" s="276"/>
+      <c r="Q39" s="275"/>
     </row>
     <row r="40" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
@@ -17235,8 +17260,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="279"/>
-      <c r="N40" s="279"/>
+      <c r="M40" s="278"/>
+      <c r="N40" s="278"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="13"/>
     </row>
@@ -17253,8 +17278,8 @@
       <c r="J41" s="60"/>
       <c r="K41" s="41"/>
       <c r="L41" s="61"/>
-      <c r="M41" s="270"/>
-      <c r="N41" s="270"/>
+      <c r="M41" s="269"/>
+      <c r="N41" s="269"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="13"/>
     </row>
@@ -17271,8 +17296,8 @@
       <c r="J42" s="60"/>
       <c r="K42" s="41"/>
       <c r="L42" s="61"/>
-      <c r="M42" s="270"/>
-      <c r="N42" s="270"/>
+      <c r="M42" s="269"/>
+      <c r="N42" s="269"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="13"/>
     </row>
@@ -17289,8 +17314,8 @@
       <c r="J43" s="60"/>
       <c r="K43" s="41"/>
       <c r="L43" s="61"/>
-      <c r="M43" s="270"/>
-      <c r="N43" s="270"/>
+      <c r="M43" s="269"/>
+      <c r="N43" s="269"/>
       <c r="P43" s="34"/>
       <c r="Q43" s="13"/>
     </row>
@@ -17307,8 +17332,8 @@
       <c r="J44" s="60"/>
       <c r="K44" s="41"/>
       <c r="L44" s="61"/>
-      <c r="M44" s="270"/>
-      <c r="N44" s="270"/>
+      <c r="M44" s="269"/>
+      <c r="N44" s="269"/>
       <c r="P44" s="34"/>
       <c r="Q44" s="13"/>
     </row>
@@ -17325,8 +17350,8 @@
       <c r="J45" s="60"/>
       <c r="K45" s="41"/>
       <c r="L45" s="61"/>
-      <c r="M45" s="270"/>
-      <c r="N45" s="270"/>
+      <c r="M45" s="269"/>
+      <c r="N45" s="269"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -17343,8 +17368,8 @@
       <c r="J46" s="60"/>
       <c r="K46" s="41"/>
       <c r="L46" s="61"/>
-      <c r="M46" s="270"/>
-      <c r="N46" s="270"/>
+      <c r="M46" s="269"/>
+      <c r="N46" s="269"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="13"/>
     </row>
@@ -17361,8 +17386,8 @@
       <c r="J47" s="60"/>
       <c r="K47" s="41"/>
       <c r="L47" s="61"/>
-      <c r="M47" s="270"/>
-      <c r="N47" s="270"/>
+      <c r="M47" s="269"/>
+      <c r="N47" s="269"/>
       <c r="P47" s="34"/>
       <c r="Q47" s="13"/>
     </row>
@@ -17379,8 +17404,8 @@
       <c r="J48" s="60"/>
       <c r="K48" s="41"/>
       <c r="L48" s="61"/>
-      <c r="M48" s="270"/>
-      <c r="N48" s="270"/>
+      <c r="M48" s="269"/>
+      <c r="N48" s="269"/>
       <c r="P48" s="34"/>
       <c r="Q48" s="13"/>
     </row>
@@ -17451,27 +17476,27 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="382" t="s">
+      <c r="H52" s="392" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="383"/>
+      <c r="I52" s="393"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="384">
+      <c r="K52" s="394">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="417"/>
-      <c r="M52" s="273"/>
-      <c r="N52" s="273"/>
+      <c r="L52" s="427"/>
+      <c r="M52" s="272"/>
+      <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="388" t="s">
+      <c r="D53" s="398" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="388"/>
-      <c r="F53" s="315">
+      <c r="E53" s="398"/>
+      <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1957966.13</v>
       </c>
@@ -17479,47 +17504,47 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="418" t="s">
+      <c r="D54" s="428" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="418"/>
+      <c r="E54" s="428"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="389" t="s">
+      <c r="I54" s="399" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="390"/>
-      <c r="K54" s="391">
+      <c r="J54" s="400"/>
+      <c r="K54" s="401">
         <f>F56+F57+F58</f>
         <v>921303.96</v>
       </c>
-      <c r="L54" s="391"/>
-      <c r="M54" s="419" t="s">
+      <c r="L54" s="401"/>
+      <c r="M54" s="429" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="420"/>
-      <c r="O54" s="420"/>
-      <c r="P54" s="420"/>
-      <c r="Q54" s="421"/>
+      <c r="N54" s="430"/>
+      <c r="O54" s="430"/>
+      <c r="P54" s="430"/>
+      <c r="Q54" s="431"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D55" s="316" t="s">
+      <c r="D55" s="314" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="317"/>
-      <c r="F55" s="318">
+      <c r="E55" s="315"/>
+      <c r="F55" s="316">
         <v>-590104.74</v>
       </c>
       <c r="I55" s="105"/>
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="422"/>
-      <c r="N55" s="423"/>
-      <c r="O55" s="423"/>
-      <c r="P55" s="423"/>
-      <c r="Q55" s="424"/>
+      <c r="M55" s="432"/>
+      <c r="N55" s="433"/>
+      <c r="O55" s="433"/>
+      <c r="P55" s="433"/>
+      <c r="Q55" s="434"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -17537,11 +17562,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="393">
+      <c r="K56" s="403">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="394"/>
+      <c r="L56" s="404"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -17558,22 +17583,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="371" t="s">
+      <c r="D58" s="381" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="372"/>
+      <c r="E58" s="382"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="373" t="s">
+      <c r="I58" s="383" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="374"/>
-      <c r="K58" s="375">
+      <c r="J58" s="384"/>
+      <c r="K58" s="385">
         <f>K54+K56</f>
         <v>353914.61</v>
       </c>
-      <c r="L58" s="375"/>
+      <c r="L58" s="385"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -17762,8 +17787,8 @@
   </sheetPr>
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17771,7 +17796,7 @@
     <col min="1" max="1" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
@@ -17784,77 +17809,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="290" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="294"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="292"/>
       <c r="F1" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="303" t="s">
+      <c r="I1" s="301" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="304"/>
-      <c r="K1" s="305"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="305"/>
-      <c r="N1" s="307" t="s">
+      <c r="J1" s="302"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="305" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="299" t="s">
+      <c r="A2" s="297" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="300" t="s">
+      <c r="B2" s="298" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="301" t="s">
+      <c r="C2" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="300" t="s">
+      <c r="D2" s="373" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="302" t="s">
+      <c r="E2" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="291" t="s">
+      <c r="F2" s="289" t="s">
         <v>210</v>
       </c>
-      <c r="I2" s="299" t="s">
+      <c r="I2" s="297" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="311" t="s">
+      <c r="J2" s="309" t="s">
         <v>265</v>
       </c>
-      <c r="K2" s="301" t="s">
+      <c r="K2" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="300" t="s">
+      <c r="L2" s="298" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="301" t="s">
+      <c r="M2" s="299" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="312" t="s">
+      <c r="N2" s="310" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="359" t="s">
+      <c r="A3" s="357" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="360" t="s">
+      <c r="B3" s="358" t="s">
         <v>266</v>
       </c>
       <c r="C3" s="96">
         <v>7068.6</v>
       </c>
-      <c r="D3" s="360" t="s">
-        <v>306</v>
+      <c r="D3" s="377">
+        <v>44560</v>
       </c>
       <c r="E3" s="96">
         <v>7068.6</v>
@@ -17863,16 +17888,16 @@
         <f>C3-E3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="352" t="s">
+      <c r="I3" s="350" t="s">
         <v>195</v>
       </c>
-      <c r="J3" s="351">
+      <c r="J3" s="349">
         <v>7950</v>
       </c>
-      <c r="K3" s="353">
+      <c r="K3" s="351">
         <v>563.79999999999995</v>
       </c>
-      <c r="L3" s="308"/>
+      <c r="L3" s="306"/>
       <c r="M3" s="215"/>
       <c r="N3" s="183">
         <f>K3-M3</f>
@@ -17880,17 +17905,17 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="359" t="s">
+      <c r="A4" s="357" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="360" t="s">
+      <c r="B4" s="358" t="s">
         <v>267</v>
       </c>
       <c r="C4" s="96">
         <v>11495.4</v>
       </c>
-      <c r="D4" s="360" t="s">
-        <v>306</v>
+      <c r="D4" s="377">
+        <v>44560</v>
       </c>
       <c r="E4" s="96">
         <v>11495.4</v>
@@ -17900,16 +17925,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="I4" s="352" t="s">
+      <c r="I4" s="350" t="s">
         <v>195</v>
       </c>
-      <c r="J4" s="351">
+      <c r="J4" s="349">
         <v>7944</v>
       </c>
-      <c r="K4" s="353">
+      <c r="K4" s="351">
         <v>2032.08</v>
       </c>
-      <c r="L4" s="290"/>
+      <c r="L4" s="288"/>
       <c r="M4" s="69"/>
       <c r="N4" s="137">
         <f>N3+K4-M4</f>
@@ -17917,17 +17942,17 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="359" t="s">
+      <c r="A5" s="357" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="360" t="s">
+      <c r="B5" s="358" t="s">
         <v>268</v>
       </c>
       <c r="C5" s="96">
         <v>276755.14</v>
       </c>
-      <c r="D5" s="360" t="s">
-        <v>306</v>
+      <c r="D5" s="377">
+        <v>44560</v>
       </c>
       <c r="E5" s="96">
         <v>276755.14</v>
@@ -17936,16 +17961,16 @@
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="352" t="s">
+      <c r="I5" s="350" t="s">
         <v>195</v>
       </c>
-      <c r="J5" s="351">
+      <c r="J5" s="349">
         <v>7952</v>
       </c>
-      <c r="K5" s="353">
+      <c r="K5" s="351">
         <v>1756.48</v>
       </c>
-      <c r="L5" s="290"/>
+      <c r="L5" s="288"/>
       <c r="M5" s="69"/>
       <c r="N5" s="137">
         <f t="shared" ref="N5:N56" si="1">N4+K5-M5</f>
@@ -17953,17 +17978,17 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="359" t="s">
+      <c r="A6" s="357" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="360" t="s">
+      <c r="B6" s="358" t="s">
         <v>269</v>
       </c>
       <c r="C6" s="96">
         <v>62881.4</v>
       </c>
-      <c r="D6" s="360" t="s">
-        <v>306</v>
+      <c r="D6" s="377">
+        <v>44560</v>
       </c>
       <c r="E6" s="96">
         <v>62881.4</v>
@@ -17972,16 +17997,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="352" t="s">
+      <c r="I6" s="350" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="351">
+      <c r="J6" s="349">
         <v>7951</v>
       </c>
-      <c r="K6" s="353">
+      <c r="K6" s="351">
         <v>7340.96</v>
       </c>
-      <c r="L6" s="290"/>
+      <c r="L6" s="288"/>
       <c r="M6" s="69"/>
       <c r="N6" s="137">
         <f t="shared" si="1"/>
@@ -17989,17 +18014,17 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="359" t="s">
+      <c r="A7" s="357" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="360" t="s">
+      <c r="B7" s="358" t="s">
         <v>270</v>
       </c>
       <c r="C7" s="96">
         <v>7868.1</v>
       </c>
-      <c r="D7" s="360" t="s">
-        <v>306</v>
+      <c r="D7" s="377">
+        <v>44560</v>
       </c>
       <c r="E7" s="96">
         <v>7868.1</v>
@@ -18008,16 +18033,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="352" t="s">
+      <c r="I7" s="350" t="s">
         <v>247</v>
       </c>
-      <c r="J7" s="351">
+      <c r="J7" s="349">
         <v>7956</v>
       </c>
-      <c r="K7" s="353">
+      <c r="K7" s="351">
         <v>1744.64</v>
       </c>
-      <c r="L7" s="290"/>
+      <c r="L7" s="288"/>
       <c r="M7" s="69"/>
       <c r="N7" s="137">
         <f t="shared" si="1"/>
@@ -18025,17 +18050,17 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="359" t="s">
+      <c r="A8" s="357" t="s">
         <v>249</v>
       </c>
-      <c r="B8" s="360" t="s">
+      <c r="B8" s="358" t="s">
         <v>271</v>
       </c>
       <c r="C8" s="96">
         <v>22425</v>
       </c>
-      <c r="D8" s="360" t="s">
-        <v>306</v>
+      <c r="D8" s="377">
+        <v>44560</v>
       </c>
       <c r="E8" s="96">
         <v>22425</v>
@@ -18044,16 +18069,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="352" t="s">
+      <c r="I8" s="350" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="351">
+      <c r="J8" s="349">
         <v>7961</v>
       </c>
-      <c r="K8" s="353">
+      <c r="K8" s="351">
         <v>6212.5</v>
       </c>
-      <c r="L8" s="290"/>
+      <c r="L8" s="288"/>
       <c r="M8" s="69"/>
       <c r="N8" s="137">
         <f t="shared" si="1"/>
@@ -18061,17 +18086,17 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="359" t="s">
+      <c r="A9" s="357" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="360" t="s">
+      <c r="B9" s="358" t="s">
         <v>272</v>
       </c>
       <c r="C9" s="96">
         <v>46727.4</v>
       </c>
-      <c r="D9" s="360" t="s">
-        <v>306</v>
+      <c r="D9" s="377">
+        <v>44560</v>
       </c>
       <c r="E9" s="96">
         <v>46727.4</v>
@@ -18080,16 +18105,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="352" t="s">
+      <c r="I9" s="350" t="s">
         <v>249</v>
       </c>
-      <c r="J9" s="351">
+      <c r="J9" s="349">
         <v>7971</v>
       </c>
-      <c r="K9" s="353">
+      <c r="K9" s="351">
         <v>11903.89</v>
       </c>
-      <c r="L9" s="290"/>
+      <c r="L9" s="288"/>
       <c r="M9" s="69"/>
       <c r="N9" s="137">
         <f t="shared" si="1"/>
@@ -18097,17 +18122,17 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="359" t="s">
+      <c r="A10" s="357" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="360" t="s">
+      <c r="B10" s="358" t="s">
         <v>273</v>
       </c>
       <c r="C10" s="96">
         <v>8457.5</v>
       </c>
-      <c r="D10" s="360" t="s">
-        <v>306</v>
+      <c r="D10" s="377">
+        <v>44560</v>
       </c>
       <c r="E10" s="96">
         <v>8457.5</v>
@@ -18117,16 +18142,16 @@
         <v>0</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="I10" s="352" t="s">
+      <c r="I10" s="350" t="s">
         <v>249</v>
       </c>
-      <c r="J10" s="351">
+      <c r="J10" s="349">
         <v>7972</v>
       </c>
-      <c r="K10" s="353">
+      <c r="K10" s="351">
         <v>36560.6</v>
       </c>
-      <c r="L10" s="290"/>
+      <c r="L10" s="288"/>
       <c r="M10" s="69"/>
       <c r="N10" s="137">
         <f t="shared" si="1"/>
@@ -18134,17 +18159,17 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="359" t="s">
+      <c r="A11" s="357" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="360" t="s">
+      <c r="B11" s="358" t="s">
         <v>274</v>
       </c>
       <c r="C11" s="96">
         <v>112011.05</v>
       </c>
-      <c r="D11" s="360" t="s">
-        <v>306</v>
+      <c r="D11" s="377">
+        <v>44560</v>
       </c>
       <c r="E11" s="96">
         <v>112011.05</v>
@@ -18153,16 +18178,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="352" t="s">
+      <c r="I11" s="350" t="s">
         <v>250</v>
       </c>
-      <c r="J11" s="351">
+      <c r="J11" s="349">
         <v>7975</v>
       </c>
-      <c r="K11" s="353">
+      <c r="K11" s="351">
         <v>3349.24</v>
       </c>
-      <c r="L11" s="290"/>
+      <c r="L11" s="288"/>
       <c r="M11" s="69"/>
       <c r="N11" s="137">
         <f t="shared" si="1"/>
@@ -18170,17 +18195,17 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="357" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="360" t="s">
+      <c r="B12" s="358" t="s">
         <v>276</v>
       </c>
       <c r="C12" s="96">
         <v>5206.45</v>
       </c>
-      <c r="D12" s="360" t="s">
-        <v>306</v>
+      <c r="D12" s="377">
+        <v>44560</v>
       </c>
       <c r="E12" s="96">
         <v>5206.45</v>
@@ -18189,16 +18214,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="352" t="s">
+      <c r="I12" s="350" t="s">
         <v>250</v>
       </c>
-      <c r="J12" s="351">
+      <c r="J12" s="349">
         <v>7979</v>
       </c>
-      <c r="K12" s="353">
+      <c r="K12" s="351">
         <v>2755.76</v>
       </c>
-      <c r="L12" s="290"/>
+      <c r="L12" s="288"/>
       <c r="M12" s="69"/>
       <c r="N12" s="137">
         <f t="shared" si="1"/>
@@ -18206,17 +18231,17 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="359" t="s">
+      <c r="A13" s="357" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="360" t="s">
+      <c r="B13" s="358" t="s">
         <v>277</v>
       </c>
       <c r="C13" s="96">
         <v>38821.5</v>
       </c>
-      <c r="D13" s="360" t="s">
-        <v>306</v>
+      <c r="D13" s="377">
+        <v>44560</v>
       </c>
       <c r="E13" s="96">
         <v>38821.5</v>
@@ -18225,16 +18250,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="352" t="s">
+      <c r="I13" s="350" t="s">
         <v>251</v>
       </c>
-      <c r="J13" s="351">
+      <c r="J13" s="349">
         <v>7984</v>
       </c>
-      <c r="K13" s="353">
+      <c r="K13" s="351">
         <v>19135.14</v>
       </c>
-      <c r="L13" s="290"/>
+      <c r="L13" s="288"/>
       <c r="M13" s="69"/>
       <c r="N13" s="137">
         <f t="shared" si="1"/>
@@ -18242,17 +18267,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="359" t="s">
+      <c r="A14" s="357" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="360" t="s">
+      <c r="B14" s="358" t="s">
         <v>278</v>
       </c>
       <c r="C14" s="96">
         <v>14425.6</v>
       </c>
-      <c r="D14" s="360" t="s">
-        <v>306</v>
+      <c r="D14" s="377">
+        <v>44560</v>
       </c>
       <c r="E14" s="96">
         <v>14425.6</v>
@@ -18261,16 +18286,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="352" t="s">
+      <c r="I14" s="350" t="s">
         <v>252</v>
       </c>
-      <c r="J14" s="351">
+      <c r="J14" s="349">
         <v>7996</v>
       </c>
-      <c r="K14" s="353">
+      <c r="K14" s="351">
         <v>4500.16</v>
       </c>
-      <c r="L14" s="290"/>
+      <c r="L14" s="288"/>
       <c r="M14" s="69"/>
       <c r="N14" s="137">
         <f t="shared" si="1"/>
@@ -18278,17 +18303,17 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="359" t="s">
+      <c r="A15" s="357" t="s">
         <v>252</v>
       </c>
-      <c r="B15" s="360" t="s">
+      <c r="B15" s="358" t="s">
         <v>279</v>
       </c>
       <c r="C15" s="96">
         <v>9421.7000000000007</v>
       </c>
-      <c r="D15" s="360" t="s">
-        <v>306</v>
+      <c r="D15" s="377">
+        <v>44560</v>
       </c>
       <c r="E15" s="96">
         <v>9421.7000000000007</v>
@@ -18297,16 +18322,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="352" t="s">
+      <c r="I15" s="350" t="s">
         <v>252</v>
       </c>
-      <c r="J15" s="351">
+      <c r="J15" s="349">
         <v>8002</v>
       </c>
-      <c r="K15" s="353">
+      <c r="K15" s="351">
         <v>7744</v>
       </c>
-      <c r="L15" s="290"/>
+      <c r="L15" s="288"/>
       <c r="M15" s="69"/>
       <c r="N15" s="137">
         <f t="shared" si="1"/>
@@ -18314,17 +18339,17 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="359" t="s">
+      <c r="A16" s="357" t="s">
         <v>252</v>
       </c>
-      <c r="B16" s="360" t="s">
+      <c r="B16" s="358" t="s">
         <v>280</v>
       </c>
       <c r="C16" s="96">
         <v>9069.5</v>
       </c>
-      <c r="D16" s="360" t="s">
-        <v>306</v>
+      <c r="D16" s="377">
+        <v>44560</v>
       </c>
       <c r="E16" s="96">
         <v>9069.5</v>
@@ -18333,16 +18358,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="352" t="s">
+      <c r="I16" s="350" t="s">
         <v>253</v>
       </c>
-      <c r="J16" s="351">
+      <c r="J16" s="349">
         <v>8009</v>
       </c>
-      <c r="K16" s="353">
+      <c r="K16" s="351">
         <v>933.1</v>
       </c>
-      <c r="L16" s="290"/>
+      <c r="L16" s="288"/>
       <c r="M16" s="69"/>
       <c r="N16" s="137">
         <f t="shared" si="1"/>
@@ -18350,17 +18375,17 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="359" t="s">
+      <c r="A17" s="357" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="360" t="s">
+      <c r="B17" s="358" t="s">
         <v>281</v>
       </c>
       <c r="C17" s="96">
         <v>60</v>
       </c>
-      <c r="D17" s="360" t="s">
-        <v>306</v>
+      <c r="D17" s="377">
+        <v>44560</v>
       </c>
       <c r="E17" s="96">
         <v>60</v>
@@ -18369,16 +18394,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="352" t="s">
+      <c r="I17" s="350" t="s">
         <v>253</v>
       </c>
-      <c r="J17" s="351">
+      <c r="J17" s="349">
         <v>8011</v>
       </c>
-      <c r="K17" s="353">
+      <c r="K17" s="351">
         <v>2610</v>
       </c>
-      <c r="L17" s="290"/>
+      <c r="L17" s="288"/>
       <c r="M17" s="69"/>
       <c r="N17" s="137">
         <f t="shared" si="1"/>
@@ -18386,17 +18411,17 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="359" t="s">
+      <c r="A18" s="357" t="s">
         <v>252</v>
       </c>
-      <c r="B18" s="360" t="s">
+      <c r="B18" s="358" t="s">
         <v>282</v>
       </c>
       <c r="C18" s="96">
         <v>16107.5</v>
       </c>
-      <c r="D18" s="360" t="s">
-        <v>306</v>
+      <c r="D18" s="377">
+        <v>44560</v>
       </c>
       <c r="E18" s="96">
         <v>16107.5</v>
@@ -18405,16 +18430,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="352" t="s">
+      <c r="I18" s="350" t="s">
         <v>254</v>
       </c>
-      <c r="J18" s="351">
+      <c r="J18" s="349">
         <v>8019</v>
       </c>
-      <c r="K18" s="353">
+      <c r="K18" s="351">
         <v>3554.2</v>
       </c>
-      <c r="L18" s="290"/>
+      <c r="L18" s="288"/>
       <c r="M18" s="69"/>
       <c r="N18" s="137">
         <f t="shared" si="1"/>
@@ -18422,17 +18447,17 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="359" t="s">
+      <c r="A19" s="357" t="s">
         <v>253</v>
       </c>
-      <c r="B19" s="360" t="s">
+      <c r="B19" s="358" t="s">
         <v>283</v>
       </c>
       <c r="C19" s="96">
         <v>45709</v>
       </c>
-      <c r="D19" s="360" t="s">
-        <v>306</v>
+      <c r="D19" s="377">
+        <v>44560</v>
       </c>
       <c r="E19" s="96">
         <v>45709</v>
@@ -18441,16 +18466,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="352" t="s">
+      <c r="I19" s="350" t="s">
         <v>254</v>
       </c>
-      <c r="J19" s="351">
+      <c r="J19" s="349">
         <v>8024</v>
       </c>
-      <c r="K19" s="353">
+      <c r="K19" s="351">
         <v>92636.2</v>
       </c>
-      <c r="L19" s="290"/>
+      <c r="L19" s="288"/>
       <c r="M19" s="69"/>
       <c r="N19" s="137">
         <f t="shared" si="1"/>
@@ -18458,16 +18483,16 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="359" t="s">
+      <c r="A20" s="357" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="360" t="s">
+      <c r="B20" s="358" t="s">
         <v>284</v>
       </c>
       <c r="C20" s="96">
         <v>0</v>
       </c>
-      <c r="D20" s="360" t="s">
+      <c r="D20" s="377" t="s">
         <v>310</v>
       </c>
       <c r="E20" s="96">
@@ -18477,16 +18502,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="352" t="s">
+      <c r="I20" s="350" t="s">
         <v>255</v>
       </c>
-      <c r="J20" s="351">
+      <c r="J20" s="349">
         <v>8027</v>
       </c>
-      <c r="K20" s="353">
+      <c r="K20" s="351">
         <v>9327.4</v>
       </c>
-      <c r="L20" s="290"/>
+      <c r="L20" s="288"/>
       <c r="M20" s="69"/>
       <c r="N20" s="137">
         <f t="shared" si="1"/>
@@ -18494,17 +18519,17 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="359" t="s">
+      <c r="A21" s="357" t="s">
         <v>254</v>
       </c>
-      <c r="B21" s="360" t="s">
+      <c r="B21" s="358" t="s">
         <v>285</v>
       </c>
       <c r="C21" s="96">
         <v>58310.5</v>
       </c>
-      <c r="D21" s="360" t="s">
-        <v>306</v>
+      <c r="D21" s="377">
+        <v>44560</v>
       </c>
       <c r="E21" s="96">
         <v>58310.5</v>
@@ -18513,16 +18538,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="352" t="s">
+      <c r="I21" s="350" t="s">
         <v>255</v>
       </c>
-      <c r="J21" s="351">
+      <c r="J21" s="349">
         <v>8028</v>
       </c>
-      <c r="K21" s="353">
+      <c r="K21" s="351">
         <v>428.16</v>
       </c>
-      <c r="L21" s="290"/>
+      <c r="L21" s="288"/>
       <c r="M21" s="69"/>
       <c r="N21" s="137">
         <f t="shared" si="1"/>
@@ -18530,17 +18555,17 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="359" t="s">
+      <c r="A22" s="357" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="360" t="s">
+      <c r="B22" s="358" t="s">
         <v>286</v>
       </c>
       <c r="C22" s="96">
         <v>2844.3</v>
       </c>
-      <c r="D22" s="360" t="s">
-        <v>306</v>
+      <c r="D22" s="377">
+        <v>44560</v>
       </c>
       <c r="E22" s="96">
         <v>2844.3</v>
@@ -18550,16 +18575,16 @@
         <v>0</v>
       </c>
       <c r="G22" s="138"/>
-      <c r="I22" s="352" t="s">
+      <c r="I22" s="350" t="s">
         <v>256</v>
       </c>
-      <c r="J22" s="351">
+      <c r="J22" s="349">
         <v>8044</v>
       </c>
-      <c r="K22" s="353">
+      <c r="K22" s="351">
         <v>2709.6</v>
       </c>
-      <c r="L22" s="290"/>
+      <c r="L22" s="288"/>
       <c r="M22" s="69"/>
       <c r="N22" s="137">
         <f t="shared" si="1"/>
@@ -18567,17 +18592,17 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="359" t="s">
+      <c r="A23" s="357" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="360" t="s">
+      <c r="B23" s="358" t="s">
         <v>287</v>
       </c>
       <c r="C23" s="96">
         <v>60433.2</v>
       </c>
-      <c r="D23" s="360" t="s">
-        <v>306</v>
+      <c r="D23" s="377">
+        <v>44560</v>
       </c>
       <c r="E23" s="96">
         <v>60433.2</v>
@@ -18586,16 +18611,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="352" t="s">
+      <c r="I23" s="350" t="s">
         <v>257</v>
       </c>
-      <c r="J23" s="351">
+      <c r="J23" s="349">
         <v>8050</v>
       </c>
-      <c r="K23" s="353">
+      <c r="K23" s="351">
         <v>1768.48</v>
       </c>
-      <c r="L23" s="290"/>
+      <c r="L23" s="288"/>
       <c r="M23" s="69"/>
       <c r="N23" s="137">
         <f t="shared" si="1"/>
@@ -18603,17 +18628,17 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="359" t="s">
+      <c r="A24" s="357" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="360" t="s">
+      <c r="B24" s="358" t="s">
         <v>288</v>
       </c>
       <c r="C24" s="96">
         <v>78786.3</v>
       </c>
-      <c r="D24" s="360" t="s">
-        <v>306</v>
+      <c r="D24" s="377">
+        <v>44560</v>
       </c>
       <c r="E24" s="96">
         <v>78786.3</v>
@@ -18622,16 +18647,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="352" t="s">
+      <c r="I24" s="350" t="s">
         <v>257</v>
       </c>
-      <c r="J24" s="351">
+      <c r="J24" s="349">
         <v>8056</v>
       </c>
-      <c r="K24" s="353">
+      <c r="K24" s="351">
         <v>45385.8</v>
       </c>
-      <c r="L24" s="290"/>
+      <c r="L24" s="288"/>
       <c r="M24" s="69"/>
       <c r="N24" s="137">
         <f t="shared" si="1"/>
@@ -18639,17 +18664,17 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="359" t="s">
+      <c r="A25" s="357" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="360" t="s">
+      <c r="B25" s="358" t="s">
         <v>289</v>
       </c>
       <c r="C25" s="96">
         <v>36160.1</v>
       </c>
-      <c r="D25" s="360" t="s">
-        <v>306</v>
+      <c r="D25" s="377">
+        <v>44560</v>
       </c>
       <c r="E25" s="96">
         <v>36160.1</v>
@@ -18658,16 +18683,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="352" t="s">
+      <c r="I25" s="350" t="s">
         <v>258</v>
       </c>
-      <c r="J25" s="351">
+      <c r="J25" s="349">
         <v>8065</v>
       </c>
-      <c r="K25" s="353">
+      <c r="K25" s="351">
         <v>6545.88</v>
       </c>
-      <c r="L25" s="290"/>
+      <c r="L25" s="288"/>
       <c r="M25" s="69"/>
       <c r="N25" s="137">
         <f t="shared" si="1"/>
@@ -18675,17 +18700,17 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="359" t="s">
+      <c r="A26" s="357" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="360" t="s">
+      <c r="B26" s="358" t="s">
         <v>290</v>
       </c>
       <c r="C26" s="96">
         <v>2104.4</v>
       </c>
-      <c r="D26" s="360" t="s">
-        <v>306</v>
+      <c r="D26" s="377">
+        <v>44560</v>
       </c>
       <c r="E26" s="96">
         <v>2104.4</v>
@@ -18694,16 +18719,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="352" t="s">
+      <c r="I26" s="350" t="s">
         <v>258</v>
       </c>
-      <c r="J26" s="351">
+      <c r="J26" s="349">
         <v>8073</v>
       </c>
-      <c r="K26" s="353">
+      <c r="K26" s="351">
         <v>7998.1</v>
       </c>
-      <c r="L26" s="290"/>
+      <c r="L26" s="288"/>
       <c r="M26" s="69"/>
       <c r="N26" s="137">
         <f t="shared" si="1"/>
@@ -18711,17 +18736,17 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="359" t="s">
+      <c r="A27" s="357" t="s">
         <v>258</v>
       </c>
-      <c r="B27" s="360" t="s">
+      <c r="B27" s="358" t="s">
         <v>291</v>
       </c>
       <c r="C27" s="96">
         <v>634.5</v>
       </c>
-      <c r="D27" s="360" t="s">
-        <v>258</v>
+      <c r="D27" s="447">
+        <v>44550</v>
       </c>
       <c r="E27" s="96">
         <v>634.5</v>
@@ -18730,16 +18755,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="352" t="s">
+      <c r="I27" s="350" t="s">
         <v>259</v>
       </c>
-      <c r="J27" s="351">
+      <c r="J27" s="349">
         <v>8080</v>
       </c>
-      <c r="K27" s="353">
+      <c r="K27" s="351">
         <v>887.52</v>
       </c>
-      <c r="L27" s="290"/>
+      <c r="L27" s="288"/>
       <c r="M27" s="69"/>
       <c r="N27" s="137">
         <f t="shared" si="1"/>
@@ -18747,17 +18772,17 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="359" t="s">
+      <c r="A28" s="357" t="s">
         <v>258</v>
       </c>
-      <c r="B28" s="360" t="s">
+      <c r="B28" s="358" t="s">
         <v>292</v>
       </c>
       <c r="C28" s="96">
         <v>47894.06</v>
       </c>
-      <c r="D28" s="360" t="s">
-        <v>306</v>
+      <c r="D28" s="377">
+        <v>44560</v>
       </c>
       <c r="E28" s="96">
         <v>47894.06</v>
@@ -18766,16 +18791,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I28" s="352" t="s">
+      <c r="I28" s="350" t="s">
         <v>259</v>
       </c>
-      <c r="J28" s="351">
+      <c r="J28" s="349">
         <v>8083</v>
       </c>
-      <c r="K28" s="353">
+      <c r="K28" s="351">
         <v>571.6</v>
       </c>
-      <c r="L28" s="290"/>
+      <c r="L28" s="288"/>
       <c r="M28" s="69"/>
       <c r="N28" s="137">
         <f t="shared" si="1"/>
@@ -18783,17 +18808,17 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="359" t="s">
+      <c r="A29" s="357" t="s">
         <v>259</v>
       </c>
-      <c r="B29" s="360" t="s">
+      <c r="B29" s="358" t="s">
         <v>293</v>
       </c>
       <c r="C29" s="96">
         <v>48036.26</v>
       </c>
-      <c r="D29" s="360" t="s">
-        <v>306</v>
+      <c r="D29" s="377">
+        <v>44560</v>
       </c>
       <c r="E29" s="96">
         <v>48036.26</v>
@@ -18802,16 +18827,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="352" t="s">
+      <c r="I29" s="350" t="s">
         <v>259</v>
       </c>
-      <c r="J29" s="351">
+      <c r="J29" s="349">
         <v>8090</v>
       </c>
-      <c r="K29" s="353">
+      <c r="K29" s="351">
         <v>23079</v>
       </c>
-      <c r="L29" s="290"/>
+      <c r="L29" s="288"/>
       <c r="M29" s="69"/>
       <c r="N29" s="137">
         <f t="shared" si="1"/>
@@ -18819,17 +18844,17 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="359" t="s">
+      <c r="A30" s="357" t="s">
         <v>260</v>
       </c>
-      <c r="B30" s="360" t="s">
+      <c r="B30" s="358" t="s">
         <v>294</v>
       </c>
       <c r="C30" s="96">
         <v>61444</v>
       </c>
-      <c r="D30" s="360" t="s">
-        <v>306</v>
+      <c r="D30" s="377">
+        <v>44560</v>
       </c>
       <c r="E30" s="96">
         <v>61444</v>
@@ -18839,16 +18864,16 @@
         <v>0</v>
       </c>
       <c r="G30" s="138"/>
-      <c r="I30" s="352" t="s">
+      <c r="I30" s="350" t="s">
         <v>260</v>
       </c>
-      <c r="J30" s="351">
+      <c r="J30" s="349">
         <v>8095</v>
       </c>
-      <c r="K30" s="353">
-        <v>0</v>
-      </c>
-      <c r="L30" s="290"/>
+      <c r="K30" s="351">
+        <v>0</v>
+      </c>
+      <c r="L30" s="288"/>
       <c r="M30" s="69"/>
       <c r="N30" s="137">
         <f t="shared" si="1"/>
@@ -18856,71 +18881,71 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="359" t="s">
+      <c r="A31" s="357" t="s">
         <v>260</v>
       </c>
-      <c r="B31" s="360" t="s">
+      <c r="B31" s="358" t="s">
         <v>295</v>
       </c>
       <c r="C31" s="96">
         <v>134636</v>
       </c>
-      <c r="D31" s="360" t="s">
-        <v>311</v>
-      </c>
-      <c r="E31" s="96">
+      <c r="D31" s="378">
+        <v>44564</v>
+      </c>
+      <c r="E31" s="379">
         <v>134636</v>
       </c>
       <c r="F31" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="352" t="s">
+        <f>F30+C31-E31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="350" t="s">
         <v>260</v>
       </c>
-      <c r="J31" s="351">
+      <c r="J31" s="349">
         <v>8097</v>
       </c>
-      <c r="K31" s="353">
+      <c r="K31" s="351">
         <v>288</v>
       </c>
-      <c r="L31" s="290"/>
+      <c r="L31" s="288"/>
       <c r="M31" s="69"/>
       <c r="N31" s="137">
-        <f t="shared" si="1"/>
+        <f>N30+K31-M31</f>
         <v>304322.28999999998</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="359" t="s">
+      <c r="A32" s="357" t="s">
         <v>260</v>
       </c>
-      <c r="B32" s="360" t="s">
+      <c r="B32" s="358" t="s">
         <v>296</v>
       </c>
       <c r="C32" s="96">
         <v>2496</v>
       </c>
-      <c r="D32" s="360" t="s">
-        <v>311</v>
-      </c>
-      <c r="E32" s="96">
+      <c r="D32" s="378">
+        <v>44564</v>
+      </c>
+      <c r="E32" s="379">
         <v>2496</v>
       </c>
       <c r="F32" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I32" s="352" t="s">
+      <c r="I32" s="350" t="s">
         <v>260</v>
       </c>
-      <c r="J32" s="351">
+      <c r="J32" s="349">
         <v>8099</v>
       </c>
-      <c r="K32" s="353">
-        <v>0</v>
-      </c>
-      <c r="L32" s="290"/>
+      <c r="K32" s="351">
+        <v>0</v>
+      </c>
+      <c r="L32" s="288"/>
       <c r="M32" s="69"/>
       <c r="N32" s="137">
         <f t="shared" si="1"/>
@@ -18928,35 +18953,35 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="359" t="s">
+      <c r="A33" s="357" t="s">
         <v>260</v>
       </c>
-      <c r="B33" s="360" t="s">
+      <c r="B33" s="358" t="s">
         <v>297</v>
       </c>
       <c r="C33" s="96">
         <v>1835.32</v>
       </c>
-      <c r="D33" s="360" t="s">
-        <v>311</v>
-      </c>
-      <c r="E33" s="96">
+      <c r="D33" s="378">
+        <v>44564</v>
+      </c>
+      <c r="E33" s="379">
         <v>1835.32</v>
       </c>
       <c r="F33" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I33" s="352" t="s">
+      <c r="I33" s="350" t="s">
         <v>260</v>
       </c>
-      <c r="J33" s="351">
+      <c r="J33" s="349">
         <v>8102</v>
       </c>
-      <c r="K33" s="353">
+      <c r="K33" s="351">
         <v>16973.12</v>
       </c>
-      <c r="L33" s="290"/>
+      <c r="L33" s="288"/>
       <c r="M33" s="69"/>
       <c r="N33" s="137">
         <f t="shared" si="1"/>
@@ -18964,35 +18989,35 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="359" t="s">
+      <c r="A34" s="357" t="s">
         <v>261</v>
       </c>
-      <c r="B34" s="360" t="s">
+      <c r="B34" s="358" t="s">
         <v>298</v>
       </c>
       <c r="C34" s="96">
         <v>37820</v>
       </c>
-      <c r="D34" s="360" t="s">
-        <v>311</v>
-      </c>
-      <c r="E34" s="96">
+      <c r="D34" s="378">
+        <v>44564</v>
+      </c>
+      <c r="E34" s="379">
         <v>37820</v>
       </c>
       <c r="F34" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I34" s="352" t="s">
+      <c r="I34" s="350" t="s">
         <v>261</v>
       </c>
-      <c r="J34" s="351">
+      <c r="J34" s="349">
         <v>8104</v>
       </c>
-      <c r="K34" s="353">
+      <c r="K34" s="351">
         <v>614.24</v>
       </c>
-      <c r="L34" s="290"/>
+      <c r="L34" s="288"/>
       <c r="M34" s="69"/>
       <c r="N34" s="137">
         <f t="shared" si="1"/>
@@ -19000,35 +19025,35 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="359" t="s">
+      <c r="A35" s="357" t="s">
         <v>261</v>
       </c>
-      <c r="B35" s="360" t="s">
+      <c r="B35" s="358" t="s">
         <v>299</v>
       </c>
       <c r="C35" s="96">
         <v>20355.400000000001</v>
       </c>
-      <c r="D35" s="360" t="s">
-        <v>311</v>
-      </c>
-      <c r="E35" s="96">
+      <c r="D35" s="378">
+        <v>44564</v>
+      </c>
+      <c r="E35" s="379">
         <v>20355.400000000001</v>
       </c>
       <c r="F35" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I35" s="352" t="s">
+      <c r="I35" s="350" t="s">
         <v>261</v>
       </c>
-      <c r="J35" s="351">
+      <c r="J35" s="349">
         <v>8105</v>
       </c>
-      <c r="K35" s="353">
+      <c r="K35" s="351">
         <v>216</v>
       </c>
-      <c r="L35" s="290"/>
+      <c r="L35" s="288"/>
       <c r="M35" s="69"/>
       <c r="N35" s="137">
         <f t="shared" si="1"/>
@@ -19036,31 +19061,31 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="359" t="s">
+      <c r="A36" s="357" t="s">
         <v>300</v>
       </c>
-      <c r="B36" s="360" t="s">
+      <c r="B36" s="358" t="s">
         <v>301</v>
       </c>
       <c r="C36" s="96">
         <v>37968.800000000003</v>
       </c>
-      <c r="D36" s="140"/>
+      <c r="D36" s="253"/>
       <c r="E36" s="69"/>
       <c r="F36" s="137">
         <f t="shared" si="0"/>
         <v>37968.800000000003</v>
       </c>
-      <c r="I36" s="352" t="s">
+      <c r="I36" s="350" t="s">
         <v>261</v>
       </c>
-      <c r="J36" s="351">
+      <c r="J36" s="349">
         <v>8110</v>
       </c>
-      <c r="K36" s="353">
-        <v>0</v>
-      </c>
-      <c r="L36" s="290"/>
+      <c r="K36" s="351">
+        <v>0</v>
+      </c>
+      <c r="L36" s="288"/>
       <c r="M36" s="69"/>
       <c r="N36" s="137">
         <f t="shared" si="1"/>
@@ -19068,54 +19093,54 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="359" t="s">
+      <c r="A37" s="357" t="s">
         <v>262</v>
       </c>
-      <c r="B37" s="360" t="s">
+      <c r="B37" s="358" t="s">
         <v>302</v>
       </c>
       <c r="C37" s="96">
         <v>38370.6</v>
       </c>
-      <c r="D37" s="140"/>
+      <c r="D37" s="253"/>
       <c r="E37" s="69"/>
       <c r="F37" s="137">
         <f t="shared" si="0"/>
         <v>76339.399999999994</v>
       </c>
-      <c r="I37" s="363" t="s">
+      <c r="I37" s="361" t="s">
         <v>261</v>
       </c>
-      <c r="J37" s="364">
+      <c r="J37" s="362">
         <v>8114</v>
       </c>
-      <c r="K37" s="365">
+      <c r="K37" s="363">
         <v>78024.399999999994</v>
       </c>
-      <c r="L37" s="366"/>
-      <c r="M37" s="367"/>
-      <c r="N37" s="368">
+      <c r="L37" s="364"/>
+      <c r="M37" s="365"/>
+      <c r="N37" s="366">
         <f t="shared" si="1"/>
         <v>400150.04999999993</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="359" t="s">
+      <c r="A38" s="357" t="s">
         <v>262</v>
       </c>
-      <c r="B38" s="360" t="s">
+      <c r="B38" s="358" t="s">
         <v>303</v>
       </c>
       <c r="C38" s="96">
         <v>2250</v>
       </c>
-      <c r="D38" s="140"/>
+      <c r="D38" s="253"/>
       <c r="E38" s="69"/>
       <c r="F38" s="137">
         <f t="shared" si="0"/>
         <v>78589.399999999994</v>
       </c>
-      <c r="I38" s="369" t="s">
+      <c r="I38" s="367" t="s">
         <v>262</v>
       </c>
       <c r="J38" s="38">
@@ -19124,169 +19149,169 @@
       <c r="K38" s="69">
         <v>7344.28</v>
       </c>
-      <c r="L38" s="290"/>
+      <c r="L38" s="288"/>
       <c r="M38" s="69"/>
-      <c r="N38" s="370">
+      <c r="N38" s="368">
         <f t="shared" si="1"/>
         <v>407494.32999999996</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="359" t="s">
+      <c r="A39" s="357" t="s">
         <v>263</v>
       </c>
-      <c r="B39" s="360" t="s">
+      <c r="B39" s="358" t="s">
         <v>304</v>
       </c>
       <c r="C39" s="96">
         <v>36332.379999999997</v>
       </c>
-      <c r="D39" s="140"/>
+      <c r="D39" s="253"/>
       <c r="E39" s="69"/>
       <c r="F39" s="137">
         <f t="shared" si="0"/>
         <v>114921.78</v>
       </c>
-      <c r="I39" s="354" t="s">
+      <c r="I39" s="352" t="s">
         <v>263</v>
       </c>
-      <c r="J39" s="355">
+      <c r="J39" s="353">
         <v>8144</v>
       </c>
-      <c r="K39" s="356">
-        <v>0</v>
-      </c>
-      <c r="L39" s="357"/>
+      <c r="K39" s="354">
+        <v>0</v>
+      </c>
+      <c r="L39" s="355"/>
       <c r="M39" s="215"/>
-      <c r="N39" s="358">
+      <c r="N39" s="356">
         <f t="shared" si="1"/>
         <v>407494.32999999996</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="359" t="s">
+      <c r="A40" s="357" t="s">
         <v>263</v>
       </c>
-      <c r="B40" s="360" t="s">
+      <c r="B40" s="358" t="s">
         <v>305</v>
       </c>
       <c r="C40" s="96">
         <v>31011.599999999999</v>
       </c>
-      <c r="D40" s="140"/>
+      <c r="D40" s="253"/>
       <c r="E40" s="69"/>
       <c r="F40" s="137">
         <f t="shared" si="0"/>
         <v>145933.38</v>
       </c>
-      <c r="I40" s="352" t="s">
+      <c r="I40" s="350" t="s">
         <v>263</v>
       </c>
-      <c r="J40" s="351">
+      <c r="J40" s="349">
         <v>8145</v>
       </c>
-      <c r="K40" s="353">
+      <c r="K40" s="351">
         <v>2592.81</v>
       </c>
       <c r="L40" s="140"/>
       <c r="M40" s="69"/>
-      <c r="N40" s="358">
+      <c r="N40" s="356">
         <f t="shared" si="1"/>
         <v>410087.13999999996</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="359" t="s">
+      <c r="A41" s="357" t="s">
         <v>306</v>
       </c>
-      <c r="B41" s="360" t="s">
+      <c r="B41" s="358" t="s">
         <v>307</v>
       </c>
       <c r="C41" s="96">
         <v>95276.3</v>
       </c>
-      <c r="D41" s="140"/>
+      <c r="D41" s="253"/>
       <c r="E41" s="69"/>
       <c r="F41" s="137">
         <f t="shared" si="0"/>
         <v>241209.68</v>
       </c>
-      <c r="I41" s="352" t="s">
+      <c r="I41" s="350" t="s">
         <v>263</v>
       </c>
-      <c r="J41" s="351">
+      <c r="J41" s="349">
         <v>8148</v>
       </c>
-      <c r="K41" s="353">
+      <c r="K41" s="351">
         <v>89838.6</v>
       </c>
       <c r="L41" s="140"/>
       <c r="M41" s="69"/>
-      <c r="N41" s="358">
+      <c r="N41" s="356">
         <f t="shared" si="1"/>
         <v>499925.74</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="359" t="s">
+      <c r="A42" s="357" t="s">
         <v>306</v>
       </c>
-      <c r="B42" s="360" t="s">
+      <c r="B42" s="358" t="s">
         <v>308</v>
       </c>
       <c r="C42" s="96">
         <v>4262.3999999999996</v>
       </c>
-      <c r="D42" s="140"/>
+      <c r="D42" s="253"/>
       <c r="E42" s="69"/>
       <c r="F42" s="137">
         <f t="shared" si="0"/>
         <v>245472.08</v>
       </c>
-      <c r="I42" s="352" t="s">
+      <c r="I42" s="350" t="s">
         <v>264</v>
       </c>
-      <c r="J42" s="351">
+      <c r="J42" s="349">
         <v>8164</v>
       </c>
-      <c r="K42" s="353">
+      <c r="K42" s="351">
         <v>10475.799999999999</v>
       </c>
       <c r="L42" s="140"/>
       <c r="M42" s="69"/>
-      <c r="N42" s="358">
+      <c r="N42" s="356">
         <f t="shared" si="1"/>
         <v>510401.54</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="359" t="s">
+      <c r="A43" s="357" t="s">
         <v>264</v>
       </c>
-      <c r="B43" s="360" t="s">
+      <c r="B43" s="358" t="s">
         <v>309</v>
       </c>
       <c r="C43" s="96">
         <v>33297.4</v>
       </c>
-      <c r="D43" s="140"/>
+      <c r="D43" s="253"/>
       <c r="E43" s="69"/>
       <c r="F43" s="137">
         <f t="shared" si="0"/>
         <v>278769.48</v>
       </c>
-      <c r="I43" s="352" t="s">
+      <c r="I43" s="350" t="s">
         <v>264</v>
       </c>
-      <c r="J43" s="351">
+      <c r="J43" s="349">
         <v>8169</v>
       </c>
-      <c r="K43" s="353">
+      <c r="K43" s="351">
         <v>21719.4</v>
       </c>
       <c r="L43" s="140"/>
       <c r="M43" s="69"/>
-      <c r="N43" s="358">
+      <c r="N43" s="356">
         <f t="shared" si="1"/>
         <v>532120.93999999994</v>
       </c>
@@ -19295,24 +19320,24 @@
       <c r="A44" s="134"/>
       <c r="B44" s="139"/>
       <c r="C44" s="69"/>
-      <c r="D44" s="140"/>
+      <c r="D44" s="253"/>
       <c r="E44" s="69"/>
       <c r="F44" s="137">
         <f t="shared" si="0"/>
         <v>278769.48</v>
       </c>
-      <c r="I44" s="352" t="s">
+      <c r="I44" s="350" t="s">
         <v>264</v>
       </c>
-      <c r="J44" s="351">
+      <c r="J44" s="349">
         <v>8170</v>
       </c>
-      <c r="K44" s="353">
+      <c r="K44" s="351">
         <v>57983.8</v>
       </c>
       <c r="L44" s="140"/>
       <c r="M44" s="69"/>
-      <c r="N44" s="358">
+      <c r="N44" s="356">
         <f t="shared" si="1"/>
         <v>590104.74</v>
       </c>
@@ -19321,7 +19346,7 @@
       <c r="A45" s="134"/>
       <c r="B45" s="139"/>
       <c r="C45" s="69"/>
-      <c r="D45" s="140"/>
+      <c r="D45" s="253"/>
       <c r="E45" s="69"/>
       <c r="F45" s="137">
         <f t="shared" si="0"/>
@@ -19341,7 +19366,7 @@
       <c r="A46" s="134"/>
       <c r="B46" s="139"/>
       <c r="C46" s="69"/>
-      <c r="D46" s="140"/>
+      <c r="D46" s="253"/>
       <c r="E46" s="69"/>
       <c r="F46" s="137">
         <f t="shared" si="0"/>
@@ -19361,7 +19386,7 @@
       <c r="A47" s="134"/>
       <c r="B47" s="139"/>
       <c r="C47" s="69"/>
-      <c r="D47" s="140"/>
+      <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
         <f t="shared" si="0"/>
@@ -19381,7 +19406,7 @@
       <c r="A48" s="134"/>
       <c r="B48" s="139"/>
       <c r="C48" s="69"/>
-      <c r="D48" s="140"/>
+      <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
         <f t="shared" si="0"/>
@@ -19401,7 +19426,7 @@
       <c r="A49" s="134"/>
       <c r="B49" s="139"/>
       <c r="C49" s="69"/>
-      <c r="D49" s="140"/>
+      <c r="D49" s="253"/>
       <c r="E49" s="69"/>
       <c r="F49" s="137">
         <f t="shared" si="0"/>
@@ -19421,7 +19446,7 @@
       <c r="A50" s="134"/>
       <c r="B50" s="139"/>
       <c r="C50" s="69"/>
-      <c r="D50" s="140"/>
+      <c r="D50" s="253"/>
       <c r="E50" s="69"/>
       <c r="F50" s="137">
         <f t="shared" si="0"/>
@@ -19441,7 +19466,7 @@
       <c r="A51" s="134"/>
       <c r="B51" s="139"/>
       <c r="C51" s="69"/>
-      <c r="D51" s="140"/>
+      <c r="D51" s="253"/>
       <c r="E51" s="69"/>
       <c r="F51" s="137">
         <f t="shared" si="0"/>
@@ -19461,7 +19486,7 @@
       <c r="A52" s="134"/>
       <c r="B52" s="139"/>
       <c r="C52" s="69"/>
-      <c r="D52" s="140"/>
+      <c r="D52" s="253"/>
       <c r="E52" s="69"/>
       <c r="F52" s="137">
         <f t="shared" si="0"/>
@@ -19481,7 +19506,7 @@
       <c r="A53" s="134"/>
       <c r="B53" s="139"/>
       <c r="C53" s="69"/>
-      <c r="D53" s="140"/>
+      <c r="D53" s="253"/>
       <c r="E53" s="69"/>
       <c r="F53" s="137">
         <f t="shared" si="0"/>
@@ -19501,7 +19526,7 @@
       <c r="A54" s="134"/>
       <c r="B54" s="139"/>
       <c r="C54" s="69"/>
-      <c r="D54" s="140"/>
+      <c r="D54" s="253"/>
       <c r="E54" s="69"/>
       <c r="F54" s="137">
         <f t="shared" si="0"/>
@@ -19521,7 +19546,7 @@
       <c r="A55" s="134"/>
       <c r="B55" s="139"/>
       <c r="C55" s="69"/>
-      <c r="D55" s="140"/>
+      <c r="D55" s="253"/>
       <c r="E55" s="69"/>
       <c r="F55" s="137">
         <f t="shared" si="0"/>
@@ -19541,7 +19566,7 @@
       <c r="A56" s="134"/>
       <c r="B56" s="139"/>
       <c r="C56" s="69"/>
-      <c r="D56" s="140"/>
+      <c r="D56" s="253"/>
       <c r="E56" s="69"/>
       <c r="F56" s="137">
         <f t="shared" si="0"/>
@@ -19561,14 +19586,14 @@
       <c r="A57" s="134"/>
       <c r="B57" s="139"/>
       <c r="C57" s="69"/>
-      <c r="D57" s="148"/>
+      <c r="D57" s="254"/>
       <c r="E57" s="69"/>
       <c r="F57" s="137">
         <f t="shared" si="0"/>
         <v>278769.48</v>
       </c>
-      <c r="I57" s="361"/>
-      <c r="J57" s="362"/>
+      <c r="I57" s="359"/>
+      <c r="J57" s="360"/>
       <c r="K57" s="34"/>
       <c r="L57" s="147"/>
       <c r="M57" s="34"/>
@@ -19581,14 +19606,14 @@
       <c r="A58" s="134"/>
       <c r="B58" s="139"/>
       <c r="C58" s="69"/>
-      <c r="D58" s="148"/>
+      <c r="D58" s="254"/>
       <c r="E58" s="69"/>
       <c r="F58" s="137">
         <f t="shared" si="0"/>
         <v>278769.48</v>
       </c>
-      <c r="I58" s="361"/>
-      <c r="J58" s="362"/>
+      <c r="I58" s="359"/>
+      <c r="J58" s="360"/>
       <c r="K58" s="34"/>
       <c r="L58" s="147"/>
       <c r="M58" s="34"/>
@@ -19601,14 +19626,14 @@
       <c r="A59" s="134"/>
       <c r="B59" s="139"/>
       <c r="C59" s="69"/>
-      <c r="D59" s="148"/>
+      <c r="D59" s="254"/>
       <c r="E59" s="69"/>
       <c r="F59" s="137">
         <f t="shared" si="0"/>
         <v>278769.48</v>
       </c>
-      <c r="I59" s="361"/>
-      <c r="J59" s="362"/>
+      <c r="I59" s="359"/>
+      <c r="J59" s="360"/>
       <c r="K59" s="34"/>
       <c r="L59" s="147"/>
       <c r="M59" s="34"/>
@@ -19621,14 +19646,14 @@
       <c r="A60" s="134"/>
       <c r="B60" s="139"/>
       <c r="C60" s="69"/>
-      <c r="D60" s="148"/>
+      <c r="D60" s="254"/>
       <c r="E60" s="69"/>
       <c r="F60" s="137">
         <f t="shared" si="0"/>
         <v>278769.48</v>
       </c>
-      <c r="I60" s="361"/>
-      <c r="J60" s="362"/>
+      <c r="I60" s="359"/>
+      <c r="J60" s="360"/>
       <c r="K60" s="34"/>
       <c r="L60" s="147"/>
       <c r="M60" s="34"/>
@@ -19641,14 +19666,14 @@
       <c r="A61" s="134"/>
       <c r="B61" s="139"/>
       <c r="C61" s="69"/>
-      <c r="D61" s="148"/>
+      <c r="D61" s="254"/>
       <c r="E61" s="69"/>
       <c r="F61" s="137">
         <f t="shared" si="0"/>
         <v>278769.48</v>
       </c>
-      <c r="I61" s="361"/>
-      <c r="J61" s="362"/>
+      <c r="I61" s="359"/>
+      <c r="J61" s="360"/>
       <c r="K61" s="34"/>
       <c r="L61" s="147"/>
       <c r="M61" s="34"/>
@@ -19658,17 +19683,17 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="361"/>
-      <c r="B62" s="362"/>
+      <c r="A62" s="359"/>
+      <c r="B62" s="360"/>
       <c r="C62" s="34"/>
-      <c r="D62" s="147"/>
+      <c r="D62" s="118"/>
       <c r="E62" s="34"/>
       <c r="F62" s="137">
         <f t="shared" si="0"/>
         <v>278769.48</v>
       </c>
-      <c r="I62" s="361"/>
-      <c r="J62" s="362"/>
+      <c r="I62" s="359"/>
+      <c r="J62" s="360"/>
       <c r="K62" s="34"/>
       <c r="L62" s="147"/>
       <c r="M62" s="34"/>
@@ -19681,7 +19706,7 @@
       <c r="A63" s="134"/>
       <c r="B63" s="139"/>
       <c r="C63" s="69"/>
-      <c r="D63" s="148"/>
+      <c r="D63" s="254"/>
       <c r="E63" s="69"/>
       <c r="F63" s="137">
         <f t="shared" si="0"/>
@@ -19701,7 +19726,7 @@
       <c r="A64" s="134"/>
       <c r="B64" s="139"/>
       <c r="C64" s="69"/>
-      <c r="D64" s="148"/>
+      <c r="D64" s="254"/>
       <c r="E64" s="69"/>
       <c r="F64" s="137">
         <f t="shared" si="0"/>
@@ -19721,7 +19746,7 @@
       <c r="A65" s="134"/>
       <c r="B65" s="139"/>
       <c r="C65" s="69"/>
-      <c r="D65" s="148"/>
+      <c r="D65" s="254"/>
       <c r="E65" s="69"/>
       <c r="F65" s="137">
         <f t="shared" si="0"/>
@@ -19741,7 +19766,7 @@
       <c r="A66" s="134"/>
       <c r="B66" s="139"/>
       <c r="C66" s="69"/>
-      <c r="D66" s="148"/>
+      <c r="D66" s="254"/>
       <c r="E66" s="69"/>
       <c r="F66" s="137">
         <f t="shared" si="0"/>
@@ -19761,7 +19786,7 @@
       <c r="A67" s="134"/>
       <c r="B67" s="139"/>
       <c r="C67" s="69"/>
-      <c r="D67" s="148"/>
+      <c r="D67" s="254"/>
       <c r="E67" s="69"/>
       <c r="F67" s="137">
         <f t="shared" si="0"/>
@@ -19781,7 +19806,7 @@
       <c r="A68" s="134"/>
       <c r="B68" s="139"/>
       <c r="C68" s="69"/>
-      <c r="D68" s="148"/>
+      <c r="D68" s="254"/>
       <c r="E68" s="69"/>
       <c r="F68" s="137">
         <f t="shared" si="0"/>
@@ -19801,7 +19826,7 @@
       <c r="A69" s="134"/>
       <c r="B69" s="139"/>
       <c r="C69" s="69"/>
-      <c r="D69" s="148"/>
+      <c r="D69" s="254"/>
       <c r="E69" s="69"/>
       <c r="F69" s="137">
         <f t="shared" ref="F69:F71" si="3">F68+C69-E69</f>
@@ -19821,7 +19846,7 @@
       <c r="A70" s="134"/>
       <c r="B70" s="139"/>
       <c r="C70" s="69"/>
-      <c r="D70" s="148"/>
+      <c r="D70" s="254"/>
       <c r="E70" s="69"/>
       <c r="F70" s="137">
         <f t="shared" si="3"/>
@@ -19841,7 +19866,7 @@
       <c r="A71" s="134"/>
       <c r="B71" s="139"/>
       <c r="C71" s="69"/>
-      <c r="D71" s="148"/>
+      <c r="D71" s="254"/>
       <c r="E71" s="69"/>
       <c r="F71" s="137">
         <f t="shared" si="3"/>
@@ -19861,7 +19886,7 @@
       <c r="A72" s="134"/>
       <c r="B72" s="139"/>
       <c r="C72" s="69"/>
-      <c r="D72" s="148"/>
+      <c r="D72" s="254"/>
       <c r="E72" s="69"/>
       <c r="F72" s="137">
         <f t="shared" ref="F72:F73" si="4">F71+C72-E72</f>
@@ -19883,7 +19908,7 @@
       <c r="C73" s="34">
         <v>0</v>
       </c>
-      <c r="D73" s="152"/>
+      <c r="D73" s="255"/>
       <c r="E73" s="151"/>
       <c r="F73" s="137">
         <f t="shared" si="4"/>
@@ -19907,7 +19932,7 @@
         <f>SUM(C3:C73)</f>
         <v>1567070.66</v>
       </c>
-      <c r="D74" s="97"/>
+      <c r="D74" s="256"/>
       <c r="E74" s="1"/>
       <c r="F74" s="153">
         <f>F73</f>
@@ -19927,9 +19952,9 @@
     <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="213"/>
       <c r="C75" s="214"/>
-      <c r="D75" s="97"/>
+      <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="433" t="s">
+      <c r="F75" s="443" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -19940,9 +19965,9 @@
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B76" s="98"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="97"/>
+      <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="434"/>
+      <c r="F76" s="444"/>
       <c r="K76" s="1"/>
       <c r="L76" s="97"/>
       <c r="M76" s="3"/>
@@ -19951,7 +19976,6 @@
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77" s="23"/>
-      <c r="D77" s="23"/>
       <c r="I77"/>
       <c r="J77" s="194"/>
       <c r="L77" s="23"/>
@@ -19959,7 +19983,6 @@
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78" s="23"/>
-      <c r="D78" s="23"/>
       <c r="I78"/>
       <c r="J78" s="194"/>
       <c r="L78" s="23"/>
@@ -19967,7 +19990,6 @@
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79" s="23"/>
-      <c r="D79" s="23"/>
       <c r="I79"/>
       <c r="J79" s="194"/>
       <c r="L79" s="23"/>
@@ -19975,7 +19997,6 @@
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80" s="23"/>
-      <c r="D80" s="23"/>
       <c r="F80"/>
       <c r="I80"/>
       <c r="J80" s="194"/>
@@ -19985,7 +20006,6 @@
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81" s="23"/>
-      <c r="D81" s="23"/>
       <c r="F81"/>
       <c r="I81"/>
       <c r="J81" s="194"/>
@@ -19995,7 +20015,6 @@
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82" s="23"/>
-      <c r="D82" s="23"/>
       <c r="F82"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
@@ -20005,7 +20024,6 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83" s="23"/>
-      <c r="D83" s="23"/>
       <c r="F83"/>
       <c r="I83"/>
       <c r="J83" s="194"/>
@@ -20015,7 +20033,6 @@
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84" s="23"/>
-      <c r="D84" s="23"/>
       <c r="F84"/>
       <c r="I84"/>
       <c r="J84" s="194"/>
@@ -20025,7 +20042,6 @@
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85" s="23"/>
-      <c r="D85" s="23"/>
       <c r="F85"/>
       <c r="I85"/>
       <c r="J85" s="194"/>
@@ -20035,7 +20051,6 @@
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86" s="23"/>
-      <c r="D86" s="23"/>
       <c r="F86"/>
       <c r="I86"/>
       <c r="J86" s="194"/>
@@ -20045,7 +20060,6 @@
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87" s="23"/>
-      <c r="D87" s="23"/>
       <c r="F87"/>
       <c r="I87"/>
       <c r="J87" s="194"/>
@@ -20055,7 +20069,6 @@
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88" s="23"/>
-      <c r="D88" s="23"/>
       <c r="F88"/>
       <c r="I88"/>
       <c r="J88" s="194"/>
@@ -20065,7 +20078,6 @@
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89" s="23"/>
-      <c r="D89" s="23"/>
       <c r="E89"/>
       <c r="F89"/>
       <c r="I89"/>
@@ -20077,7 +20089,6 @@
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90" s="23"/>
-      <c r="D90" s="23"/>
       <c r="E90"/>
       <c r="F90"/>
       <c r="I90"/>
@@ -20089,7 +20100,6 @@
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91" s="23"/>
-      <c r="D91" s="23"/>
       <c r="E91"/>
       <c r="F91"/>
       <c r="I91"/>
@@ -20101,7 +20111,6 @@
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92" s="23"/>
-      <c r="D92" s="23"/>
       <c r="E92"/>
       <c r="F92"/>
       <c r="I92"/>
@@ -20113,7 +20122,6 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93" s="23"/>
-      <c r="D93" s="23"/>
       <c r="E93"/>
       <c r="F93"/>
       <c r="I93"/>
@@ -20125,7 +20133,6 @@
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94" s="23"/>
-      <c r="D94" s="23"/>
       <c r="E94"/>
       <c r="F94"/>
       <c r="I94"/>
@@ -20136,7 +20143,6 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B95" s="23"/>
-      <c r="D95" s="23"/>
       <c r="E95"/>
       <c r="J95" s="194"/>
       <c r="L95" s="23"/>
@@ -20144,7 +20150,6 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B96" s="23"/>
-      <c r="D96" s="23"/>
       <c r="E96"/>
       <c r="J96" s="194"/>
       <c r="L96" s="23"/>
@@ -20152,7 +20157,6 @@
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="23"/>
-      <c r="D97" s="23"/>
       <c r="E97"/>
       <c r="J97" s="194"/>
       <c r="L97" s="23"/>
@@ -20160,7 +20164,6 @@
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="23"/>
-      <c r="D98" s="23"/>
       <c r="E98"/>
       <c r="J98" s="194"/>
       <c r="L98" s="23"/>
@@ -20168,7 +20171,6 @@
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="23"/>
-      <c r="D99" s="23"/>
       <c r="E99"/>
       <c r="J99" s="194"/>
       <c r="L99" s="23"/>
@@ -20176,7 +20178,6 @@
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="23"/>
-      <c r="D100" s="23"/>
       <c r="E100"/>
       <c r="J100" s="194"/>
       <c r="L100" s="23"/>
@@ -20184,7 +20185,6 @@
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="23"/>
-      <c r="D101" s="23"/>
       <c r="E101"/>
       <c r="J101" s="194"/>
       <c r="L101" s="23"/>
@@ -20192,7 +20192,6 @@
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="23"/>
-      <c r="D102" s="23"/>
       <c r="E102"/>
       <c r="J102" s="194"/>
       <c r="L102" s="23"/>
@@ -20200,7 +20199,6 @@
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="23"/>
-      <c r="D103" s="23"/>
       <c r="E103"/>
       <c r="J103" s="194"/>
       <c r="L103" s="23"/>
@@ -20216,7 +20214,6 @@
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="23"/>
-      <c r="D106" s="23"/>
       <c r="J106" s="194"/>
       <c r="L106" s="23"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL#14  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/BALANCE    ZAVALETA   DICIEMBRE     2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#14  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/BALANCE    ZAVALETA   DICIEMBRE     2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="315">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1153,6 +1153,9 @@
   </si>
   <si>
     <t>C-3948</t>
+  </si>
+  <si>
+    <t>DEBE  ZAVALETA</t>
   </si>
 </sst>
 </file>
@@ -2826,7 +2829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="448">
+  <cellXfs count="450">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3600,6 +3603,42 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3672,45 +3711,60 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3738,54 +3792,6 @@
     <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3798,8 +3804,11 @@
     <xf numFmtId="44" fontId="2" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5403,23 +5412,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="405"/>
-      <c r="C1" s="407" t="s">
+      <c r="B1" s="382"/>
+      <c r="C1" s="384" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="408"/>
-      <c r="E1" s="408"/>
-      <c r="F1" s="408"/>
-      <c r="G1" s="408"/>
-      <c r="H1" s="408"/>
-      <c r="I1" s="408"/>
-      <c r="J1" s="408"/>
-      <c r="K1" s="408"/>
-      <c r="L1" s="408"/>
-      <c r="M1" s="408"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="385"/>
+      <c r="J1" s="385"/>
+      <c r="K1" s="385"/>
+      <c r="L1" s="385"/>
+      <c r="M1" s="385"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="406"/>
+      <c r="B2" s="383"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -5429,17 +5438,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="409" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="410"/>
+      <c r="B3" s="386" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="387"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="411" t="s">
+      <c r="H3" s="388" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="411"/>
+      <c r="I3" s="388"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -5453,14 +5462,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="412" t="s">
+      <c r="E4" s="389" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="413"/>
-      <c r="H4" s="414" t="s">
+      <c r="F4" s="390"/>
+      <c r="H4" s="391" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="415"/>
+      <c r="I4" s="392"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -5470,10 +5479,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="386" t="s">
+      <c r="P4" s="398" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="387"/>
+      <c r="Q4" s="399"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -6914,11 +6923,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="388">
+      <c r="M39" s="400">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="390">
+      <c r="N39" s="402">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -6944,8 +6953,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="389"/>
-      <c r="N40" s="391"/>
+      <c r="M40" s="401"/>
+      <c r="N40" s="403"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -7160,29 +7169,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="392" t="s">
+      <c r="H52" s="404" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="393"/>
+      <c r="I52" s="405"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="394">
+      <c r="K52" s="406">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="395"/>
-      <c r="M52" s="396">
+      <c r="L52" s="407"/>
+      <c r="M52" s="408">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="397"/>
+      <c r="N52" s="409"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="398" t="s">
+      <c r="D53" s="410" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="398"/>
+      <c r="E53" s="410"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -7193,22 +7202,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="398" t="s">
+      <c r="D54" s="410" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="398"/>
+      <c r="E54" s="410"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="399" t="s">
+      <c r="I54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="400"/>
-      <c r="K54" s="401">
+      <c r="J54" s="412"/>
+      <c r="K54" s="413">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="402"/>
+      <c r="L54" s="414"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -7241,11 +7250,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="403">
+      <c r="K56" s="415">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="404"/>
+      <c r="L56" s="416"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -7262,22 +7271,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="381" t="s">
+      <c r="D58" s="393" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="382"/>
+      <c r="E58" s="394"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="383" t="s">
+      <c r="I58" s="395" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="384"/>
-      <c r="K58" s="385">
+      <c r="J58" s="396"/>
+      <c r="K58" s="397">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="385"/>
+      <c r="L58" s="397"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -7421,12 +7430,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -7441,6 +7444,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8781,7 +8790,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="416" t="s">
+      <c r="B41" s="417" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -8813,7 +8822,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="417"/>
+      <c r="B42" s="418"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -10409,23 +10418,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="405"/>
-      <c r="C1" s="407" t="s">
+      <c r="B1" s="382"/>
+      <c r="C1" s="384" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="408"/>
-      <c r="E1" s="408"/>
-      <c r="F1" s="408"/>
-      <c r="G1" s="408"/>
-      <c r="H1" s="408"/>
-      <c r="I1" s="408"/>
-      <c r="J1" s="408"/>
-      <c r="K1" s="408"/>
-      <c r="L1" s="408"/>
-      <c r="M1" s="408"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="385"/>
+      <c r="J1" s="385"/>
+      <c r="K1" s="385"/>
+      <c r="L1" s="385"/>
+      <c r="M1" s="385"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="406"/>
+      <c r="B2" s="383"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10435,21 +10444,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="409" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="410"/>
+      <c r="B3" s="386" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="387"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="411" t="s">
+      <c r="H3" s="388" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="411"/>
+      <c r="I3" s="388"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="435" t="s">
+      <c r="P3" s="425" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10464,14 +10473,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="412" t="s">
+      <c r="E4" s="389" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="413"/>
-      <c r="H4" s="414" t="s">
+      <c r="F4" s="390"/>
+      <c r="H4" s="391" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="415"/>
+      <c r="I4" s="392"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -10481,14 +10490,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="436"/>
+      <c r="P4" s="426"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="418" t="s">
+      <c r="W4" s="435" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="418"/>
+      <c r="X4" s="435"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10539,8 +10548,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="418"/>
-      <c r="X5" s="418"/>
+      <c r="W5" s="435"/>
+      <c r="X5" s="435"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11311,7 +11320,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="422">
+      <c r="W19" s="439">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -11363,7 +11372,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="423"/>
+      <c r="W20" s="440"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -11412,8 +11421,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="424"/>
-      <c r="X21" s="424"/>
+      <c r="W21" s="441"/>
+      <c r="X21" s="441"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -11514,8 +11523,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="425"/>
-      <c r="X23" s="425"/>
+      <c r="W23" s="442"/>
+      <c r="X23" s="442"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -11569,8 +11578,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="425"/>
-      <c r="X24" s="425"/>
+      <c r="W24" s="442"/>
+      <c r="X24" s="442"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -11616,8 +11625,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="426"/>
-      <c r="X25" s="426"/>
+      <c r="W25" s="443"/>
+      <c r="X25" s="443"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -11668,8 +11677,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="426"/>
-      <c r="X26" s="426"/>
+      <c r="W26" s="443"/>
+      <c r="X26" s="443"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -11717,9 +11726,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="419"/>
-      <c r="X27" s="420"/>
-      <c r="Y27" s="421"/>
+      <c r="W27" s="436"/>
+      <c r="X27" s="437"/>
+      <c r="Y27" s="438"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11769,9 +11778,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="420"/>
-      <c r="X28" s="420"/>
-      <c r="Y28" s="421"/>
+      <c r="W28" s="437"/>
+      <c r="X28" s="437"/>
+      <c r="Y28" s="438"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12106,11 +12115,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="437">
+      <c r="M36" s="427">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="439">
+      <c r="N36" s="429">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -12118,7 +12127,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="441">
+      <c r="Q36" s="431">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -12153,13 +12162,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="438"/>
-      <c r="N37" s="440"/>
+      <c r="M37" s="428"/>
+      <c r="N37" s="430"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="442"/>
+      <c r="Q37" s="432"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -12449,26 +12458,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="392" t="s">
+      <c r="H52" s="404" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="393"/>
+      <c r="I52" s="405"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="394">
+      <c r="K52" s="406">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="427"/>
+      <c r="L52" s="433"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="398" t="s">
+      <c r="D53" s="410" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="398"/>
+      <c r="E53" s="410"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -12477,29 +12486,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="428" t="s">
+      <c r="D54" s="434" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="428"/>
+      <c r="E54" s="434"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="399" t="s">
+      <c r="I54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="400"/>
-      <c r="K54" s="401">
+      <c r="J54" s="412"/>
+      <c r="K54" s="413">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="401"/>
-      <c r="M54" s="429" t="s">
+      <c r="L54" s="413"/>
+      <c r="M54" s="419" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="430"/>
-      <c r="O54" s="430"/>
-      <c r="P54" s="430"/>
-      <c r="Q54" s="431"/>
+      <c r="N54" s="420"/>
+      <c r="O54" s="420"/>
+      <c r="P54" s="420"/>
+      <c r="Q54" s="421"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -12513,11 +12522,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="432"/>
-      <c r="N55" s="433"/>
-      <c r="O55" s="433"/>
-      <c r="P55" s="433"/>
-      <c r="Q55" s="434"/>
+      <c r="M55" s="422"/>
+      <c r="N55" s="423"/>
+      <c r="O55" s="423"/>
+      <c r="P55" s="423"/>
+      <c r="Q55" s="424"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -12535,11 +12544,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="403">
+      <c r="K56" s="415">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="404"/>
+      <c r="L56" s="416"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -12556,22 +12565,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="381" t="s">
+      <c r="D58" s="393" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="382"/>
+      <c r="E58" s="394"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="383" t="s">
+      <c r="I58" s="395" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="384"/>
-      <c r="K58" s="385">
+      <c r="J58" s="396"/>
+      <c r="K58" s="397">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="385"/>
+      <c r="L58" s="397"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -12715,17 +12724,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -12736,14 +12742,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12759,8 +12768,8 @@
   </sheetPr>
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15161,7 +15170,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="443" t="s">
+      <c r="F87" s="444" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -15174,7 +15183,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="444"/>
+      <c r="F88" s="445"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -15486,23 +15495,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="405"/>
-      <c r="C1" s="407" t="s">
+      <c r="B1" s="382"/>
+      <c r="C1" s="384" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="408"/>
-      <c r="E1" s="408"/>
-      <c r="F1" s="408"/>
-      <c r="G1" s="408"/>
-      <c r="H1" s="408"/>
-      <c r="I1" s="408"/>
-      <c r="J1" s="408"/>
-      <c r="K1" s="408"/>
-      <c r="L1" s="408"/>
-      <c r="M1" s="408"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="385"/>
+      <c r="J1" s="385"/>
+      <c r="K1" s="385"/>
+      <c r="L1" s="385"/>
+      <c r="M1" s="385"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="406"/>
+      <c r="B2" s="383"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15512,24 +15521,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="409" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="410"/>
+      <c r="B3" s="386" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="387"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="411" t="s">
+      <c r="H3" s="388" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="411"/>
+      <c r="I3" s="388"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="435" t="s">
+      <c r="P3" s="425" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="445" t="s">
+      <c r="R3" s="446" t="s">
         <v>216</v>
       </c>
     </row>
@@ -15544,14 +15553,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="412" t="s">
+      <c r="E4" s="389" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="413"/>
-      <c r="H4" s="414" t="s">
+      <c r="F4" s="390"/>
+      <c r="H4" s="391" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="415"/>
+      <c r="I4" s="392"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -15561,15 +15570,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="436"/>
+      <c r="P4" s="426"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="446"/>
-      <c r="W4" s="418" t="s">
+      <c r="R4" s="447"/>
+      <c r="W4" s="435" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="418"/>
+      <c r="X4" s="435"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15630,8 +15639,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="418"/>
-      <c r="X5" s="418"/>
+      <c r="W5" s="435"/>
+      <c r="X5" s="435"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16388,7 +16397,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="422">
+      <c r="W19" s="439">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -16440,7 +16449,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="423"/>
+      <c r="W20" s="440"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -16489,8 +16498,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="424"/>
-      <c r="X21" s="424"/>
+      <c r="W21" s="441"/>
+      <c r="X21" s="441"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -16591,8 +16600,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="425"/>
-      <c r="X23" s="425"/>
+      <c r="W23" s="442"/>
+      <c r="X23" s="442"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -16643,8 +16652,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="425"/>
-      <c r="X24" s="425"/>
+      <c r="W24" s="442"/>
+      <c r="X24" s="442"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -16690,8 +16699,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="426"/>
-      <c r="X25" s="426"/>
+      <c r="W25" s="443"/>
+      <c r="X25" s="443"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -16739,8 +16748,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="426"/>
-      <c r="X26" s="426"/>
+      <c r="W26" s="443"/>
+      <c r="X26" s="443"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -16800,9 +16809,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="419"/>
-      <c r="X27" s="420"/>
-      <c r="Y27" s="421"/>
+      <c r="W27" s="436"/>
+      <c r="X27" s="437"/>
+      <c r="Y27" s="438"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16856,9 +16865,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="420"/>
-      <c r="X28" s="420"/>
-      <c r="Y28" s="421"/>
+      <c r="W28" s="437"/>
+      <c r="X28" s="437"/>
+      <c r="Y28" s="438"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17165,11 +17174,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="437">
+      <c r="M36" s="427">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>1054774.3</v>
       </c>
-      <c r="N36" s="439">
+      <c r="N36" s="429">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -17177,7 +17186,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="441">
+      <c r="Q36" s="431">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-37279.94</v>
       </c>
@@ -17196,13 +17205,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="438"/>
-      <c r="N37" s="440"/>
+      <c r="M37" s="428"/>
+      <c r="N37" s="430"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="442"/>
+      <c r="Q37" s="432"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -17476,26 +17485,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="392" t="s">
+      <c r="H52" s="404" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="393"/>
+      <c r="I52" s="405"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="394">
+      <c r="K52" s="406">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="427"/>
+      <c r="L52" s="433"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="398" t="s">
+      <c r="D53" s="410" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="398"/>
+      <c r="E53" s="410"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1957966.13</v>
@@ -17504,29 +17513,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="428" t="s">
+      <c r="D54" s="434" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="428"/>
+      <c r="E54" s="434"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="399" t="s">
+      <c r="I54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="400"/>
-      <c r="K54" s="401">
+      <c r="J54" s="412"/>
+      <c r="K54" s="413">
         <f>F56+F57+F58</f>
         <v>921303.96</v>
       </c>
-      <c r="L54" s="401"/>
-      <c r="M54" s="429" t="s">
+      <c r="L54" s="413"/>
+      <c r="M54" s="419" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="430"/>
-      <c r="O54" s="430"/>
-      <c r="P54" s="430"/>
-      <c r="Q54" s="431"/>
+      <c r="N54" s="420"/>
+      <c r="O54" s="420"/>
+      <c r="P54" s="420"/>
+      <c r="Q54" s="421"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -17540,11 +17549,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="432"/>
-      <c r="N55" s="433"/>
-      <c r="O55" s="433"/>
-      <c r="P55" s="433"/>
-      <c r="Q55" s="434"/>
+      <c r="M55" s="422"/>
+      <c r="N55" s="423"/>
+      <c r="O55" s="423"/>
+      <c r="P55" s="423"/>
+      <c r="Q55" s="424"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -17562,11 +17571,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="403">
+      <c r="K56" s="415">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="404"/>
+      <c r="L56" s="416"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -17583,22 +17592,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="381" t="s">
+      <c r="D58" s="393" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="382"/>
+      <c r="E58" s="394"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="383" t="s">
+      <c r="I58" s="395" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="384"/>
-      <c r="K58" s="385">
+      <c r="J58" s="396"/>
+      <c r="K58" s="397">
         <f>K54+K56</f>
         <v>353914.61</v>
       </c>
-      <c r="L58" s="385"/>
+      <c r="L58" s="397"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -17742,13 +17751,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -17758,20 +17774,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17787,8 +17796,8 @@
   </sheetPr>
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F81" sqref="E81:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17808,7 +17817,7 @@
     <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="290" t="s">
         <v>90</v>
       </c>
@@ -17816,8 +17825,8 @@
       <c r="C1" s="292"/>
       <c r="D1" s="376"/>
       <c r="E1" s="292"/>
-      <c r="F1" s="158" t="s">
-        <v>27</v>
+      <c r="F1" s="449" t="s">
+        <v>314</v>
       </c>
       <c r="I1" s="301" t="s">
         <v>91</v>
@@ -17826,8 +17835,8 @@
       <c r="K1" s="303"/>
       <c r="L1" s="304"/>
       <c r="M1" s="303"/>
-      <c r="N1" s="305" t="s">
-        <v>27</v>
+      <c r="N1" s="448" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -18745,7 +18754,7 @@
       <c r="C27" s="96">
         <v>634.5</v>
       </c>
-      <c r="D27" s="447">
+      <c r="D27" s="381">
         <v>44550</v>
       </c>
       <c r="E27" s="96">
@@ -19954,7 +19963,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="443" t="s">
+      <c r="F75" s="444" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -19967,7 +19976,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="444"/>
+      <c r="F76" s="445"/>
       <c r="K76" s="1"/>
       <c r="L76" s="97"/>
       <c r="M76" s="3"/>
@@ -20237,8 +20246,8 @@
   <mergeCells count="1">
     <mergeCell ref="F75:F76"/>
   </mergeCells>
-  <pageMargins left="0.36" right="0.25" top="0.43" bottom="0.37" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.35433070866141736" right="0.23622047244094491" top="0.43307086614173229" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL#14  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/BALANCE    ZAVALETA   DICIEMBRE     2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#14  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/BALANCE    ZAVALETA   DICIEMBRE     2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <sheet name="REMISIONES  NOVIEMBRE  2021  " sheetId="6" r:id="rId4"/>
     <sheet name="DICIEMBRE    2 0 2 1      " sheetId="7" r:id="rId5"/>
     <sheet name="REMISIONES  DICIEMBRE  2021   " sheetId="8" r:id="rId6"/>
-    <sheet name="Hoja3" sheetId="9" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="10" r:id="rId7"/>
+    <sheet name="Hoja2" sheetId="11" r:id="rId8"/>
+    <sheet name="Hoja4" sheetId="12" r:id="rId9"/>
+    <sheet name="REPORTE ENERO 2022" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -211,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="323">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1156,6 +1159,30 @@
   </si>
   <si>
     <t>DEBE  ZAVALETA</t>
+  </si>
+  <si>
+    <t>SALDO</t>
+  </si>
+  <si>
+    <t>COMPRAS  A CENTRAL 3  AL 18 DE ENERO 2022</t>
+  </si>
+  <si>
+    <t>COMPRAS  A OBRADOR   3 AL 18 DE ENERO 2022</t>
+  </si>
+  <si>
+    <t>DEBE  CENTRAL A ZAVALETA  3 AL 18 ENERO 2022</t>
+  </si>
+  <si>
+    <t>DEBE  OBRADOR  A ZAVALETA  3 AL 18 ENERO 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ZAVALETA  ENERO  2022</t>
+  </si>
+  <si>
+    <t>Y HAY UNA NOTA DE NOVIEMBRE DE PAGAR  CENTRAL A ZAVALETA</t>
+  </si>
+  <si>
+    <t>CONTRA EXCEL</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1617,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1699,8 +1726,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="91">
+  <borders count="102">
     <border>
       <left/>
       <right/>
@@ -2824,12 +2857,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="489">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3606,6 +3778,45 @@
     <xf numFmtId="165" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="92" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="98" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3804,11 +4015,71 @@
     <xf numFmtId="44" fontId="2" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="7" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="19" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="19" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="14" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="14" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3819,14 +4090,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CCFF"/>
       <color rgb="FF66FFFF"/>
+      <color rgb="FF800000"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF800000"/>
+      <color rgb="FF6600FF"/>
       <color rgb="FFCCFF66"/>
-      <color rgb="FF6600FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF00FF99"/>
-      <color rgb="FF99CCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5412,23 +5683,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="382"/>
-      <c r="C1" s="384" t="s">
+      <c r="B1" s="401"/>
+      <c r="C1" s="403" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="385"/>
-      <c r="E1" s="385"/>
-      <c r="F1" s="385"/>
-      <c r="G1" s="385"/>
-      <c r="H1" s="385"/>
-      <c r="I1" s="385"/>
-      <c r="J1" s="385"/>
-      <c r="K1" s="385"/>
-      <c r="L1" s="385"/>
-      <c r="M1" s="385"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="404"/>
+      <c r="K1" s="404"/>
+      <c r="L1" s="404"/>
+      <c r="M1" s="404"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="383"/>
+      <c r="B2" s="402"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -5438,17 +5709,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="386" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="387"/>
+      <c r="B3" s="405" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="406"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="388" t="s">
+      <c r="H3" s="407" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="388"/>
+      <c r="I3" s="407"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -5462,14 +5733,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="389" t="s">
+      <c r="E4" s="408" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="390"/>
-      <c r="H4" s="391" t="s">
+      <c r="F4" s="409"/>
+      <c r="H4" s="410" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="392"/>
+      <c r="I4" s="411"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -5479,10 +5750,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="398" t="s">
+      <c r="P4" s="417" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="399"/>
+      <c r="Q4" s="418"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -6923,11 +7194,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="400">
+      <c r="M39" s="419">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="402">
+      <c r="N39" s="421">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -6953,8 +7224,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="401"/>
-      <c r="N40" s="403"/>
+      <c r="M40" s="420"/>
+      <c r="N40" s="422"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -7169,29 +7440,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="404" t="s">
+      <c r="H52" s="423" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="405"/>
+      <c r="I52" s="424"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="406">
+      <c r="K52" s="425">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="407"/>
-      <c r="M52" s="408">
+      <c r="L52" s="426"/>
+      <c r="M52" s="427">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="409"/>
+      <c r="N52" s="428"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="410" t="s">
+      <c r="D53" s="429" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="410"/>
+      <c r="E53" s="429"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -7202,22 +7473,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="410" t="s">
+      <c r="D54" s="429" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="410"/>
+      <c r="E54" s="429"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="411" t="s">
+      <c r="I54" s="430" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="412"/>
-      <c r="K54" s="413">
+      <c r="J54" s="431"/>
+      <c r="K54" s="432">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="414"/>
+      <c r="L54" s="433"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -7250,11 +7521,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="415">
+      <c r="K56" s="434">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="416"/>
+      <c r="L56" s="435"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -7271,22 +7542,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="393" t="s">
+      <c r="D58" s="412" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="394"/>
+      <c r="E58" s="413"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="395" t="s">
+      <c r="I58" s="414" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="396"/>
-      <c r="K58" s="397">
+      <c r="J58" s="415"/>
+      <c r="K58" s="416">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="397"/>
+      <c r="L58" s="416"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -7455,6 +7726,254 @@
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="B1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="155"/>
+      <c r="C1" s="473" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" s="473"/>
+      <c r="E1" s="474"/>
+      <c r="F1" s="390"/>
+    </row>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="386"/>
+      <c r="C2" s="387"/>
+      <c r="D2" s="388"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="396"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="391"/>
+      <c r="C3" s="384"/>
+      <c r="D3" s="385"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="397"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="475" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="476"/>
+      <c r="D4" s="476"/>
+      <c r="E4" s="476"/>
+      <c r="F4" s="398">
+        <v>499853.16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="391"/>
+      <c r="C5" s="384"/>
+      <c r="D5" s="385"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="477" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="478"/>
+      <c r="D6" s="478"/>
+      <c r="E6" s="478"/>
+      <c r="F6" s="398">
+        <v>781251.72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="391"/>
+      <c r="C7" s="384"/>
+      <c r="D7" s="385"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="391"/>
+      <c r="C8" s="384"/>
+      <c r="D8" s="385"/>
+      <c r="E8" s="479" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="481">
+        <f>SUM(F4:F7)</f>
+        <v>1281104.8799999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="391"/>
+      <c r="C9" s="384"/>
+      <c r="D9" s="385"/>
+      <c r="E9" s="480"/>
+      <c r="F9" s="482"/>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="391"/>
+      <c r="C10" s="384"/>
+      <c r="D10" s="385"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="397"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="391"/>
+      <c r="C11" s="384"/>
+      <c r="D11" s="385"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="397"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="391"/>
+      <c r="C12" s="384"/>
+      <c r="D12" s="385"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="397"/>
+    </row>
+    <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="483" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" s="484"/>
+      <c r="D13" s="484"/>
+      <c r="E13" s="484"/>
+      <c r="F13" s="398">
+        <v>255460.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="391"/>
+      <c r="C14" s="384"/>
+      <c r="D14" s="385"/>
+      <c r="E14" s="252"/>
+      <c r="F14" s="399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="483" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="484"/>
+      <c r="D15" s="484"/>
+      <c r="E15" s="484"/>
+      <c r="F15" s="398">
+        <v>6037.34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="391"/>
+      <c r="C16" s="384"/>
+      <c r="D16" s="385"/>
+      <c r="E16" s="252"/>
+      <c r="F16" s="400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="391"/>
+      <c r="C17" s="384"/>
+      <c r="D17" s="385"/>
+      <c r="E17" s="485" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="487">
+        <f>SUM(F13:F16)</f>
+        <v>261497.74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="391"/>
+      <c r="C18" s="384"/>
+      <c r="D18" s="385"/>
+      <c r="E18" s="486"/>
+      <c r="F18" s="488"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="391"/>
+      <c r="C19" s="384"/>
+      <c r="D19" s="385"/>
+      <c r="E19" s="252"/>
+      <c r="F19" s="397"/>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="391"/>
+      <c r="C20" s="384"/>
+      <c r="D20" s="385"/>
+      <c r="E20" s="252"/>
+      <c r="F20" s="397"/>
+    </row>
+    <row r="21" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="392"/>
+      <c r="C21" s="393"/>
+      <c r="D21" s="394"/>
+      <c r="E21" s="395"/>
+      <c r="F21" s="397"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="467" t="s">
+        <v>321</v>
+      </c>
+      <c r="C22" s="468"/>
+      <c r="D22" s="468"/>
+      <c r="E22" s="468"/>
+      <c r="F22" s="471">
+        <v>12020</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="469"/>
+      <c r="C23" s="470"/>
+      <c r="D23" s="470"/>
+      <c r="E23" s="470"/>
+      <c r="F23" s="472"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="357"/>
+      <c r="C24" s="358"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="377"/>
+      <c r="F24" s="397"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8790,7 +9309,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="417" t="s">
+      <c r="B41" s="436" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -8822,7 +9341,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="418"/>
+      <c r="B42" s="437"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -10418,23 +10937,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="382"/>
-      <c r="C1" s="384" t="s">
+      <c r="B1" s="401"/>
+      <c r="C1" s="403" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="385"/>
-      <c r="E1" s="385"/>
-      <c r="F1" s="385"/>
-      <c r="G1" s="385"/>
-      <c r="H1" s="385"/>
-      <c r="I1" s="385"/>
-      <c r="J1" s="385"/>
-      <c r="K1" s="385"/>
-      <c r="L1" s="385"/>
-      <c r="M1" s="385"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="404"/>
+      <c r="K1" s="404"/>
+      <c r="L1" s="404"/>
+      <c r="M1" s="404"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="383"/>
+      <c r="B2" s="402"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10444,21 +10963,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="386" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="387"/>
+      <c r="B3" s="405" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="406"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="388" t="s">
+      <c r="H3" s="407" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="388"/>
+      <c r="I3" s="407"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="425" t="s">
+      <c r="P3" s="444" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10473,14 +10992,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="389" t="s">
+      <c r="E4" s="408" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="390"/>
-      <c r="H4" s="391" t="s">
+      <c r="F4" s="409"/>
+      <c r="H4" s="410" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="392"/>
+      <c r="I4" s="411"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -10490,14 +11009,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="426"/>
+      <c r="P4" s="445"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="435" t="s">
+      <c r="W4" s="454" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="435"/>
+      <c r="X4" s="454"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10548,8 +11067,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="435"/>
-      <c r="X5" s="435"/>
+      <c r="W5" s="454"/>
+      <c r="X5" s="454"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11320,7 +11839,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="439">
+      <c r="W19" s="458">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -11372,7 +11891,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="440"/>
+      <c r="W20" s="459"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -11421,8 +11940,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="441"/>
-      <c r="X21" s="441"/>
+      <c r="W21" s="460"/>
+      <c r="X21" s="460"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -11523,8 +12042,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="442"/>
-      <c r="X23" s="442"/>
+      <c r="W23" s="461"/>
+      <c r="X23" s="461"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -11578,8 +12097,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="442"/>
-      <c r="X24" s="442"/>
+      <c r="W24" s="461"/>
+      <c r="X24" s="461"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -11625,8 +12144,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="443"/>
-      <c r="X25" s="443"/>
+      <c r="W25" s="462"/>
+      <c r="X25" s="462"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -11677,8 +12196,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="443"/>
-      <c r="X26" s="443"/>
+      <c r="W26" s="462"/>
+      <c r="X26" s="462"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -11726,9 +12245,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="436"/>
-      <c r="X27" s="437"/>
-      <c r="Y27" s="438"/>
+      <c r="W27" s="455"/>
+      <c r="X27" s="456"/>
+      <c r="Y27" s="457"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11778,9 +12297,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="437"/>
-      <c r="X28" s="437"/>
-      <c r="Y28" s="438"/>
+      <c r="W28" s="456"/>
+      <c r="X28" s="456"/>
+      <c r="Y28" s="457"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12115,11 +12634,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="427">
+      <c r="M36" s="446">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="429">
+      <c r="N36" s="448">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -12127,7 +12646,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="431">
+      <c r="Q36" s="450">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -12162,13 +12681,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="428"/>
-      <c r="N37" s="430"/>
+      <c r="M37" s="447"/>
+      <c r="N37" s="449"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="432"/>
+      <c r="Q37" s="451"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -12458,26 +12977,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="404" t="s">
+      <c r="H52" s="423" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="405"/>
+      <c r="I52" s="424"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="406">
+      <c r="K52" s="425">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="433"/>
+      <c r="L52" s="452"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="410" t="s">
+      <c r="D53" s="429" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="410"/>
+      <c r="E53" s="429"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -12486,29 +13005,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="434" t="s">
+      <c r="D54" s="453" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="434"/>
+      <c r="E54" s="453"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="411" t="s">
+      <c r="I54" s="430" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="412"/>
-      <c r="K54" s="413">
+      <c r="J54" s="431"/>
+      <c r="K54" s="432">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="413"/>
-      <c r="M54" s="419" t="s">
+      <c r="L54" s="432"/>
+      <c r="M54" s="438" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="420"/>
-      <c r="O54" s="420"/>
-      <c r="P54" s="420"/>
-      <c r="Q54" s="421"/>
+      <c r="N54" s="439"/>
+      <c r="O54" s="439"/>
+      <c r="P54" s="439"/>
+      <c r="Q54" s="440"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -12522,11 +13041,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="422"/>
-      <c r="N55" s="423"/>
-      <c r="O55" s="423"/>
-      <c r="P55" s="423"/>
-      <c r="Q55" s="424"/>
+      <c r="M55" s="441"/>
+      <c r="N55" s="442"/>
+      <c r="O55" s="442"/>
+      <c r="P55" s="442"/>
+      <c r="Q55" s="443"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -12544,11 +13063,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="415">
+      <c r="K56" s="434">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="416"/>
+      <c r="L56" s="435"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -12565,22 +13084,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="393" t="s">
+      <c r="D58" s="412" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="394"/>
+      <c r="E58" s="413"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="395" t="s">
+      <c r="I58" s="414" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="396"/>
-      <c r="K58" s="397">
+      <c r="J58" s="415"/>
+      <c r="K58" s="416">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="397"/>
+      <c r="L58" s="416"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -15170,7 +15689,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="444" t="s">
+      <c r="F87" s="463" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -15183,7 +15702,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="445"/>
+      <c r="F88" s="464"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -15466,7 +15985,7 @@
   <dimension ref="A1:Z80"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15495,23 +16014,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="382"/>
-      <c r="C1" s="384" t="s">
+      <c r="B1" s="401"/>
+      <c r="C1" s="403" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="385"/>
-      <c r="E1" s="385"/>
-      <c r="F1" s="385"/>
-      <c r="G1" s="385"/>
-      <c r="H1" s="385"/>
-      <c r="I1" s="385"/>
-      <c r="J1" s="385"/>
-      <c r="K1" s="385"/>
-      <c r="L1" s="385"/>
-      <c r="M1" s="385"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="404"/>
+      <c r="K1" s="404"/>
+      <c r="L1" s="404"/>
+      <c r="M1" s="404"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="383"/>
+      <c r="B2" s="402"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15521,24 +16040,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="386" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="387"/>
+      <c r="B3" s="405" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="406"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="388" t="s">
+      <c r="H3" s="407" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="388"/>
+      <c r="I3" s="407"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="425" t="s">
+      <c r="P3" s="444" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="446" t="s">
+      <c r="R3" s="465" t="s">
         <v>216</v>
       </c>
     </row>
@@ -15553,14 +16072,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="389" t="s">
+      <c r="E4" s="408" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="390"/>
-      <c r="H4" s="391" t="s">
+      <c r="F4" s="409"/>
+      <c r="H4" s="410" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="392"/>
+      <c r="I4" s="411"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -15570,15 +16089,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="426"/>
+      <c r="P4" s="445"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="447"/>
-      <c r="W4" s="435" t="s">
+      <c r="R4" s="466"/>
+      <c r="W4" s="454" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="435"/>
+      <c r="X4" s="454"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15639,8 +16158,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="435"/>
-      <c r="X5" s="435"/>
+      <c r="W5" s="454"/>
+      <c r="X5" s="454"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16397,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="439">
+      <c r="W19" s="458">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -16449,7 +16968,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="440"/>
+      <c r="W20" s="459"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -16498,8 +17017,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="441"/>
-      <c r="X21" s="441"/>
+      <c r="W21" s="460"/>
+      <c r="X21" s="460"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -16600,8 +17119,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="442"/>
-      <c r="X23" s="442"/>
+      <c r="W23" s="461"/>
+      <c r="X23" s="461"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -16652,8 +17171,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="442"/>
-      <c r="X24" s="442"/>
+      <c r="W24" s="461"/>
+      <c r="X24" s="461"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -16699,8 +17218,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="443"/>
-      <c r="X25" s="443"/>
+      <c r="W25" s="462"/>
+      <c r="X25" s="462"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -16748,8 +17267,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="443"/>
-      <c r="X26" s="443"/>
+      <c r="W26" s="462"/>
+      <c r="X26" s="462"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -16809,9 +17328,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="436"/>
-      <c r="X27" s="437"/>
-      <c r="Y27" s="438"/>
+      <c r="W27" s="455"/>
+      <c r="X27" s="456"/>
+      <c r="Y27" s="457"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16865,9 +17384,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="437"/>
-      <c r="X28" s="437"/>
-      <c r="Y28" s="438"/>
+      <c r="W28" s="456"/>
+      <c r="X28" s="456"/>
+      <c r="Y28" s="457"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17107,9 +17626,15 @@
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="64"/>
+      <c r="B34" s="24">
+        <v>44540</v>
+      </c>
+      <c r="C34" s="25">
+        <v>218111.1</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>322</v>
+      </c>
       <c r="E34" s="27"/>
       <c r="F34" s="28"/>
       <c r="G34" s="2"/>
@@ -17174,11 +17699,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="427">
+      <c r="M36" s="446">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>1054774.3</v>
       </c>
-      <c r="N36" s="429">
+      <c r="N36" s="448">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -17186,7 +17711,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="431">
+      <c r="Q36" s="450">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-37279.94</v>
       </c>
@@ -17205,13 +17730,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="428"/>
-      <c r="N37" s="430"/>
+      <c r="M37" s="447"/>
+      <c r="N37" s="449"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="432"/>
+      <c r="Q37" s="451"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -17443,7 +17968,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>395198.12</v>
+        <v>613309.22</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -17485,57 +18010,57 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="404" t="s">
+      <c r="H52" s="423" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="405"/>
+      <c r="I52" s="424"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="406">
+      <c r="K52" s="425">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="433"/>
+      <c r="L52" s="452"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="410" t="s">
+      <c r="D53" s="429" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="410"/>
+      <c r="E53" s="429"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>1957966.13</v>
+        <v>1739855.03</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="434" t="s">
+      <c r="D54" s="453" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="434"/>
+      <c r="E54" s="453"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="411" t="s">
+      <c r="I54" s="430" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="412"/>
-      <c r="K54" s="413">
+      <c r="J54" s="431"/>
+      <c r="K54" s="432">
         <f>F56+F57+F58</f>
-        <v>921303.96</v>
-      </c>
-      <c r="L54" s="413"/>
-      <c r="M54" s="419" t="s">
+        <v>703192.8600000001</v>
+      </c>
+      <c r="L54" s="432"/>
+      <c r="M54" s="438" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="420"/>
-      <c r="O54" s="420"/>
-      <c r="P54" s="420"/>
-      <c r="Q54" s="421"/>
+      <c r="N54" s="439"/>
+      <c r="O54" s="439"/>
+      <c r="P54" s="439"/>
+      <c r="Q54" s="440"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -17549,11 +18074,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="422"/>
-      <c r="N55" s="423"/>
-      <c r="O55" s="423"/>
-      <c r="P55" s="423"/>
-      <c r="Q55" s="424"/>
+      <c r="M55" s="441"/>
+      <c r="N55" s="442"/>
+      <c r="O55" s="442"/>
+      <c r="P55" s="442"/>
+      <c r="Q55" s="443"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -17564,18 +18089,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>-199209.27000000002</v>
+        <v>-417320.36999999988</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="415">
+      <c r="K56" s="434">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="416"/>
+      <c r="L56" s="435"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -17592,22 +18117,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="393" t="s">
+      <c r="D58" s="412" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="394"/>
+      <c r="E58" s="413"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="395" t="s">
+      <c r="I58" s="414" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="396"/>
-      <c r="K58" s="397">
+      <c r="J58" s="415"/>
+      <c r="K58" s="416">
         <f>K54+K56</f>
-        <v>353914.61</v>
-      </c>
-      <c r="L58" s="397"/>
+        <v>135803.51000000013</v>
+      </c>
+      <c r="L58" s="416"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -17796,8 +18321,8 @@
   </sheetPr>
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F81" sqref="E81:F81"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17825,7 +18350,7 @@
       <c r="C1" s="292"/>
       <c r="D1" s="376"/>
       <c r="E1" s="292"/>
-      <c r="F1" s="449" t="s">
+      <c r="F1" s="383" t="s">
         <v>314</v>
       </c>
       <c r="I1" s="301" t="s">
@@ -17835,7 +18360,7 @@
       <c r="K1" s="303"/>
       <c r="L1" s="304"/>
       <c r="M1" s="303"/>
-      <c r="N1" s="448" t="s">
+      <c r="N1" s="382" t="s">
         <v>314</v>
       </c>
     </row>
@@ -19963,7 +20488,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="444" t="s">
+      <c r="F75" s="463" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -19976,7 +20501,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="445"/>
+      <c r="F76" s="464"/>
       <c r="K76" s="1"/>
       <c r="L76" s="97"/>
       <c r="M76" s="3"/>
@@ -20261,4 +20786,28 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL#14  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/BALANCE    ZAVALETA   DICIEMBRE     2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#14  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/BALANCE    ZAVALETA   DICIEMBRE     2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -18,10 +18,8 @@
     <sheet name="REMISIONES  NOVIEMBRE  2021  " sheetId="6" r:id="rId4"/>
     <sheet name="DICIEMBRE    2 0 2 1      " sheetId="7" r:id="rId5"/>
     <sheet name="REMISIONES  DICIEMBRE  2021   " sheetId="8" r:id="rId6"/>
-    <sheet name="Hoja1" sheetId="10" r:id="rId7"/>
-    <sheet name="Hoja2" sheetId="11" r:id="rId8"/>
-    <sheet name="Hoja4" sheetId="12" r:id="rId9"/>
-    <sheet name="REPORTE ENERO 2022" sheetId="9" r:id="rId10"/>
+    <sheet name="Hoja4" sheetId="12" r:id="rId7"/>
+    <sheet name="REPORTE ENERO 2022" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -214,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="324">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1183,6 +1181,9 @@
   </si>
   <si>
     <t>CONTRA EXCEL</t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    Z A V A L E T A      DICIEMBRE           2 0 2 1</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1199,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1616,8 +1617,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1732,6 +1741,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="102">
     <border>
@@ -3001,7 +3016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="489">
+  <cellXfs count="495">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3626,7 +3641,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="9" borderId="77" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="34" fillId="7" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3725,9 +3739,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="38" fillId="0" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3746,8 +3757,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="38" fillId="0" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3817,6 +3826,20 @@
     <xf numFmtId="44" fontId="11" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="98" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="53" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="44" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="9" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4090,10 +4113,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF800000"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FF800000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF6600FF"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FF00FF00"/>
@@ -5683,23 +5706,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="401"/>
-      <c r="C1" s="403" t="s">
+      <c r="B1" s="407"/>
+      <c r="C1" s="409" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="404"/>
-      <c r="E1" s="404"/>
-      <c r="F1" s="404"/>
-      <c r="G1" s="404"/>
-      <c r="H1" s="404"/>
-      <c r="I1" s="404"/>
-      <c r="J1" s="404"/>
-      <c r="K1" s="404"/>
-      <c r="L1" s="404"/>
-      <c r="M1" s="404"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="402"/>
+      <c r="B2" s="408"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -5709,17 +5732,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="405" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="406"/>
+      <c r="B3" s="411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="412"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="407" t="s">
+      <c r="H3" s="413" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="407"/>
+      <c r="I3" s="413"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -5733,14 +5756,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="408" t="s">
+      <c r="E4" s="414" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="409"/>
-      <c r="H4" s="410" t="s">
+      <c r="F4" s="415"/>
+      <c r="H4" s="416" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="411"/>
+      <c r="I4" s="417"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -5750,10 +5773,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="417" t="s">
+      <c r="P4" s="423" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="418"/>
+      <c r="Q4" s="424"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7194,11 +7217,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="419">
+      <c r="M39" s="425">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="421">
+      <c r="N39" s="427">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -7224,8 +7247,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="420"/>
-      <c r="N40" s="422"/>
+      <c r="M40" s="426"/>
+      <c r="N40" s="428"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -7440,29 +7463,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="423" t="s">
+      <c r="H52" s="429" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="424"/>
+      <c r="I52" s="430"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="425">
+      <c r="K52" s="431">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="426"/>
-      <c r="M52" s="427">
+      <c r="L52" s="432"/>
+      <c r="M52" s="433">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="428"/>
+      <c r="N52" s="434"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="429" t="s">
+      <c r="D53" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="429"/>
+      <c r="E53" s="435"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -7473,22 +7496,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="429" t="s">
+      <c r="D54" s="435" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="429"/>
+      <c r="E54" s="435"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="430" t="s">
+      <c r="I54" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="431"/>
-      <c r="K54" s="432">
+      <c r="J54" s="437"/>
+      <c r="K54" s="438">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="433"/>
+      <c r="L54" s="439"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -7521,11 +7544,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="434">
+      <c r="K56" s="440">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="435"/>
+      <c r="L56" s="441"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -7542,22 +7565,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="412" t="s">
+      <c r="D58" s="418" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="413"/>
+      <c r="E58" s="419"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="414" t="s">
+      <c r="I58" s="420" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="415"/>
-      <c r="K58" s="416">
+      <c r="J58" s="421"/>
+      <c r="K58" s="422">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="416"/>
+      <c r="L58" s="422"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -7726,254 +7749,6 @@
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="B1:F24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="155"/>
-      <c r="C1" s="473" t="s">
-        <v>320</v>
-      </c>
-      <c r="D1" s="473"/>
-      <c r="E1" s="474"/>
-      <c r="F1" s="390"/>
-    </row>
-    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="386"/>
-      <c r="C2" s="387"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="389"/>
-      <c r="F2" s="396"/>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="391"/>
-      <c r="C3" s="384"/>
-      <c r="D3" s="385"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="397"/>
-    </row>
-    <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="475" t="s">
-        <v>316</v>
-      </c>
-      <c r="C4" s="476"/>
-      <c r="D4" s="476"/>
-      <c r="E4" s="476"/>
-      <c r="F4" s="398">
-        <v>499853.16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="391"/>
-      <c r="C5" s="384"/>
-      <c r="D5" s="385"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="477" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="478"/>
-      <c r="D6" s="478"/>
-      <c r="E6" s="478"/>
-      <c r="F6" s="398">
-        <v>781251.72</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="391"/>
-      <c r="C7" s="384"/>
-      <c r="D7" s="385"/>
-      <c r="E7" s="252"/>
-      <c r="F7" s="400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="391"/>
-      <c r="C8" s="384"/>
-      <c r="D8" s="385"/>
-      <c r="E8" s="479" t="s">
-        <v>315</v>
-      </c>
-      <c r="F8" s="481">
-        <f>SUM(F4:F7)</f>
-        <v>1281104.8799999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="391"/>
-      <c r="C9" s="384"/>
-      <c r="D9" s="385"/>
-      <c r="E9" s="480"/>
-      <c r="F9" s="482"/>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="391"/>
-      <c r="C10" s="384"/>
-      <c r="D10" s="385"/>
-      <c r="E10" s="252"/>
-      <c r="F10" s="397"/>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="391"/>
-      <c r="C11" s="384"/>
-      <c r="D11" s="385"/>
-      <c r="E11" s="252"/>
-      <c r="F11" s="397"/>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="391"/>
-      <c r="C12" s="384"/>
-      <c r="D12" s="385"/>
-      <c r="E12" s="252"/>
-      <c r="F12" s="397"/>
-    </row>
-    <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="483" t="s">
-        <v>318</v>
-      </c>
-      <c r="C13" s="484"/>
-      <c r="D13" s="484"/>
-      <c r="E13" s="484"/>
-      <c r="F13" s="398">
-        <v>255460.4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="391"/>
-      <c r="C14" s="384"/>
-      <c r="D14" s="385"/>
-      <c r="E14" s="252"/>
-      <c r="F14" s="399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="483" t="s">
-        <v>319</v>
-      </c>
-      <c r="C15" s="484"/>
-      <c r="D15" s="484"/>
-      <c r="E15" s="484"/>
-      <c r="F15" s="398">
-        <v>6037.34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="391"/>
-      <c r="C16" s="384"/>
-      <c r="D16" s="385"/>
-      <c r="E16" s="252"/>
-      <c r="F16" s="400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="391"/>
-      <c r="C17" s="384"/>
-      <c r="D17" s="385"/>
-      <c r="E17" s="485" t="s">
-        <v>315</v>
-      </c>
-      <c r="F17" s="487">
-        <f>SUM(F13:F16)</f>
-        <v>261497.74</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="391"/>
-      <c r="C18" s="384"/>
-      <c r="D18" s="385"/>
-      <c r="E18" s="486"/>
-      <c r="F18" s="488"/>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="391"/>
-      <c r="C19" s="384"/>
-      <c r="D19" s="385"/>
-      <c r="E19" s="252"/>
-      <c r="F19" s="397"/>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="391"/>
-      <c r="C20" s="384"/>
-      <c r="D20" s="385"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="397"/>
-    </row>
-    <row r="21" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="392"/>
-      <c r="C21" s="393"/>
-      <c r="D21" s="394"/>
-      <c r="E21" s="395"/>
-      <c r="F21" s="397"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="467" t="s">
-        <v>321</v>
-      </c>
-      <c r="C22" s="468"/>
-      <c r="D22" s="468"/>
-      <c r="E22" s="468"/>
-      <c r="F22" s="471">
-        <v>12020</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="469"/>
-      <c r="C23" s="470"/>
-      <c r="D23" s="470"/>
-      <c r="E23" s="470"/>
-      <c r="F23" s="472"/>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="357"/>
-      <c r="C24" s="358"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="377"/>
-      <c r="F24" s="397"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8163,7 +7938,7 @@
       <c r="K5" s="196">
         <v>10208</v>
       </c>
-      <c r="L5" s="371" t="s">
+      <c r="L5" s="367" t="s">
         <v>311</v>
       </c>
       <c r="M5" s="69">
@@ -8499,7 +8274,7 @@
       <c r="A16" s="140">
         <v>44489</v>
       </c>
-      <c r="B16" s="370" t="s">
+      <c r="B16" s="366" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="69">
@@ -9309,7 +9084,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="436" t="s">
+      <c r="B41" s="442" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -9341,7 +9116,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="437"/>
+      <c r="B42" s="443"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -10937,23 +10712,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="401"/>
-      <c r="C1" s="403" t="s">
+      <c r="B1" s="407"/>
+      <c r="C1" s="409" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="404"/>
-      <c r="E1" s="404"/>
-      <c r="F1" s="404"/>
-      <c r="G1" s="404"/>
-      <c r="H1" s="404"/>
-      <c r="I1" s="404"/>
-      <c r="J1" s="404"/>
-      <c r="K1" s="404"/>
-      <c r="L1" s="404"/>
-      <c r="M1" s="404"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="402"/>
+      <c r="B2" s="408"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10963,21 +10738,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="405" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="406"/>
+      <c r="B3" s="411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="412"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="407" t="s">
+      <c r="H3" s="413" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="407"/>
+      <c r="I3" s="413"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="444" t="s">
+      <c r="P3" s="450" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10992,14 +10767,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="408" t="s">
+      <c r="E4" s="414" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="409"/>
-      <c r="H4" s="410" t="s">
+      <c r="F4" s="415"/>
+      <c r="H4" s="416" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="411"/>
+      <c r="I4" s="417"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11009,14 +10784,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="445"/>
+      <c r="P4" s="451"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="454" t="s">
+      <c r="W4" s="460" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="454"/>
+      <c r="X4" s="460"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11067,8 +10842,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="454"/>
-      <c r="X5" s="454"/>
+      <c r="W5" s="460"/>
+      <c r="X5" s="460"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11839,7 +11614,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="458">
+      <c r="W19" s="464">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -11891,7 +11666,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="459"/>
+      <c r="W20" s="465"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -11940,8 +11715,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="460"/>
-      <c r="X21" s="460"/>
+      <c r="W21" s="466"/>
+      <c r="X21" s="466"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -12042,8 +11817,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="461"/>
-      <c r="X23" s="461"/>
+      <c r="W23" s="467"/>
+      <c r="X23" s="467"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -12097,8 +11872,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="461"/>
-      <c r="X24" s="461"/>
+      <c r="W24" s="467"/>
+      <c r="X24" s="467"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -12144,8 +11919,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="462"/>
-      <c r="X25" s="462"/>
+      <c r="W25" s="468"/>
+      <c r="X25" s="468"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -12196,8 +11971,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="462"/>
-      <c r="X26" s="462"/>
+      <c r="W26" s="468"/>
+      <c r="X26" s="468"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -12245,9 +12020,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="455"/>
-      <c r="X27" s="456"/>
-      <c r="Y27" s="457"/>
+      <c r="W27" s="461"/>
+      <c r="X27" s="462"/>
+      <c r="Y27" s="463"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12297,9 +12072,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="456"/>
-      <c r="X28" s="456"/>
-      <c r="Y28" s="457"/>
+      <c r="W28" s="462"/>
+      <c r="X28" s="462"/>
+      <c r="Y28" s="463"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12352,8 +12127,8 @@
         <v>0</v>
       </c>
       <c r="W29" s="128"/>
-      <c r="X29" s="311"/>
-      <c r="Y29" s="312"/>
+      <c r="X29" s="310"/>
+      <c r="Y29" s="311"/>
       <c r="Z29" s="128"/>
     </row>
     <row r="30" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12634,11 +12409,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="446">
+      <c r="M36" s="452">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="448">
+      <c r="N36" s="454">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -12646,7 +12421,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="450">
+      <c r="Q36" s="456">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -12681,13 +12456,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="447"/>
-      <c r="N37" s="449"/>
+      <c r="M37" s="453"/>
+      <c r="N37" s="455"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="451"/>
+      <c r="Q37" s="457"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -12977,27 +12752,27 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="423" t="s">
+      <c r="H52" s="429" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="424"/>
+      <c r="I52" s="430"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="425">
+      <c r="K52" s="431">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="452"/>
+      <c r="L52" s="458"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="429" t="s">
+      <c r="D53" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="429"/>
-      <c r="F53" s="313">
+      <c r="E53" s="435"/>
+      <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
       </c>
@@ -13005,47 +12780,47 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="453" t="s">
+      <c r="D54" s="459" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="453"/>
+      <c r="E54" s="459"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="430" t="s">
+      <c r="I54" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="431"/>
-      <c r="K54" s="432">
+      <c r="J54" s="437"/>
+      <c r="K54" s="438">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="432"/>
-      <c r="M54" s="438" t="s">
+      <c r="L54" s="438"/>
+      <c r="M54" s="444" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="439"/>
-      <c r="O54" s="439"/>
-      <c r="P54" s="439"/>
-      <c r="Q54" s="440"/>
+      <c r="N54" s="445"/>
+      <c r="O54" s="445"/>
+      <c r="P54" s="445"/>
+      <c r="Q54" s="446"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D55" s="314" t="s">
+      <c r="D55" s="313" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="315"/>
-      <c r="F55" s="316">
+      <c r="E55" s="314"/>
+      <c r="F55" s="315">
         <v>-164725.34</v>
       </c>
       <c r="I55" s="105"/>
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="441"/>
-      <c r="N55" s="442"/>
-      <c r="O55" s="442"/>
-      <c r="P55" s="442"/>
-      <c r="Q55" s="443"/>
+      <c r="M55" s="447"/>
+      <c r="N55" s="448"/>
+      <c r="O55" s="448"/>
+      <c r="P55" s="448"/>
+      <c r="Q55" s="449"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -13063,11 +12838,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="434">
+      <c r="K56" s="440">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="435"/>
+      <c r="L56" s="441"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13084,22 +12859,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="412" t="s">
+      <c r="D58" s="418" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="413"/>
+      <c r="E58" s="419"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="414" t="s">
+      <c r="I58" s="420" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="415"/>
-      <c r="K58" s="416">
+      <c r="J58" s="421"/>
+      <c r="K58" s="422">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="416"/>
+      <c r="L58" s="422"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13325,9 +13100,9 @@
       </c>
       <c r="J1" s="302"/>
       <c r="K1" s="303"/>
-      <c r="L1" s="372"/>
+      <c r="L1" s="368"/>
       <c r="M1" s="303"/>
-      <c r="N1" s="305" t="s">
+      <c r="N1" s="304" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13353,19 +13128,19 @@
       <c r="I2" s="297" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="309" t="s">
+      <c r="J2" s="308" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="373" t="s">
+      <c r="L2" s="369" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="299" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="310" t="s">
+      <c r="N2" s="309" t="s">
         <v>210</v>
       </c>
     </row>
@@ -13385,10 +13160,10 @@
         <f>C3-E3</f>
         <v>15652.4</v>
       </c>
-      <c r="I3" s="306"/>
-      <c r="J3" s="307"/>
-      <c r="K3" s="308"/>
-      <c r="L3" s="374"/>
+      <c r="I3" s="305"/>
+      <c r="J3" s="306"/>
+      <c r="K3" s="307"/>
+      <c r="L3" s="370"/>
       <c r="M3" s="215"/>
       <c r="N3" s="183">
         <f>K3-M3</f>
@@ -13421,7 +13196,7 @@
       <c r="K4" s="111">
         <v>5707.22</v>
       </c>
-      <c r="L4" s="375">
+      <c r="L4" s="371">
         <v>44536</v>
       </c>
       <c r="M4" s="69"/>
@@ -13455,7 +13230,7 @@
       <c r="K5" s="111">
         <v>30</v>
       </c>
-      <c r="L5" s="375">
+      <c r="L5" s="371">
         <v>44536</v>
       </c>
       <c r="M5" s="69"/>
@@ -13489,7 +13264,7 @@
       <c r="K6" s="111">
         <v>3667.5</v>
       </c>
-      <c r="L6" s="375">
+      <c r="L6" s="371">
         <v>44536</v>
       </c>
       <c r="M6" s="69"/>
@@ -13525,7 +13300,7 @@
       <c r="K7" s="111">
         <v>120</v>
       </c>
-      <c r="L7" s="375">
+      <c r="L7" s="371">
         <v>44536</v>
       </c>
       <c r="M7" s="69"/>
@@ -13559,7 +13334,7 @@
       <c r="K8" s="111">
         <v>436.5</v>
       </c>
-      <c r="L8" s="375">
+      <c r="L8" s="371">
         <v>44536</v>
       </c>
       <c r="M8" s="69"/>
@@ -13593,7 +13368,7 @@
       <c r="K9" s="111">
         <v>9412.4500000000007</v>
       </c>
-      <c r="L9" s="375">
+      <c r="L9" s="371">
         <v>44536</v>
       </c>
       <c r="M9" s="69"/>
@@ -13628,7 +13403,7 @@
       <c r="K10" s="111">
         <v>10285</v>
       </c>
-      <c r="L10" s="375">
+      <c r="L10" s="371">
         <v>44536</v>
       </c>
       <c r="M10" s="69"/>
@@ -13662,7 +13437,7 @@
       <c r="K11" s="111">
         <v>2504.94</v>
       </c>
-      <c r="L11" s="375">
+      <c r="L11" s="371">
         <v>44536</v>
       </c>
       <c r="M11" s="69"/>
@@ -13696,7 +13471,7 @@
       <c r="K12" s="111">
         <v>800</v>
       </c>
-      <c r="L12" s="375">
+      <c r="L12" s="371">
         <v>44512</v>
       </c>
       <c r="M12" s="69">
@@ -13732,7 +13507,7 @@
       <c r="K13" s="111">
         <v>733.6</v>
       </c>
-      <c r="L13" s="375">
+      <c r="L13" s="371">
         <v>44536</v>
       </c>
       <c r="M13" s="69"/>
@@ -13766,7 +13541,7 @@
       <c r="K14" s="111">
         <v>675</v>
       </c>
-      <c r="L14" s="375">
+      <c r="L14" s="371">
         <v>44536</v>
       </c>
       <c r="M14" s="69"/>
@@ -13800,7 +13575,7 @@
       <c r="K15" s="111">
         <v>5566.27</v>
       </c>
-      <c r="L15" s="375">
+      <c r="L15" s="371">
         <v>44536</v>
       </c>
       <c r="M15" s="69"/>
@@ -13834,7 +13609,7 @@
       <c r="K16" s="111">
         <v>60</v>
       </c>
-      <c r="L16" s="375">
+      <c r="L16" s="371">
         <v>44536</v>
       </c>
       <c r="M16" s="69"/>
@@ -13868,7 +13643,7 @@
       <c r="K17" s="111">
         <v>4155</v>
       </c>
-      <c r="L17" s="375">
+      <c r="L17" s="371">
         <v>44536</v>
       </c>
       <c r="M17" s="69"/>
@@ -13902,7 +13677,7 @@
       <c r="K18" s="111">
         <v>1620.32</v>
       </c>
-      <c r="L18" s="375">
+      <c r="L18" s="371">
         <v>44536</v>
       </c>
       <c r="M18" s="69"/>
@@ -13936,7 +13711,7 @@
       <c r="K19" s="111">
         <v>2386.12</v>
       </c>
-      <c r="L19" s="375">
+      <c r="L19" s="371">
         <v>44536</v>
       </c>
       <c r="M19" s="69"/>
@@ -13970,7 +13745,7 @@
       <c r="K20" s="111">
         <v>2376.56</v>
       </c>
-      <c r="L20" s="375">
+      <c r="L20" s="371">
         <v>44536</v>
       </c>
       <c r="M20" s="69"/>
@@ -14004,7 +13779,7 @@
       <c r="K21" s="111">
         <v>3020.38</v>
       </c>
-      <c r="L21" s="375">
+      <c r="L21" s="371">
         <v>44536</v>
       </c>
       <c r="M21" s="69"/>
@@ -14039,7 +13814,7 @@
       <c r="K22" s="111">
         <v>2524.2399999999998</v>
       </c>
-      <c r="L22" s="375">
+      <c r="L22" s="371">
         <v>44536</v>
       </c>
       <c r="M22" s="69"/>
@@ -14073,7 +13848,7 @@
       <c r="K23" s="111">
         <v>1789.6</v>
       </c>
-      <c r="L23" s="375">
+      <c r="L23" s="371">
         <v>44536</v>
       </c>
       <c r="M23" s="69"/>
@@ -14107,7 +13882,7 @@
       <c r="K24" s="111">
         <v>2590.2199999999998</v>
       </c>
-      <c r="L24" s="375">
+      <c r="L24" s="371">
         <v>44536</v>
       </c>
       <c r="M24" s="69"/>
@@ -14141,7 +13916,7 @@
       <c r="K25" s="111">
         <v>5268.02</v>
       </c>
-      <c r="L25" s="375">
+      <c r="L25" s="371">
         <v>44536</v>
       </c>
       <c r="M25" s="69"/>
@@ -14175,7 +13950,7 @@
       <c r="K26" s="111">
         <v>1272.24</v>
       </c>
-      <c r="L26" s="375">
+      <c r="L26" s="371">
         <v>44536</v>
       </c>
       <c r="M26" s="69"/>
@@ -14209,7 +13984,7 @@
       <c r="K27" s="111">
         <v>2132.7199999999998</v>
       </c>
-      <c r="L27" s="375">
+      <c r="L27" s="371">
         <v>44536</v>
       </c>
       <c r="M27" s="69"/>
@@ -14243,7 +14018,7 @@
       <c r="K28" s="111">
         <v>5711.74</v>
       </c>
-      <c r="L28" s="375">
+      <c r="L28" s="371">
         <v>44536</v>
       </c>
       <c r="M28" s="69"/>
@@ -14277,7 +14052,7 @@
       <c r="K29" s="111">
         <v>1624.34</v>
       </c>
-      <c r="L29" s="375">
+      <c r="L29" s="371">
         <v>44536</v>
       </c>
       <c r="M29" s="69"/>
@@ -14312,7 +14087,7 @@
       <c r="K30" s="111">
         <v>1017</v>
       </c>
-      <c r="L30" s="375">
+      <c r="L30" s="371">
         <v>44536</v>
       </c>
       <c r="M30" s="69"/>
@@ -14346,7 +14121,7 @@
       <c r="K31" s="111">
         <v>2570.5</v>
       </c>
-      <c r="L31" s="375">
+      <c r="L31" s="371">
         <v>44536</v>
       </c>
       <c r="M31" s="69"/>
@@ -14380,7 +14155,7 @@
       <c r="K32" s="111">
         <v>220</v>
       </c>
-      <c r="L32" s="375">
+      <c r="L32" s="371">
         <v>44536</v>
       </c>
       <c r="M32" s="69"/>
@@ -14414,7 +14189,7 @@
       <c r="K33" s="111">
         <v>1057.4000000000001</v>
       </c>
-      <c r="L33" s="375">
+      <c r="L33" s="371">
         <v>44536</v>
       </c>
       <c r="M33" s="69"/>
@@ -14448,7 +14223,7 @@
       <c r="K34" s="111">
         <v>2185.46</v>
       </c>
-      <c r="L34" s="375">
+      <c r="L34" s="371">
         <v>44536</v>
       </c>
       <c r="M34" s="69"/>
@@ -14482,7 +14257,7 @@
       <c r="K35" s="111">
         <v>7065.94</v>
       </c>
-      <c r="L35" s="375">
+      <c r="L35" s="371">
         <v>44536</v>
       </c>
       <c r="M35" s="69"/>
@@ -14501,13 +14276,13 @@
       <c r="C36" s="111">
         <v>19002.599999999999</v>
       </c>
-      <c r="D36" s="380">
+      <c r="D36" s="376">
         <v>44536</v>
       </c>
       <c r="E36" s="263">
         <v>440783.04</v>
       </c>
-      <c r="F36" s="369">
+      <c r="F36" s="365">
         <f t="shared" si="0"/>
         <v>3350.5900000000838</v>
       </c>
@@ -14520,7 +14295,7 @@
       <c r="K36" s="111">
         <v>2509.7199999999998</v>
       </c>
-      <c r="L36" s="375">
+      <c r="L36" s="371">
         <v>44536</v>
       </c>
       <c r="M36" s="69"/>
@@ -14554,7 +14329,7 @@
       <c r="K37" s="111">
         <v>6480.14</v>
       </c>
-      <c r="L37" s="375">
+      <c r="L37" s="371">
         <v>44536</v>
       </c>
       <c r="M37" s="69"/>
@@ -14588,7 +14363,7 @@
       <c r="K38" s="111">
         <v>14917</v>
       </c>
-      <c r="L38" s="375">
+      <c r="L38" s="371">
         <v>44536</v>
       </c>
       <c r="M38" s="69"/>
@@ -14622,7 +14397,7 @@
       <c r="K39" s="111">
         <v>23258.400000000001</v>
       </c>
-      <c r="L39" s="375">
+      <c r="L39" s="371">
         <v>44536</v>
       </c>
       <c r="M39" s="69"/>
@@ -14656,7 +14431,7 @@
       <c r="K40" s="111">
         <v>4062.48</v>
       </c>
-      <c r="L40" s="375">
+      <c r="L40" s="371">
         <v>44536</v>
       </c>
       <c r="M40" s="69"/>
@@ -14690,7 +14465,7 @@
       <c r="K41" s="111">
         <v>2667.28</v>
       </c>
-      <c r="L41" s="375">
+      <c r="L41" s="371">
         <v>44536</v>
       </c>
       <c r="M41" s="69"/>
@@ -14724,7 +14499,7 @@
       <c r="K42" s="111">
         <v>19440.8</v>
       </c>
-      <c r="L42" s="375">
+      <c r="L42" s="371">
         <v>44536</v>
       </c>
       <c r="M42" s="69"/>
@@ -14758,7 +14533,7 @@
       <c r="K43" s="111">
         <v>803.24</v>
       </c>
-      <c r="L43" s="375">
+      <c r="L43" s="371">
         <v>44536</v>
       </c>
       <c r="M43" s="69"/>
@@ -15689,7 +15464,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="463" t="s">
+      <c r="F87" s="469" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -15702,7 +15477,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="464"/>
+      <c r="F88" s="470"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -15984,8 +15759,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16014,23 +15789,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="401"/>
-      <c r="C1" s="403" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="404"/>
-      <c r="E1" s="404"/>
-      <c r="F1" s="404"/>
-      <c r="G1" s="404"/>
-      <c r="H1" s="404"/>
-      <c r="I1" s="404"/>
-      <c r="J1" s="404"/>
-      <c r="K1" s="404"/>
-      <c r="L1" s="404"/>
-      <c r="M1" s="404"/>
+      <c r="B1" s="407"/>
+      <c r="C1" s="409" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="402"/>
+      <c r="B2" s="408"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16040,24 +15815,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="405" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="406"/>
+      <c r="B3" s="411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="412"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="407" t="s">
+      <c r="H3" s="413" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="407"/>
+      <c r="I3" s="413"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="444" t="s">
+      <c r="P3" s="450" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="465" t="s">
+      <c r="R3" s="471" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16072,14 +15847,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="408" t="s">
+      <c r="E4" s="414" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="409"/>
-      <c r="H4" s="410" t="s">
+      <c r="F4" s="415"/>
+      <c r="H4" s="416" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="411"/>
+      <c r="I4" s="417"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16089,15 +15864,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="445"/>
-      <c r="Q4" s="323" t="s">
+      <c r="P4" s="451"/>
+      <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="466"/>
-      <c r="W4" s="454" t="s">
+      <c r="R4" s="472"/>
+      <c r="W4" s="460" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="454"/>
+      <c r="X4" s="460"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16143,23 +15918,23 @@
       <c r="N5" s="33">
         <v>36272</v>
       </c>
-      <c r="O5" s="319"/>
+      <c r="O5" s="318"/>
       <c r="P5" s="34">
         <f>N5+M5+L5+I5+C5</f>
         <v>68001.14</v>
       </c>
-      <c r="Q5" s="326">
+      <c r="Q5" s="325">
         <f>P5-F5</f>
         <v>0.13999999999941792</v>
       </c>
-      <c r="R5" s="324">
+      <c r="R5" s="323">
         <v>1146750</v>
       </c>
-      <c r="S5" s="325" t="s">
+      <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="454"/>
-      <c r="X5" s="454"/>
+      <c r="W5" s="460"/>
+      <c r="X5" s="460"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16200,15 +15975,15 @@
         <f>N6+M6+L6+I6+C6</f>
         <v>71172</v>
       </c>
-      <c r="Q6" s="326">
+      <c r="Q6" s="325">
         <f>P6-F6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="320">
+      <c r="R6" s="319">
         <v>0</v>
       </c>
       <c r="S6" s="147"/>
-      <c r="U6" s="327" t="s">
+      <c r="U6" s="326" t="s">
         <v>223</v>
       </c>
       <c r="W6" s="234">
@@ -16255,15 +16030,15 @@
         <f t="shared" ref="P7:P32" si="0">N7+M7+L7+I7+C7</f>
         <v>54679.3</v>
       </c>
-      <c r="Q7" s="318">
+      <c r="Q7" s="317">
         <f t="shared" ref="Q7:Q35" si="1">P7-F7</f>
         <v>0.30000000000291038</v>
       </c>
-      <c r="R7" s="320">
+      <c r="R7" s="319">
         <v>0</v>
       </c>
       <c r="S7" s="147"/>
-      <c r="U7" s="328">
+      <c r="U7" s="327">
         <v>12941.5</v>
       </c>
       <c r="W7" s="234">
@@ -16310,15 +16085,15 @@
         <f t="shared" si="0"/>
         <v>73828.209999999992</v>
       </c>
-      <c r="Q8" s="318">
+      <c r="Q8" s="317">
         <f t="shared" si="1"/>
         <v>0.20999999999185093</v>
       </c>
-      <c r="R8" s="320">
+      <c r="R8" s="319">
         <v>0</v>
       </c>
       <c r="S8" s="147"/>
-      <c r="U8" s="328">
+      <c r="U8" s="327">
         <v>19442</v>
       </c>
       <c r="W8" s="234">
@@ -16365,15 +16140,15 @@
         <f>N9+M9+L9+I9+C9</f>
         <v>66009</v>
       </c>
-      <c r="Q9" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="320">
+      <c r="Q9" s="317">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="319">
         <v>0</v>
       </c>
       <c r="S9" s="147"/>
-      <c r="U9" s="328">
+      <c r="U9" s="327">
         <v>36844</v>
       </c>
       <c r="W9" s="234">
@@ -16421,15 +16196,15 @@
         <f t="shared" ref="P10:P14" si="2">N10+M10+L10+I10+C10</f>
         <v>71912.61</v>
       </c>
-      <c r="Q10" s="318">
+      <c r="Q10" s="317">
         <f t="shared" si="1"/>
         <v>-0.38999999999941792</v>
       </c>
-      <c r="R10" s="320">
+      <c r="R10" s="319">
         <v>0</v>
       </c>
       <c r="S10" s="147"/>
-      <c r="U10" s="328">
+      <c r="U10" s="327">
         <v>22942</v>
       </c>
       <c r="W10" s="234">
@@ -16476,15 +16251,15 @@
         <f t="shared" si="2"/>
         <v>52385</v>
       </c>
-      <c r="Q11" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="320">
+      <c r="Q11" s="317">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="319">
         <v>0</v>
       </c>
       <c r="S11" s="147"/>
-      <c r="U11" s="328">
+      <c r="U11" s="327">
         <v>15322.5</v>
       </c>
       <c r="W11" s="234">
@@ -16527,18 +16302,18 @@
       <c r="N12" s="33">
         <v>29594</v>
       </c>
-      <c r="O12" s="329" t="s">
+      <c r="O12" s="328" t="s">
         <v>225</v>
       </c>
       <c r="P12" s="39">
         <f t="shared" si="2"/>
         <v>69062</v>
       </c>
-      <c r="Q12" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="320">
+      <c r="Q12" s="317">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="319">
         <v>0</v>
       </c>
       <c r="S12" s="147"/>
@@ -16591,14 +16366,14 @@
         <f t="shared" si="2"/>
         <v>77884</v>
       </c>
-      <c r="Q13" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="320">
-        <v>0</v>
-      </c>
-      <c r="S13" s="317"/>
+      <c r="Q13" s="317">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="319">
+        <v>0</v>
+      </c>
+      <c r="S13" s="316"/>
       <c r="T13" s="2"/>
       <c r="U13" s="9"/>
       <c r="W13" s="234">
@@ -16646,11 +16421,11 @@
         <f t="shared" si="2"/>
         <v>91826.8</v>
       </c>
-      <c r="Q14" s="318">
+      <c r="Q14" s="317">
         <f t="shared" si="1"/>
         <v>-0.19999999999708962</v>
       </c>
-      <c r="R14" s="320">
+      <c r="R14" s="319">
         <v>0</v>
       </c>
       <c r="S14" s="147"/>
@@ -16698,11 +16473,11 @@
         <f t="shared" si="0"/>
         <v>93120</v>
       </c>
-      <c r="Q15" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="320">
+      <c r="Q15" s="317">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="319">
         <v>0</v>
       </c>
       <c r="S15" s="147"/>
@@ -16746,21 +16521,21 @@
       <c r="N16" s="33">
         <v>32373</v>
       </c>
-      <c r="O16" s="331" t="s">
+      <c r="O16" s="330" t="s">
         <v>229</v>
       </c>
       <c r="P16" s="39">
         <f t="shared" si="0"/>
         <v>142443</v>
       </c>
-      <c r="Q16" s="318">
+      <c r="Q16" s="317">
         <f>P16-F16-49100</f>
         <v>-150</v>
       </c>
-      <c r="R16" s="330">
+      <c r="R16" s="329">
         <v>49100</v>
       </c>
-      <c r="S16" s="332" t="s">
+      <c r="S16" s="331" t="s">
         <v>229</v>
       </c>
       <c r="W16" s="234">
@@ -16807,11 +16582,11 @@
         <f>N17+M17+L17+I17+C17-3135</f>
         <v>83134.5</v>
       </c>
-      <c r="Q17" s="326">
+      <c r="Q17" s="325">
         <f t="shared" si="1"/>
         <v>150.5</v>
       </c>
-      <c r="R17" s="320">
+      <c r="R17" s="319">
         <v>0</v>
       </c>
       <c r="S17" s="147"/>
@@ -16857,11 +16632,11 @@
         <f t="shared" si="0"/>
         <v>57841</v>
       </c>
-      <c r="Q18" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="320">
+      <c r="Q18" s="317">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="319">
         <v>0</v>
       </c>
       <c r="S18" s="147"/>
@@ -16908,15 +16683,15 @@
         <f t="shared" si="0"/>
         <v>107926.5</v>
       </c>
-      <c r="Q19" s="318">
+      <c r="Q19" s="317">
         <f t="shared" si="1"/>
         <v>-601.5</v>
       </c>
-      <c r="R19" s="320">
+      <c r="R19" s="319">
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="458">
+      <c r="W19" s="464">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -16960,15 +16735,15 @@
         <f t="shared" si="0"/>
         <v>142911</v>
       </c>
-      <c r="Q20" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="320">
+      <c r="Q20" s="317">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="319">
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="459"/>
+      <c r="W20" s="465"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17009,16 +16784,16 @@
         <f t="shared" si="0"/>
         <v>155180</v>
       </c>
-      <c r="Q21" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="320">
+      <c r="Q21" s="317">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="319">
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="460"/>
-      <c r="X21" s="460"/>
+      <c r="W21" s="466"/>
+      <c r="X21" s="466"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17060,11 +16835,11 @@
         <f t="shared" si="0"/>
         <v>213653</v>
       </c>
-      <c r="Q22" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="320">
+      <c r="Q22" s="317">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="319">
         <v>0</v>
       </c>
       <c r="S22" s="147"/>
@@ -17111,16 +16886,16 @@
         <f t="shared" si="0"/>
         <v>86805</v>
       </c>
-      <c r="Q23" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="320">
+      <c r="Q23" s="317">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="319">
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="461"/>
-      <c r="X23" s="461"/>
+      <c r="W23" s="467"/>
+      <c r="X23" s="467"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17132,7 +16907,7 @@
       <c r="C24" s="161">
         <v>0</v>
       </c>
-      <c r="D24" s="333" t="s">
+      <c r="D24" s="332" t="s">
         <v>236</v>
       </c>
       <c r="E24" s="27">
@@ -17148,31 +16923,31 @@
       <c r="I24" s="160">
         <v>0</v>
       </c>
-      <c r="J24" s="334" t="s">
+      <c r="J24" s="333" t="s">
         <v>236</v>
       </c>
       <c r="K24" s="173"/>
       <c r="L24" s="52"/>
-      <c r="M24" s="335">
-        <v>0</v>
-      </c>
-      <c r="N24" s="336">
+      <c r="M24" s="334">
+        <v>0</v>
+      </c>
+      <c r="N24" s="335">
         <v>0</v>
       </c>
       <c r="P24" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="320">
+      <c r="Q24" s="317">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="319">
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="461"/>
-      <c r="X24" s="461"/>
+      <c r="W24" s="467"/>
+      <c r="X24" s="467"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17211,15 +16986,15 @@
         <f t="shared" si="0"/>
         <v>27315</v>
       </c>
-      <c r="Q25" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="320">
-        <v>0</v>
-      </c>
-      <c r="W25" s="462"/>
-      <c r="X25" s="462"/>
+      <c r="Q25" s="317">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="319">
+        <v>0</v>
+      </c>
+      <c r="W25" s="468"/>
+      <c r="X25" s="468"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -17260,15 +17035,15 @@
         <f t="shared" si="0"/>
         <v>61027</v>
       </c>
-      <c r="Q26" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="320">
-        <v>0</v>
-      </c>
-      <c r="W26" s="462"/>
-      <c r="X26" s="462"/>
+      <c r="Q26" s="317">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="319">
+        <v>0</v>
+      </c>
+      <c r="W26" s="468"/>
+      <c r="X26" s="468"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -17315,11 +17090,11 @@
         <f t="shared" si="0"/>
         <v>84044</v>
       </c>
-      <c r="Q27" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="320">
+      <c r="Q27" s="317">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="319">
         <v>0</v>
       </c>
       <c r="U27" s="1">
@@ -17328,9 +17103,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="455"/>
-      <c r="X27" s="456"/>
-      <c r="Y27" s="457"/>
+      <c r="W27" s="461"/>
+      <c r="X27" s="462"/>
+      <c r="Y27" s="463"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17371,11 +17146,11 @@
         <f t="shared" si="0"/>
         <v>131824</v>
       </c>
-      <c r="Q28" s="338">
+      <c r="Q28" s="337">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="R28" s="320">
+      <c r="R28" s="319">
         <v>0</v>
       </c>
       <c r="U28" s="1">
@@ -17384,9 +17159,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="456"/>
-      <c r="X28" s="456"/>
-      <c r="Y28" s="457"/>
+      <c r="W28" s="462"/>
+      <c r="X28" s="462"/>
+      <c r="Y28" s="463"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17427,22 +17202,22 @@
         <f t="shared" si="0"/>
         <v>214178</v>
       </c>
-      <c r="Q29" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="320">
-        <v>0</v>
-      </c>
-      <c r="U29" s="337">
+      <c r="Q29" s="317">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="319">
+        <v>0</v>
+      </c>
+      <c r="U29" s="336">
         <v>3499</v>
       </c>
       <c r="V29" t="s">
         <v>240</v>
       </c>
       <c r="W29" s="128"/>
-      <c r="X29" s="311"/>
-      <c r="Y29" s="312"/>
+      <c r="X29" s="310"/>
+      <c r="Y29" s="311"/>
       <c r="Z29" s="128"/>
     </row>
     <row r="30" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17489,11 +17264,11 @@
         <f t="shared" si="0"/>
         <v>139265</v>
       </c>
-      <c r="Q30" s="318">
+      <c r="Q30" s="317">
         <f t="shared" si="1"/>
         <v>-13665</v>
       </c>
-      <c r="R30" s="321"/>
+      <c r="R30" s="320"/>
       <c r="U30" s="1">
         <f>SUM(U27:U29)</f>
         <v>7661</v>
@@ -17509,31 +17284,31 @@
       <c r="C31" s="161">
         <v>0</v>
       </c>
-      <c r="D31" s="345" t="s">
+      <c r="D31" s="344" t="s">
         <v>236</v>
       </c>
-      <c r="E31" s="339">
+      <c r="E31" s="338">
         <v>44562</v>
       </c>
-      <c r="F31" s="346">
-        <v>0</v>
-      </c>
-      <c r="G31" s="340"/>
-      <c r="H31" s="341">
+      <c r="F31" s="345">
+        <v>0</v>
+      </c>
+      <c r="G31" s="339"/>
+      <c r="H31" s="340">
         <v>44562</v>
       </c>
-      <c r="I31" s="347">
-        <v>0</v>
-      </c>
-      <c r="J31" s="342" t="s">
+      <c r="I31" s="346">
+        <v>0</v>
+      </c>
+      <c r="J31" s="341" t="s">
         <v>236</v>
       </c>
-      <c r="K31" s="343"/>
-      <c r="L31" s="344"/>
-      <c r="M31" s="335">
-        <v>0</v>
-      </c>
-      <c r="N31" s="336">
+      <c r="K31" s="342"/>
+      <c r="L31" s="343"/>
+      <c r="M31" s="334">
+        <v>0</v>
+      </c>
+      <c r="N31" s="335">
         <v>0</v>
       </c>
       <c r="P31" s="34">
@@ -17544,7 +17319,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R31" s="322"/>
+      <c r="R31" s="321"/>
     </row>
     <row r="32" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
@@ -17584,7 +17359,7 @@
         <f t="shared" si="0"/>
         <v>18308</v>
       </c>
-      <c r="Q32" s="348">
+      <c r="Q32" s="347">
         <f t="shared" si="1"/>
         <v>-23017</v>
       </c>
@@ -17699,11 +17474,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="446">
+      <c r="M36" s="452">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>1054774.3</v>
       </c>
-      <c r="N36" s="448">
+      <c r="N36" s="454">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -17711,7 +17486,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="450">
+      <c r="Q36" s="456">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-37279.94</v>
       </c>
@@ -17730,13 +17505,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="447"/>
-      <c r="N37" s="449"/>
+      <c r="M37" s="453"/>
+      <c r="N37" s="455"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="451"/>
+      <c r="Q37" s="457"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -18010,27 +17785,27 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="423" t="s">
+      <c r="H52" s="429" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="424"/>
+      <c r="I52" s="430"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="425">
+      <c r="K52" s="431">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="452"/>
+      <c r="L52" s="458"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="429" t="s">
+      <c r="D53" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="429"/>
-      <c r="F53" s="313">
+      <c r="E53" s="435"/>
+      <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
       </c>
@@ -18038,47 +17813,47 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="453" t="s">
+      <c r="D54" s="459" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="453"/>
+      <c r="E54" s="459"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="430" t="s">
+      <c r="I54" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="431"/>
-      <c r="K54" s="432">
+      <c r="J54" s="437"/>
+      <c r="K54" s="438">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="432"/>
-      <c r="M54" s="438" t="s">
+      <c r="L54" s="438"/>
+      <c r="M54" s="444" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="439"/>
-      <c r="O54" s="439"/>
-      <c r="P54" s="439"/>
-      <c r="Q54" s="440"/>
+      <c r="N54" s="445"/>
+      <c r="O54" s="445"/>
+      <c r="P54" s="445"/>
+      <c r="Q54" s="446"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D55" s="314" t="s">
+      <c r="D55" s="313" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="315"/>
-      <c r="F55" s="316">
+      <c r="E55" s="314"/>
+      <c r="F55" s="315">
         <v>-590104.74</v>
       </c>
       <c r="I55" s="105"/>
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="441"/>
-      <c r="N55" s="442"/>
-      <c r="O55" s="442"/>
-      <c r="P55" s="442"/>
-      <c r="Q55" s="443"/>
+      <c r="M55" s="447"/>
+      <c r="N55" s="448"/>
+      <c r="O55" s="448"/>
+      <c r="P55" s="448"/>
+      <c r="Q55" s="449"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -18096,11 +17871,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="434">
+      <c r="K56" s="440">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="435"/>
+      <c r="L56" s="441"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -18117,22 +17892,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="412" t="s">
+      <c r="D58" s="418" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="413"/>
+      <c r="E58" s="419"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="414" t="s">
+      <c r="I58" s="420" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="415"/>
-      <c r="K58" s="416">
+      <c r="J58" s="421"/>
+      <c r="K58" s="422">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="416"/>
+      <c r="L58" s="422"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -18307,8 +18082,8 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -18322,7 +18097,7 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18337,8 +18112,8 @@
     <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="116" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="406" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18348,9 +18123,9 @@
       </c>
       <c r="B1" s="291"/>
       <c r="C1" s="292"/>
-      <c r="D1" s="376"/>
+      <c r="D1" s="372"/>
       <c r="E1" s="292"/>
-      <c r="F1" s="383" t="s">
+      <c r="F1" s="379" t="s">
         <v>314</v>
       </c>
       <c r="I1" s="301" t="s">
@@ -18358,9 +18133,9 @@
       </c>
       <c r="J1" s="302"/>
       <c r="K1" s="303"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="303"/>
-      <c r="N1" s="382" t="s">
+      <c r="L1" s="404"/>
+      <c r="M1" s="405"/>
+      <c r="N1" s="378" t="s">
         <v>314</v>
       </c>
     </row>
@@ -18374,7 +18149,7 @@
       <c r="C2" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="373" t="s">
+      <c r="D2" s="369" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="300" t="s">
@@ -18386,33 +18161,33 @@
       <c r="I2" s="297" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="309" t="s">
+      <c r="J2" s="308" t="s">
         <v>265</v>
       </c>
       <c r="K2" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="298" t="s">
+      <c r="L2" s="399" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="299" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="310" t="s">
+      <c r="N2" s="309" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="355" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="358" t="s">
+      <c r="B3" s="356" t="s">
         <v>266</v>
       </c>
       <c r="C3" s="96">
         <v>7068.6</v>
       </c>
-      <c r="D3" s="377">
+      <c r="D3" s="373">
         <v>44560</v>
       </c>
       <c r="E3" s="96">
@@ -18422,33 +18197,37 @@
         <f>C3-E3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="350" t="s">
+      <c r="I3" s="349" t="s">
         <v>195</v>
       </c>
-      <c r="J3" s="349">
+      <c r="J3" s="348">
         <v>7950</v>
       </c>
-      <c r="K3" s="351">
+      <c r="K3" s="350">
         <v>563.79999999999995</v>
       </c>
-      <c r="L3" s="306"/>
-      <c r="M3" s="215"/>
+      <c r="L3" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M3" s="401">
+        <v>563.79999999999995</v>
+      </c>
       <c r="N3" s="183">
         <f>K3-M3</f>
-        <v>563.79999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="357" t="s">
+      <c r="A4" s="355" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="358" t="s">
+      <c r="B4" s="356" t="s">
         <v>267</v>
       </c>
       <c r="C4" s="96">
         <v>11495.4</v>
       </c>
-      <c r="D4" s="377">
+      <c r="D4" s="373">
         <v>44560</v>
       </c>
       <c r="E4" s="96">
@@ -18459,33 +18238,37 @@
         <v>0</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="I4" s="350" t="s">
+      <c r="I4" s="349" t="s">
         <v>195</v>
       </c>
-      <c r="J4" s="349">
+      <c r="J4" s="348">
         <v>7944</v>
       </c>
-      <c r="K4" s="351">
+      <c r="K4" s="350">
         <v>2032.08</v>
       </c>
-      <c r="L4" s="288"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M4" s="401">
+        <v>2032.08</v>
+      </c>
       <c r="N4" s="137">
         <f>N3+K4-M4</f>
-        <v>2595.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="357" t="s">
+      <c r="A5" s="355" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="358" t="s">
+      <c r="B5" s="356" t="s">
         <v>268</v>
       </c>
       <c r="C5" s="96">
         <v>276755.14</v>
       </c>
-      <c r="D5" s="377">
+      <c r="D5" s="373">
         <v>44560</v>
       </c>
       <c r="E5" s="96">
@@ -18495,33 +18278,37 @@
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="350" t="s">
+      <c r="I5" s="349" t="s">
         <v>195</v>
       </c>
-      <c r="J5" s="349">
+      <c r="J5" s="348">
         <v>7952</v>
       </c>
-      <c r="K5" s="351">
+      <c r="K5" s="350">
         <v>1756.48</v>
       </c>
-      <c r="L5" s="288"/>
-      <c r="M5" s="69"/>
+      <c r="L5" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M5" s="401">
+        <v>1756.48</v>
+      </c>
       <c r="N5" s="137">
         <f t="shared" ref="N5:N56" si="1">N4+K5-M5</f>
-        <v>4352.3600000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="357" t="s">
+      <c r="A6" s="355" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="358" t="s">
+      <c r="B6" s="356" t="s">
         <v>269</v>
       </c>
       <c r="C6" s="96">
         <v>62881.4</v>
       </c>
-      <c r="D6" s="377">
+      <c r="D6" s="373">
         <v>44560</v>
       </c>
       <c r="E6" s="96">
@@ -18531,33 +18318,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="350" t="s">
+      <c r="I6" s="349" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="349">
+      <c r="J6" s="348">
         <v>7951</v>
       </c>
-      <c r="K6" s="351">
+      <c r="K6" s="350">
         <v>7340.96</v>
       </c>
-      <c r="L6" s="288"/>
-      <c r="M6" s="69"/>
+      <c r="L6" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M6" s="401">
+        <v>7340.96</v>
+      </c>
       <c r="N6" s="137">
         <f t="shared" si="1"/>
-        <v>11693.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="357" t="s">
+      <c r="A7" s="355" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="358" t="s">
+      <c r="B7" s="356" t="s">
         <v>270</v>
       </c>
       <c r="C7" s="96">
         <v>7868.1</v>
       </c>
-      <c r="D7" s="377">
+      <c r="D7" s="373">
         <v>44560</v>
       </c>
       <c r="E7" s="96">
@@ -18567,33 +18358,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="350" t="s">
+      <c r="I7" s="349" t="s">
         <v>247</v>
       </c>
-      <c r="J7" s="349">
+      <c r="J7" s="348">
         <v>7956</v>
       </c>
-      <c r="K7" s="351">
+      <c r="K7" s="350">
         <v>1744.64</v>
       </c>
-      <c r="L7" s="288"/>
-      <c r="M7" s="69"/>
+      <c r="L7" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M7" s="401">
+        <v>1744.64</v>
+      </c>
       <c r="N7" s="137">
         <f t="shared" si="1"/>
-        <v>13437.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="357" t="s">
+      <c r="A8" s="355" t="s">
         <v>249</v>
       </c>
-      <c r="B8" s="358" t="s">
+      <c r="B8" s="356" t="s">
         <v>271</v>
       </c>
       <c r="C8" s="96">
         <v>22425</v>
       </c>
-      <c r="D8" s="377">
+      <c r="D8" s="373">
         <v>44560</v>
       </c>
       <c r="E8" s="96">
@@ -18603,33 +18398,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="350" t="s">
+      <c r="I8" s="349" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="349">
+      <c r="J8" s="348">
         <v>7961</v>
       </c>
-      <c r="K8" s="351">
+      <c r="K8" s="350">
         <v>6212.5</v>
       </c>
-      <c r="L8" s="288"/>
-      <c r="M8" s="69"/>
+      <c r="L8" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M8" s="401">
+        <v>6212.5</v>
+      </c>
       <c r="N8" s="137">
         <f t="shared" si="1"/>
-        <v>19650.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="357" t="s">
+      <c r="A9" s="355" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="358" t="s">
+      <c r="B9" s="356" t="s">
         <v>272</v>
       </c>
       <c r="C9" s="96">
         <v>46727.4</v>
       </c>
-      <c r="D9" s="377">
+      <c r="D9" s="373">
         <v>44560</v>
       </c>
       <c r="E9" s="96">
@@ -18639,33 +18438,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="350" t="s">
+      <c r="I9" s="349" t="s">
         <v>249</v>
       </c>
-      <c r="J9" s="349">
+      <c r="J9" s="348">
         <v>7971</v>
       </c>
-      <c r="K9" s="351">
+      <c r="K9" s="350">
         <v>11903.89</v>
       </c>
-      <c r="L9" s="288"/>
-      <c r="M9" s="69"/>
+      <c r="L9" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M9" s="401">
+        <v>11903.89</v>
+      </c>
       <c r="N9" s="137">
         <f t="shared" si="1"/>
-        <v>31554.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="357" t="s">
+      <c r="A10" s="355" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="358" t="s">
+      <c r="B10" s="356" t="s">
         <v>273</v>
       </c>
       <c r="C10" s="96">
         <v>8457.5</v>
       </c>
-      <c r="D10" s="377">
+      <c r="D10" s="373">
         <v>44560</v>
       </c>
       <c r="E10" s="96">
@@ -18676,33 +18479,37 @@
         <v>0</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="I10" s="350" t="s">
+      <c r="I10" s="349" t="s">
         <v>249</v>
       </c>
-      <c r="J10" s="349">
+      <c r="J10" s="348">
         <v>7972</v>
       </c>
-      <c r="K10" s="351">
+      <c r="K10" s="350">
         <v>36560.6</v>
       </c>
-      <c r="L10" s="288"/>
-      <c r="M10" s="69"/>
+      <c r="L10" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M10" s="401">
+        <v>36560.6</v>
+      </c>
       <c r="N10" s="137">
         <f t="shared" si="1"/>
-        <v>68114.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="357" t="s">
+      <c r="A11" s="355" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="358" t="s">
+      <c r="B11" s="356" t="s">
         <v>274</v>
       </c>
       <c r="C11" s="96">
         <v>112011.05</v>
       </c>
-      <c r="D11" s="377">
+      <c r="D11" s="373">
         <v>44560</v>
       </c>
       <c r="E11" s="96">
@@ -18712,33 +18519,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="350" t="s">
+      <c r="I11" s="349" t="s">
         <v>250</v>
       </c>
-      <c r="J11" s="349">
+      <c r="J11" s="348">
         <v>7975</v>
       </c>
-      <c r="K11" s="351">
+      <c r="K11" s="350">
         <v>3349.24</v>
       </c>
-      <c r="L11" s="288"/>
-      <c r="M11" s="69"/>
+      <c r="L11" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M11" s="401">
+        <v>3349.24</v>
+      </c>
       <c r="N11" s="137">
         <f t="shared" si="1"/>
-        <v>71464.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="357" t="s">
+      <c r="A12" s="355" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="358" t="s">
+      <c r="B12" s="356" t="s">
         <v>276</v>
       </c>
       <c r="C12" s="96">
         <v>5206.45</v>
       </c>
-      <c r="D12" s="377">
+      <c r="D12" s="373">
         <v>44560</v>
       </c>
       <c r="E12" s="96">
@@ -18748,33 +18559,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="350" t="s">
+      <c r="I12" s="349" t="s">
         <v>250</v>
       </c>
-      <c r="J12" s="349">
+      <c r="J12" s="348">
         <v>7979</v>
       </c>
-      <c r="K12" s="351">
+      <c r="K12" s="350">
         <v>2755.76</v>
       </c>
-      <c r="L12" s="288"/>
-      <c r="M12" s="69"/>
+      <c r="L12" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M12" s="401">
+        <v>2755.76</v>
+      </c>
       <c r="N12" s="137">
         <f t="shared" si="1"/>
-        <v>74219.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="357" t="s">
+      <c r="A13" s="355" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="358" t="s">
+      <c r="B13" s="356" t="s">
         <v>277</v>
       </c>
       <c r="C13" s="96">
         <v>38821.5</v>
       </c>
-      <c r="D13" s="377">
+      <c r="D13" s="373">
         <v>44560</v>
       </c>
       <c r="E13" s="96">
@@ -18784,33 +18599,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="350" t="s">
+      <c r="I13" s="349" t="s">
         <v>251</v>
       </c>
-      <c r="J13" s="349">
+      <c r="J13" s="348">
         <v>7984</v>
       </c>
-      <c r="K13" s="351">
+      <c r="K13" s="350">
         <v>19135.14</v>
       </c>
-      <c r="L13" s="288"/>
-      <c r="M13" s="69"/>
+      <c r="L13" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M13" s="401">
+        <v>19135.14</v>
+      </c>
       <c r="N13" s="137">
         <f t="shared" si="1"/>
-        <v>93355.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="357" t="s">
+      <c r="A14" s="355" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="358" t="s">
+      <c r="B14" s="356" t="s">
         <v>278</v>
       </c>
       <c r="C14" s="96">
         <v>14425.6</v>
       </c>
-      <c r="D14" s="377">
+      <c r="D14" s="373">
         <v>44560</v>
       </c>
       <c r="E14" s="96">
@@ -18820,33 +18639,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="350" t="s">
+      <c r="I14" s="349" t="s">
         <v>252</v>
       </c>
-      <c r="J14" s="349">
+      <c r="J14" s="348">
         <v>7996</v>
       </c>
-      <c r="K14" s="351">
+      <c r="K14" s="350">
         <v>4500.16</v>
       </c>
-      <c r="L14" s="288"/>
-      <c r="M14" s="69"/>
+      <c r="L14" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M14" s="401">
+        <v>4500.16</v>
+      </c>
       <c r="N14" s="137">
         <f t="shared" si="1"/>
-        <v>97855.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="357" t="s">
+      <c r="A15" s="355" t="s">
         <v>252</v>
       </c>
-      <c r="B15" s="358" t="s">
+      <c r="B15" s="356" t="s">
         <v>279</v>
       </c>
       <c r="C15" s="96">
         <v>9421.7000000000007</v>
       </c>
-      <c r="D15" s="377">
+      <c r="D15" s="373">
         <v>44560</v>
       </c>
       <c r="E15" s="96">
@@ -18856,33 +18679,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="350" t="s">
+      <c r="I15" s="349" t="s">
         <v>252</v>
       </c>
-      <c r="J15" s="349">
+      <c r="J15" s="348">
         <v>8002</v>
       </c>
-      <c r="K15" s="351">
+      <c r="K15" s="350">
         <v>7744</v>
       </c>
-      <c r="L15" s="288"/>
-      <c r="M15" s="69"/>
+      <c r="L15" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M15" s="401">
+        <v>7744</v>
+      </c>
       <c r="N15" s="137">
         <f t="shared" si="1"/>
-        <v>105599.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="357" t="s">
+      <c r="A16" s="355" t="s">
         <v>252</v>
       </c>
-      <c r="B16" s="358" t="s">
+      <c r="B16" s="356" t="s">
         <v>280</v>
       </c>
       <c r="C16" s="96">
         <v>9069.5</v>
       </c>
-      <c r="D16" s="377">
+      <c r="D16" s="373">
         <v>44560</v>
       </c>
       <c r="E16" s="96">
@@ -18892,33 +18719,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="350" t="s">
+      <c r="I16" s="349" t="s">
         <v>253</v>
       </c>
-      <c r="J16" s="349">
+      <c r="J16" s="348">
         <v>8009</v>
       </c>
-      <c r="K16" s="351">
+      <c r="K16" s="350">
         <v>933.1</v>
       </c>
-      <c r="L16" s="288"/>
-      <c r="M16" s="69"/>
+      <c r="L16" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M16" s="401">
+        <v>933.1</v>
+      </c>
       <c r="N16" s="137">
         <f t="shared" si="1"/>
-        <v>106532.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="357" t="s">
+      <c r="A17" s="355" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="358" t="s">
+      <c r="B17" s="356" t="s">
         <v>281</v>
       </c>
       <c r="C17" s="96">
         <v>60</v>
       </c>
-      <c r="D17" s="377">
+      <c r="D17" s="373">
         <v>44560</v>
       </c>
       <c r="E17" s="96">
@@ -18928,33 +18759,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="350" t="s">
+      <c r="I17" s="349" t="s">
         <v>253</v>
       </c>
-      <c r="J17" s="349">
+      <c r="J17" s="348">
         <v>8011</v>
       </c>
-      <c r="K17" s="351">
+      <c r="K17" s="350">
         <v>2610</v>
       </c>
-      <c r="L17" s="288"/>
-      <c r="M17" s="69"/>
+      <c r="L17" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M17" s="401">
+        <v>2610</v>
+      </c>
       <c r="N17" s="137">
         <f t="shared" si="1"/>
-        <v>109142.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="357" t="s">
+      <c r="A18" s="355" t="s">
         <v>252</v>
       </c>
-      <c r="B18" s="358" t="s">
+      <c r="B18" s="356" t="s">
         <v>282</v>
       </c>
       <c r="C18" s="96">
         <v>16107.5</v>
       </c>
-      <c r="D18" s="377">
+      <c r="D18" s="373">
         <v>44560</v>
       </c>
       <c r="E18" s="96">
@@ -18964,33 +18799,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="350" t="s">
+      <c r="I18" s="349" t="s">
         <v>254</v>
       </c>
-      <c r="J18" s="349">
+      <c r="J18" s="348">
         <v>8019</v>
       </c>
-      <c r="K18" s="351">
+      <c r="K18" s="350">
         <v>3554.2</v>
       </c>
-      <c r="L18" s="288"/>
-      <c r="M18" s="69"/>
+      <c r="L18" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M18" s="401">
+        <v>3554.2</v>
+      </c>
       <c r="N18" s="137">
         <f t="shared" si="1"/>
-        <v>112696.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="357" t="s">
+      <c r="A19" s="355" t="s">
         <v>253</v>
       </c>
-      <c r="B19" s="358" t="s">
+      <c r="B19" s="356" t="s">
         <v>283</v>
       </c>
       <c r="C19" s="96">
         <v>45709</v>
       </c>
-      <c r="D19" s="377">
+      <c r="D19" s="373">
         <v>44560</v>
       </c>
       <c r="E19" s="96">
@@ -19000,33 +18839,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="350" t="s">
+      <c r="I19" s="349" t="s">
         <v>254</v>
       </c>
-      <c r="J19" s="349">
+      <c r="J19" s="348">
         <v>8024</v>
       </c>
-      <c r="K19" s="351">
+      <c r="K19" s="350">
         <v>92636.2</v>
       </c>
-      <c r="L19" s="288"/>
-      <c r="M19" s="69"/>
+      <c r="L19" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M19" s="401">
+        <v>92636.2</v>
+      </c>
       <c r="N19" s="137">
         <f t="shared" si="1"/>
-        <v>205332.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="357" t="s">
+      <c r="A20" s="355" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="358" t="s">
+      <c r="B20" s="356" t="s">
         <v>284</v>
       </c>
       <c r="C20" s="96">
         <v>0</v>
       </c>
-      <c r="D20" s="377" t="s">
+      <c r="D20" s="373" t="s">
         <v>310</v>
       </c>
       <c r="E20" s="96">
@@ -19036,33 +18879,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="350" t="s">
+      <c r="I20" s="349" t="s">
         <v>255</v>
       </c>
-      <c r="J20" s="349">
+      <c r="J20" s="348">
         <v>8027</v>
       </c>
-      <c r="K20" s="351">
+      <c r="K20" s="350">
         <v>9327.4</v>
       </c>
-      <c r="L20" s="288"/>
-      <c r="M20" s="69"/>
+      <c r="L20" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M20" s="401">
+        <v>9327.4</v>
+      </c>
       <c r="N20" s="137">
         <f t="shared" si="1"/>
-        <v>214660.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="357" t="s">
+      <c r="A21" s="355" t="s">
         <v>254</v>
       </c>
-      <c r="B21" s="358" t="s">
+      <c r="B21" s="356" t="s">
         <v>285</v>
       </c>
       <c r="C21" s="96">
         <v>58310.5</v>
       </c>
-      <c r="D21" s="377">
+      <c r="D21" s="373">
         <v>44560</v>
       </c>
       <c r="E21" s="96">
@@ -19072,33 +18919,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="350" t="s">
+      <c r="I21" s="349" t="s">
         <v>255</v>
       </c>
-      <c r="J21" s="349">
+      <c r="J21" s="348">
         <v>8028</v>
       </c>
-      <c r="K21" s="351">
+      <c r="K21" s="350">
         <v>428.16</v>
       </c>
-      <c r="L21" s="288"/>
-      <c r="M21" s="69"/>
+      <c r="L21" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M21" s="401">
+        <v>428.16</v>
+      </c>
       <c r="N21" s="137">
         <f t="shared" si="1"/>
-        <v>215088.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="357" t="s">
+      <c r="A22" s="355" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="358" t="s">
+      <c r="B22" s="356" t="s">
         <v>286</v>
       </c>
       <c r="C22" s="96">
         <v>2844.3</v>
       </c>
-      <c r="D22" s="377">
+      <c r="D22" s="373">
         <v>44560</v>
       </c>
       <c r="E22" s="96">
@@ -19109,33 +18960,37 @@
         <v>0</v>
       </c>
       <c r="G22" s="138"/>
-      <c r="I22" s="350" t="s">
+      <c r="I22" s="349" t="s">
         <v>256</v>
       </c>
-      <c r="J22" s="349">
+      <c r="J22" s="348">
         <v>8044</v>
       </c>
-      <c r="K22" s="351">
+      <c r="K22" s="350">
         <v>2709.6</v>
       </c>
-      <c r="L22" s="288"/>
-      <c r="M22" s="69"/>
+      <c r="L22" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M22" s="401">
+        <v>2709.6</v>
+      </c>
       <c r="N22" s="137">
         <f t="shared" si="1"/>
-        <v>217797.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="357" t="s">
+      <c r="A23" s="355" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="358" t="s">
+      <c r="B23" s="356" t="s">
         <v>287</v>
       </c>
       <c r="C23" s="96">
         <v>60433.2</v>
       </c>
-      <c r="D23" s="377">
+      <c r="D23" s="373">
         <v>44560</v>
       </c>
       <c r="E23" s="96">
@@ -19145,33 +19000,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="350" t="s">
+      <c r="I23" s="349" t="s">
         <v>257</v>
       </c>
-      <c r="J23" s="349">
+      <c r="J23" s="348">
         <v>8050</v>
       </c>
-      <c r="K23" s="351">
+      <c r="K23" s="350">
         <v>1768.48</v>
       </c>
-      <c r="L23" s="288"/>
-      <c r="M23" s="69"/>
+      <c r="L23" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M23" s="401">
+        <v>1768.48</v>
+      </c>
       <c r="N23" s="137">
         <f t="shared" si="1"/>
-        <v>219566.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="357" t="s">
+      <c r="A24" s="355" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="358" t="s">
+      <c r="B24" s="356" t="s">
         <v>288</v>
       </c>
       <c r="C24" s="96">
         <v>78786.3</v>
       </c>
-      <c r="D24" s="377">
+      <c r="D24" s="373">
         <v>44560</v>
       </c>
       <c r="E24" s="96">
@@ -19181,33 +19040,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="350" t="s">
+      <c r="I24" s="349" t="s">
         <v>257</v>
       </c>
-      <c r="J24" s="349">
+      <c r="J24" s="348">
         <v>8056</v>
       </c>
-      <c r="K24" s="351">
+      <c r="K24" s="350">
         <v>45385.8</v>
       </c>
-      <c r="L24" s="288"/>
-      <c r="M24" s="69"/>
+      <c r="L24" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M24" s="401">
+        <v>45385.8</v>
+      </c>
       <c r="N24" s="137">
         <f t="shared" si="1"/>
-        <v>264952.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="357" t="s">
+      <c r="A25" s="355" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="358" t="s">
+      <c r="B25" s="356" t="s">
         <v>289</v>
       </c>
       <c r="C25" s="96">
         <v>36160.1</v>
       </c>
-      <c r="D25" s="377">
+      <c r="D25" s="373">
         <v>44560</v>
       </c>
       <c r="E25" s="96">
@@ -19217,33 +19080,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="350" t="s">
+      <c r="I25" s="349" t="s">
         <v>258</v>
       </c>
-      <c r="J25" s="349">
+      <c r="J25" s="348">
         <v>8065</v>
       </c>
-      <c r="K25" s="351">
+      <c r="K25" s="350">
         <v>6545.88</v>
       </c>
-      <c r="L25" s="288"/>
-      <c r="M25" s="69"/>
+      <c r="L25" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M25" s="401">
+        <v>6545.88</v>
+      </c>
       <c r="N25" s="137">
         <f t="shared" si="1"/>
-        <v>271498.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="357" t="s">
+      <c r="A26" s="355" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="358" t="s">
+      <c r="B26" s="356" t="s">
         <v>290</v>
       </c>
       <c r="C26" s="96">
         <v>2104.4</v>
       </c>
-      <c r="D26" s="377">
+      <c r="D26" s="373">
         <v>44560</v>
       </c>
       <c r="E26" s="96">
@@ -19253,33 +19120,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="350" t="s">
+      <c r="I26" s="349" t="s">
         <v>258</v>
       </c>
-      <c r="J26" s="349">
+      <c r="J26" s="348">
         <v>8073</v>
       </c>
-      <c r="K26" s="351">
+      <c r="K26" s="350">
         <v>7998.1</v>
       </c>
-      <c r="L26" s="288"/>
-      <c r="M26" s="69"/>
+      <c r="L26" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M26" s="401">
+        <v>7998.1</v>
+      </c>
       <c r="N26" s="137">
         <f t="shared" si="1"/>
-        <v>279496.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="357" t="s">
+      <c r="A27" s="355" t="s">
         <v>258</v>
       </c>
-      <c r="B27" s="358" t="s">
+      <c r="B27" s="356" t="s">
         <v>291</v>
       </c>
       <c r="C27" s="96">
         <v>634.5</v>
       </c>
-      <c r="D27" s="381">
+      <c r="D27" s="377">
         <v>44550</v>
       </c>
       <c r="E27" s="96">
@@ -19289,33 +19160,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="350" t="s">
+      <c r="I27" s="349" t="s">
         <v>259</v>
       </c>
-      <c r="J27" s="349">
+      <c r="J27" s="348">
         <v>8080</v>
       </c>
-      <c r="K27" s="351">
+      <c r="K27" s="350">
         <v>887.52</v>
       </c>
-      <c r="L27" s="288"/>
-      <c r="M27" s="69"/>
+      <c r="L27" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M27" s="401">
+        <v>887.52</v>
+      </c>
       <c r="N27" s="137">
         <f t="shared" si="1"/>
-        <v>280383.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="357" t="s">
+      <c r="A28" s="355" t="s">
         <v>258</v>
       </c>
-      <c r="B28" s="358" t="s">
+      <c r="B28" s="356" t="s">
         <v>292</v>
       </c>
       <c r="C28" s="96">
         <v>47894.06</v>
       </c>
-      <c r="D28" s="377">
+      <c r="D28" s="373">
         <v>44560</v>
       </c>
       <c r="E28" s="96">
@@ -19325,33 +19200,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I28" s="350" t="s">
+      <c r="I28" s="349" t="s">
         <v>259</v>
       </c>
-      <c r="J28" s="349">
+      <c r="J28" s="348">
         <v>8083</v>
       </c>
-      <c r="K28" s="351">
+      <c r="K28" s="350">
         <v>571.6</v>
       </c>
-      <c r="L28" s="288"/>
-      <c r="M28" s="69"/>
+      <c r="L28" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M28" s="401">
+        <v>571.6</v>
+      </c>
       <c r="N28" s="137">
         <f t="shared" si="1"/>
-        <v>280955.28999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="357" t="s">
+      <c r="A29" s="355" t="s">
         <v>259</v>
       </c>
-      <c r="B29" s="358" t="s">
+      <c r="B29" s="356" t="s">
         <v>293</v>
       </c>
       <c r="C29" s="96">
         <v>48036.26</v>
       </c>
-      <c r="D29" s="377">
+      <c r="D29" s="373">
         <v>44560</v>
       </c>
       <c r="E29" s="96">
@@ -19361,33 +19240,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="350" t="s">
+      <c r="I29" s="349" t="s">
         <v>259</v>
       </c>
-      <c r="J29" s="349">
+      <c r="J29" s="348">
         <v>8090</v>
       </c>
-      <c r="K29" s="351">
+      <c r="K29" s="350">
         <v>23079</v>
       </c>
-      <c r="L29" s="288"/>
-      <c r="M29" s="69"/>
+      <c r="L29" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M29" s="401">
+        <v>23079</v>
+      </c>
       <c r="N29" s="137">
         <f t="shared" si="1"/>
-        <v>304034.28999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="357" t="s">
+      <c r="A30" s="355" t="s">
         <v>260</v>
       </c>
-      <c r="B30" s="358" t="s">
+      <c r="B30" s="356" t="s">
         <v>294</v>
       </c>
       <c r="C30" s="96">
         <v>61444</v>
       </c>
-      <c r="D30" s="377">
+      <c r="D30" s="373">
         <v>44560</v>
       </c>
       <c r="E30" s="96">
@@ -19398,283 +19281,327 @@
         <v>0</v>
       </c>
       <c r="G30" s="138"/>
-      <c r="I30" s="350" t="s">
+      <c r="I30" s="349" t="s">
         <v>260</v>
       </c>
-      <c r="J30" s="349">
+      <c r="J30" s="348">
         <v>8095</v>
       </c>
-      <c r="K30" s="351">
-        <v>0</v>
-      </c>
-      <c r="L30" s="288"/>
-      <c r="M30" s="69"/>
+      <c r="K30" s="350">
+        <v>0</v>
+      </c>
+      <c r="L30" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M30" s="401">
+        <v>0</v>
+      </c>
       <c r="N30" s="137">
         <f t="shared" si="1"/>
-        <v>304034.28999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="357" t="s">
+      <c r="A31" s="355" t="s">
         <v>260</v>
       </c>
-      <c r="B31" s="358" t="s">
+      <c r="B31" s="356" t="s">
         <v>295</v>
       </c>
       <c r="C31" s="96">
         <v>134636</v>
       </c>
-      <c r="D31" s="378">
+      <c r="D31" s="374">
         <v>44564</v>
       </c>
-      <c r="E31" s="379">
+      <c r="E31" s="375">
         <v>134636</v>
       </c>
       <c r="F31" s="137">
         <f>F30+C31-E31</f>
         <v>0</v>
       </c>
-      <c r="I31" s="350" t="s">
+      <c r="I31" s="349" t="s">
         <v>260</v>
       </c>
-      <c r="J31" s="349">
+      <c r="J31" s="348">
         <v>8097</v>
       </c>
-      <c r="K31" s="351">
+      <c r="K31" s="350">
         <v>288</v>
       </c>
-      <c r="L31" s="288"/>
-      <c r="M31" s="69"/>
+      <c r="L31" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M31" s="401">
+        <v>288</v>
+      </c>
       <c r="N31" s="137">
         <f>N30+K31-M31</f>
-        <v>304322.28999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="357" t="s">
+      <c r="A32" s="355" t="s">
         <v>260</v>
       </c>
-      <c r="B32" s="358" t="s">
+      <c r="B32" s="356" t="s">
         <v>296</v>
       </c>
       <c r="C32" s="96">
         <v>2496</v>
       </c>
-      <c r="D32" s="378">
+      <c r="D32" s="374">
         <v>44564</v>
       </c>
-      <c r="E32" s="379">
+      <c r="E32" s="375">
         <v>2496</v>
       </c>
       <c r="F32" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I32" s="350" t="s">
+      <c r="I32" s="349" t="s">
         <v>260</v>
       </c>
-      <c r="J32" s="349">
+      <c r="J32" s="348">
         <v>8099</v>
       </c>
-      <c r="K32" s="351">
-        <v>0</v>
-      </c>
-      <c r="L32" s="288"/>
-      <c r="M32" s="69"/>
+      <c r="K32" s="350">
+        <v>0</v>
+      </c>
+      <c r="L32" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M32" s="401">
+        <v>0</v>
+      </c>
       <c r="N32" s="137">
         <f t="shared" si="1"/>
-        <v>304322.28999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="357" t="s">
+      <c r="A33" s="355" t="s">
         <v>260</v>
       </c>
-      <c r="B33" s="358" t="s">
+      <c r="B33" s="356" t="s">
         <v>297</v>
       </c>
       <c r="C33" s="96">
         <v>1835.32</v>
       </c>
-      <c r="D33" s="378">
+      <c r="D33" s="374">
         <v>44564</v>
       </c>
-      <c r="E33" s="379">
+      <c r="E33" s="375">
         <v>1835.32</v>
       </c>
       <c r="F33" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I33" s="350" t="s">
+      <c r="I33" s="349" t="s">
         <v>260</v>
       </c>
-      <c r="J33" s="349">
+      <c r="J33" s="348">
         <v>8102</v>
       </c>
-      <c r="K33" s="351">
+      <c r="K33" s="350">
         <v>16973.12</v>
       </c>
-      <c r="L33" s="288"/>
-      <c r="M33" s="69"/>
+      <c r="L33" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M33" s="401">
+        <v>16973.12</v>
+      </c>
       <c r="N33" s="137">
         <f t="shared" si="1"/>
-        <v>321295.40999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="357" t="s">
+      <c r="A34" s="355" t="s">
         <v>261</v>
       </c>
-      <c r="B34" s="358" t="s">
+      <c r="B34" s="356" t="s">
         <v>298</v>
       </c>
       <c r="C34" s="96">
         <v>37820</v>
       </c>
-      <c r="D34" s="378">
+      <c r="D34" s="374">
         <v>44564</v>
       </c>
-      <c r="E34" s="379">
+      <c r="E34" s="375">
         <v>37820</v>
       </c>
       <c r="F34" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I34" s="350" t="s">
+      <c r="I34" s="349" t="s">
         <v>261</v>
       </c>
-      <c r="J34" s="349">
+      <c r="J34" s="348">
         <v>8104</v>
       </c>
-      <c r="K34" s="351">
+      <c r="K34" s="350">
         <v>614.24</v>
       </c>
-      <c r="L34" s="288"/>
-      <c r="M34" s="69"/>
+      <c r="L34" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M34" s="401">
+        <v>614.24</v>
+      </c>
       <c r="N34" s="137">
         <f t="shared" si="1"/>
-        <v>321909.64999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="357" t="s">
+      <c r="A35" s="355" t="s">
         <v>261</v>
       </c>
-      <c r="B35" s="358" t="s">
+      <c r="B35" s="356" t="s">
         <v>299</v>
       </c>
       <c r="C35" s="96">
         <v>20355.400000000001</v>
       </c>
-      <c r="D35" s="378">
+      <c r="D35" s="374">
         <v>44564</v>
       </c>
-      <c r="E35" s="379">
+      <c r="E35" s="375">
         <v>20355.400000000001</v>
       </c>
       <c r="F35" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I35" s="350" t="s">
+      <c r="I35" s="349" t="s">
         <v>261</v>
       </c>
-      <c r="J35" s="349">
+      <c r="J35" s="348">
         <v>8105</v>
       </c>
-      <c r="K35" s="351">
+      <c r="K35" s="350">
         <v>216</v>
       </c>
-      <c r="L35" s="288"/>
-      <c r="M35" s="69"/>
+      <c r="L35" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M35" s="401">
+        <v>216</v>
+      </c>
       <c r="N35" s="137">
         <f t="shared" si="1"/>
-        <v>322125.64999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="357" t="s">
+      <c r="A36" s="355" t="s">
         <v>300</v>
       </c>
-      <c r="B36" s="358" t="s">
+      <c r="B36" s="356" t="s">
         <v>301</v>
       </c>
       <c r="C36" s="96">
         <v>37968.800000000003</v>
       </c>
-      <c r="D36" s="253"/>
-      <c r="E36" s="69"/>
+      <c r="D36" s="397">
+        <v>44580</v>
+      </c>
+      <c r="E36" s="398">
+        <v>37968.800000000003</v>
+      </c>
       <c r="F36" s="137">
         <f t="shared" si="0"/>
-        <v>37968.800000000003</v>
-      </c>
-      <c r="I36" s="350" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="349" t="s">
         <v>261</v>
       </c>
-      <c r="J36" s="349">
+      <c r="J36" s="348">
         <v>8110</v>
       </c>
-      <c r="K36" s="351">
-        <v>0</v>
-      </c>
-      <c r="L36" s="288"/>
-      <c r="M36" s="69"/>
+      <c r="K36" s="350">
+        <v>0</v>
+      </c>
+      <c r="L36" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M36" s="401">
+        <v>0</v>
+      </c>
       <c r="N36" s="137">
         <f t="shared" si="1"/>
-        <v>322125.64999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="357" t="s">
+      <c r="A37" s="355" t="s">
         <v>262</v>
       </c>
-      <c r="B37" s="358" t="s">
+      <c r="B37" s="356" t="s">
         <v>302</v>
       </c>
       <c r="C37" s="96">
         <v>38370.6</v>
       </c>
-      <c r="D37" s="253"/>
-      <c r="E37" s="69"/>
+      <c r="D37" s="397">
+        <v>44580</v>
+      </c>
+      <c r="E37" s="398">
+        <v>38370.6</v>
+      </c>
       <c r="F37" s="137">
         <f t="shared" si="0"/>
-        <v>76339.399999999994</v>
-      </c>
-      <c r="I37" s="361" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="359" t="s">
         <v>261</v>
       </c>
-      <c r="J37" s="362">
+      <c r="J37" s="360">
         <v>8114</v>
       </c>
-      <c r="K37" s="363">
+      <c r="K37" s="361">
         <v>78024.399999999994</v>
       </c>
-      <c r="L37" s="364"/>
-      <c r="M37" s="365"/>
-      <c r="N37" s="366">
-        <f t="shared" si="1"/>
-        <v>400150.04999999993</v>
+      <c r="L37" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M37" s="402">
+        <v>78024.399999999994</v>
+      </c>
+      <c r="N37" s="362">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="357" t="s">
+      <c r="A38" s="355" t="s">
         <v>262</v>
       </c>
-      <c r="B38" s="358" t="s">
+      <c r="B38" s="356" t="s">
         <v>303</v>
       </c>
       <c r="C38" s="96">
         <v>2250</v>
       </c>
-      <c r="D38" s="253"/>
-      <c r="E38" s="69"/>
+      <c r="D38" s="397">
+        <v>44580</v>
+      </c>
+      <c r="E38" s="398">
+        <v>2250</v>
+      </c>
       <c r="F38" s="137">
         <f t="shared" si="0"/>
-        <v>78589.399999999994</v>
-      </c>
-      <c r="I38" s="367" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="363" t="s">
         <v>262</v>
       </c>
       <c r="J38" s="38">
@@ -19683,171 +19610,215 @@
       <c r="K38" s="69">
         <v>7344.28</v>
       </c>
-      <c r="L38" s="288"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="368">
-        <f t="shared" si="1"/>
-        <v>407494.32999999996</v>
+      <c r="L38" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M38" s="66">
+        <v>7344.28</v>
+      </c>
+      <c r="N38" s="364">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="357" t="s">
+      <c r="A39" s="355" t="s">
         <v>263</v>
       </c>
-      <c r="B39" s="358" t="s">
+      <c r="B39" s="356" t="s">
         <v>304</v>
       </c>
       <c r="C39" s="96">
         <v>36332.379999999997</v>
       </c>
-      <c r="D39" s="253"/>
-      <c r="E39" s="69"/>
+      <c r="D39" s="397">
+        <v>44580</v>
+      </c>
+      <c r="E39" s="398">
+        <v>36332.379999999997</v>
+      </c>
       <c r="F39" s="137">
         <f t="shared" si="0"/>
-        <v>114921.78</v>
-      </c>
-      <c r="I39" s="352" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="351" t="s">
         <v>263</v>
       </c>
-      <c r="J39" s="353">
+      <c r="J39" s="352">
         <v>8144</v>
       </c>
-      <c r="K39" s="354">
-        <v>0</v>
-      </c>
-      <c r="L39" s="355"/>
-      <c r="M39" s="215"/>
-      <c r="N39" s="356">
-        <f t="shared" si="1"/>
-        <v>407494.32999999996</v>
+      <c r="K39" s="353">
+        <v>0</v>
+      </c>
+      <c r="L39" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M39" s="403">
+        <v>0</v>
+      </c>
+      <c r="N39" s="354">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="357" t="s">
+      <c r="A40" s="355" t="s">
         <v>263</v>
       </c>
-      <c r="B40" s="358" t="s">
+      <c r="B40" s="356" t="s">
         <v>305</v>
       </c>
       <c r="C40" s="96">
         <v>31011.599999999999</v>
       </c>
-      <c r="D40" s="253"/>
-      <c r="E40" s="69"/>
+      <c r="D40" s="397">
+        <v>44580</v>
+      </c>
+      <c r="E40" s="398">
+        <v>31011.599999999999</v>
+      </c>
       <c r="F40" s="137">
         <f t="shared" si="0"/>
-        <v>145933.38</v>
-      </c>
-      <c r="I40" s="350" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="349" t="s">
         <v>263</v>
       </c>
-      <c r="J40" s="349">
+      <c r="J40" s="348">
         <v>8145</v>
       </c>
-      <c r="K40" s="351">
+      <c r="K40" s="350">
         <v>2592.81</v>
       </c>
-      <c r="L40" s="140"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="356">
-        <f t="shared" si="1"/>
-        <v>410087.13999999996</v>
+      <c r="L40" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M40" s="401">
+        <v>2592.81</v>
+      </c>
+      <c r="N40" s="354">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="357" t="s">
+      <c r="A41" s="355" t="s">
         <v>306</v>
       </c>
-      <c r="B41" s="358" t="s">
+      <c r="B41" s="356" t="s">
         <v>307</v>
       </c>
       <c r="C41" s="96">
         <v>95276.3</v>
       </c>
-      <c r="D41" s="253"/>
-      <c r="E41" s="69"/>
+      <c r="D41" s="397">
+        <v>44580</v>
+      </c>
+      <c r="E41" s="398">
+        <v>95276.3</v>
+      </c>
       <c r="F41" s="137">
         <f t="shared" si="0"/>
-        <v>241209.68</v>
-      </c>
-      <c r="I41" s="350" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="349" t="s">
         <v>263</v>
       </c>
-      <c r="J41" s="349">
+      <c r="J41" s="348">
         <v>8148</v>
       </c>
-      <c r="K41" s="351">
+      <c r="K41" s="350">
         <v>89838.6</v>
       </c>
-      <c r="L41" s="140"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="356">
-        <f t="shared" si="1"/>
-        <v>499925.74</v>
+      <c r="L41" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M41" s="401">
+        <v>89838.6</v>
+      </c>
+      <c r="N41" s="354">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="357" t="s">
+      <c r="A42" s="355" t="s">
         <v>306</v>
       </c>
-      <c r="B42" s="358" t="s">
+      <c r="B42" s="356" t="s">
         <v>308</v>
       </c>
       <c r="C42" s="96">
         <v>4262.3999999999996</v>
       </c>
-      <c r="D42" s="253"/>
-      <c r="E42" s="69"/>
+      <c r="D42" s="397">
+        <v>44580</v>
+      </c>
+      <c r="E42" s="398">
+        <v>4262.3999999999996</v>
+      </c>
       <c r="F42" s="137">
         <f t="shared" si="0"/>
-        <v>245472.08</v>
-      </c>
-      <c r="I42" s="350" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="349" t="s">
         <v>264</v>
       </c>
-      <c r="J42" s="349">
+      <c r="J42" s="348">
         <v>8164</v>
       </c>
-      <c r="K42" s="351">
+      <c r="K42" s="350">
         <v>10475.799999999999</v>
       </c>
-      <c r="L42" s="140"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="356">
-        <f t="shared" si="1"/>
-        <v>510401.54</v>
+      <c r="L42" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M42" s="401">
+        <v>10475.799999999999</v>
+      </c>
+      <c r="N42" s="354">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="357" t="s">
+      <c r="A43" s="355" t="s">
         <v>264</v>
       </c>
-      <c r="B43" s="358" t="s">
+      <c r="B43" s="356" t="s">
         <v>309</v>
       </c>
       <c r="C43" s="96">
         <v>33297.4</v>
       </c>
-      <c r="D43" s="253"/>
-      <c r="E43" s="69"/>
+      <c r="D43" s="397">
+        <v>44580</v>
+      </c>
+      <c r="E43" s="398">
+        <v>33297.4</v>
+      </c>
       <c r="F43" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
-      </c>
-      <c r="I43" s="350" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="349" t="s">
         <v>264</v>
       </c>
-      <c r="J43" s="349">
+      <c r="J43" s="348">
         <v>8169</v>
       </c>
-      <c r="K43" s="351">
+      <c r="K43" s="350">
         <v>21719.4</v>
       </c>
-      <c r="L43" s="140"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="356">
-        <f t="shared" si="1"/>
-        <v>532120.93999999994</v>
+      <c r="L43" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M43" s="401">
+        <v>21719.4</v>
+      </c>
+      <c r="N43" s="354">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19858,22 +19829,26 @@
       <c r="E44" s="69"/>
       <c r="F44" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
-      </c>
-      <c r="I44" s="350" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="349" t="s">
         <v>264</v>
       </c>
-      <c r="J44" s="349">
+      <c r="J44" s="348">
         <v>8170</v>
       </c>
-      <c r="K44" s="351">
+      <c r="K44" s="350">
         <v>57983.8</v>
       </c>
-      <c r="L44" s="140"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="356">
-        <f t="shared" si="1"/>
-        <v>590104.74</v>
+      <c r="L44" s="400">
+        <v>44580</v>
+      </c>
+      <c r="M44" s="401">
+        <v>57983.8</v>
+      </c>
+      <c r="N44" s="354">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -19884,7 +19859,7 @@
       <c r="E45" s="69"/>
       <c r="F45" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I45" s="134"/>
       <c r="J45" s="139"/>
@@ -19893,7 +19868,7 @@
       <c r="M45" s="69"/>
       <c r="N45" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19904,7 +19879,7 @@
       <c r="E46" s="69"/>
       <c r="F46" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I46" s="134"/>
       <c r="J46" s="139"/>
@@ -19913,7 +19888,7 @@
       <c r="M46" s="69"/>
       <c r="N46" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19924,7 +19899,7 @@
       <c r="E47" s="69"/>
       <c r="F47" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I47" s="134"/>
       <c r="J47" s="139"/>
@@ -19933,7 +19908,7 @@
       <c r="M47" s="69"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19944,7 +19919,7 @@
       <c r="E48" s="69"/>
       <c r="F48" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I48" s="134"/>
       <c r="J48" s="139"/>
@@ -19953,7 +19928,7 @@
       <c r="M48" s="69"/>
       <c r="N48" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19964,7 +19939,7 @@
       <c r="E49" s="69"/>
       <c r="F49" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I49" s="134"/>
       <c r="J49" s="139"/>
@@ -19973,7 +19948,7 @@
       <c r="M49" s="69"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19984,7 +19959,7 @@
       <c r="E50" s="69"/>
       <c r="F50" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I50" s="134"/>
       <c r="J50" s="139"/>
@@ -19993,7 +19968,7 @@
       <c r="M50" s="69"/>
       <c r="N50" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20004,7 +19979,7 @@
       <c r="E51" s="69"/>
       <c r="F51" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I51" s="134"/>
       <c r="J51" s="139"/>
@@ -20013,7 +19988,7 @@
       <c r="M51" s="69"/>
       <c r="N51" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20024,7 +19999,7 @@
       <c r="E52" s="69"/>
       <c r="F52" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I52" s="134"/>
       <c r="J52" s="139"/>
@@ -20033,7 +20008,7 @@
       <c r="M52" s="69"/>
       <c r="N52" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20044,7 +20019,7 @@
       <c r="E53" s="69"/>
       <c r="F53" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I53" s="134"/>
       <c r="J53" s="139"/>
@@ -20053,7 +20028,7 @@
       <c r="M53" s="69"/>
       <c r="N53" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20064,7 +20039,7 @@
       <c r="E54" s="69"/>
       <c r="F54" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I54" s="134"/>
       <c r="J54" s="139"/>
@@ -20073,7 +20048,7 @@
       <c r="M54" s="69"/>
       <c r="N54" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20084,7 +20059,7 @@
       <c r="E55" s="69"/>
       <c r="F55" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I55" s="134"/>
       <c r="J55" s="139"/>
@@ -20093,7 +20068,7 @@
       <c r="M55" s="69"/>
       <c r="N55" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20104,7 +20079,7 @@
       <c r="E56" s="69"/>
       <c r="F56" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I56" s="134"/>
       <c r="J56" s="139"/>
@@ -20113,7 +20088,7 @@
       <c r="M56" s="69"/>
       <c r="N56" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20124,16 +20099,16 @@
       <c r="E57" s="69"/>
       <c r="F57" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
-      </c>
-      <c r="I57" s="359"/>
-      <c r="J57" s="360"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="357"/>
+      <c r="J57" s="358"/>
       <c r="K57" s="34"/>
       <c r="L57" s="147"/>
       <c r="M57" s="34"/>
       <c r="N57" s="137">
         <f t="shared" ref="N57:N73" si="2">N56+K57-M57</f>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20144,16 +20119,16 @@
       <c r="E58" s="69"/>
       <c r="F58" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
-      </c>
-      <c r="I58" s="359"/>
-      <c r="J58" s="360"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="357"/>
+      <c r="J58" s="358"/>
       <c r="K58" s="34"/>
       <c r="L58" s="147"/>
       <c r="M58" s="34"/>
       <c r="N58" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20164,16 +20139,16 @@
       <c r="E59" s="69"/>
       <c r="F59" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
-      </c>
-      <c r="I59" s="359"/>
-      <c r="J59" s="360"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="357"/>
+      <c r="J59" s="358"/>
       <c r="K59" s="34"/>
       <c r="L59" s="147"/>
       <c r="M59" s="34"/>
       <c r="N59" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20184,16 +20159,16 @@
       <c r="E60" s="69"/>
       <c r="F60" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
-      </c>
-      <c r="I60" s="359"/>
-      <c r="J60" s="360"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="357"/>
+      <c r="J60" s="358"/>
       <c r="K60" s="34"/>
       <c r="L60" s="147"/>
       <c r="M60" s="34"/>
       <c r="N60" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20204,36 +20179,36 @@
       <c r="E61" s="69"/>
       <c r="F61" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
-      </c>
-      <c r="I61" s="359"/>
-      <c r="J61" s="360"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="357"/>
+      <c r="J61" s="358"/>
       <c r="K61" s="34"/>
       <c r="L61" s="147"/>
       <c r="M61" s="34"/>
       <c r="N61" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="359"/>
-      <c r="B62" s="360"/>
+      <c r="A62" s="357"/>
+      <c r="B62" s="358"/>
       <c r="C62" s="34"/>
       <c r="D62" s="118"/>
       <c r="E62" s="34"/>
       <c r="F62" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
-      </c>
-      <c r="I62" s="359"/>
-      <c r="J62" s="360"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="357"/>
+      <c r="J62" s="358"/>
       <c r="K62" s="34"/>
       <c r="L62" s="147"/>
       <c r="M62" s="34"/>
       <c r="N62" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20244,7 +20219,7 @@
       <c r="E63" s="69"/>
       <c r="F63" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I63" s="134"/>
       <c r="J63" s="139"/>
@@ -20253,7 +20228,7 @@
       <c r="M63" s="69"/>
       <c r="N63" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20264,7 +20239,7 @@
       <c r="E64" s="69"/>
       <c r="F64" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I64" s="134"/>
       <c r="J64" s="139"/>
@@ -20273,7 +20248,7 @@
       <c r="M64" s="69"/>
       <c r="N64" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20284,7 +20259,7 @@
       <c r="E65" s="69"/>
       <c r="F65" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I65" s="134"/>
       <c r="J65" s="139"/>
@@ -20293,7 +20268,7 @@
       <c r="M65" s="69"/>
       <c r="N65" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20304,7 +20279,7 @@
       <c r="E66" s="69"/>
       <c r="F66" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I66" s="134"/>
       <c r="J66" s="139"/>
@@ -20313,7 +20288,7 @@
       <c r="M66" s="69"/>
       <c r="N66" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20324,7 +20299,7 @@
       <c r="E67" s="69"/>
       <c r="F67" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I67" s="134"/>
       <c r="J67" s="139"/>
@@ -20333,7 +20308,7 @@
       <c r="M67" s="69"/>
       <c r="N67" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20344,7 +20319,7 @@
       <c r="E68" s="69"/>
       <c r="F68" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I68" s="134"/>
       <c r="J68" s="139"/>
@@ -20353,7 +20328,7 @@
       <c r="M68" s="69"/>
       <c r="N68" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20364,7 +20339,7 @@
       <c r="E69" s="69"/>
       <c r="F69" s="137">
         <f t="shared" ref="F69:F71" si="3">F68+C69-E69</f>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I69" s="134"/>
       <c r="J69" s="139"/>
@@ -20373,7 +20348,7 @@
       <c r="M69" s="69"/>
       <c r="N69" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20384,7 +20359,7 @@
       <c r="E70" s="69"/>
       <c r="F70" s="137">
         <f t="shared" si="3"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I70" s="134"/>
       <c r="J70" s="139"/>
@@ -20393,7 +20368,7 @@
       <c r="M70" s="69"/>
       <c r="N70" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20404,7 +20379,7 @@
       <c r="E71" s="69"/>
       <c r="F71" s="137">
         <f t="shared" si="3"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I71" s="134"/>
       <c r="J71" s="139"/>
@@ -20413,7 +20388,7 @@
       <c r="M71" s="69"/>
       <c r="N71" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20424,7 +20399,7 @@
       <c r="E72" s="69"/>
       <c r="F72" s="137">
         <f t="shared" ref="F72:F73" si="4">F71+C72-E72</f>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I72" s="134"/>
       <c r="J72" s="139"/>
@@ -20433,7 +20408,7 @@
       <c r="M72" s="69"/>
       <c r="N72" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -20446,7 +20421,7 @@
       <c r="E73" s="151"/>
       <c r="F73" s="137">
         <f t="shared" si="4"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I73" s="149"/>
       <c r="J73" s="150"/>
@@ -20457,7 +20432,7 @@
       <c r="M73" s="151"/>
       <c r="N73" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -20470,17 +20445,16 @@
       <c r="E74" s="1"/>
       <c r="F74" s="153">
         <f>F73</f>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="K74" s="209">
         <f>SUM(K3:K73)</f>
         <v>590104.74</v>
       </c>
-      <c r="L74" s="97"/>
-      <c r="M74" s="1"/>
+      <c r="L74" s="147"/>
       <c r="N74" s="153">
-        <f>SUM(K74:M74)</f>
-        <v>590104.74</v>
+        <f>SUM(N3:N73)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20488,12 +20462,11 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="463" t="s">
+      <c r="F75" s="469" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
-      <c r="L75" s="97"/>
-      <c r="M75" s="3"/>
+      <c r="L75" s="147"/>
       <c r="N75" s="1"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -20501,10 +20474,9 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="464"/>
+      <c r="F76" s="470"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="97"/>
-      <c r="M76" s="3"/>
+      <c r="L76" s="147"/>
       <c r="N76" s="1"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -20512,21 +20484,18 @@
       <c r="B77" s="23"/>
       <c r="I77"/>
       <c r="J77" s="194"/>
-      <c r="L77" s="23"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78" s="23"/>
       <c r="I78"/>
       <c r="J78" s="194"/>
-      <c r="L78" s="23"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79" s="23"/>
       <c r="I79"/>
       <c r="J79" s="194"/>
-      <c r="L79" s="23"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80"/>
@@ -20534,7 +20503,6 @@
       <c r="F80"/>
       <c r="I80"/>
       <c r="J80" s="194"/>
-      <c r="L80" s="23"/>
       <c r="N80"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -20543,7 +20511,6 @@
       <c r="F81"/>
       <c r="I81"/>
       <c r="J81" s="194"/>
-      <c r="L81" s="23"/>
       <c r="N81"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -20552,7 +20519,6 @@
       <c r="F82"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
-      <c r="L82" s="23"/>
       <c r="N82"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -20561,7 +20527,6 @@
       <c r="F83"/>
       <c r="I83"/>
       <c r="J83" s="194"/>
-      <c r="L83" s="23"/>
       <c r="N83"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -20570,7 +20535,6 @@
       <c r="F84"/>
       <c r="I84"/>
       <c r="J84" s="194"/>
-      <c r="L84" s="23"/>
       <c r="N84"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -20579,7 +20543,6 @@
       <c r="F85"/>
       <c r="I85"/>
       <c r="J85" s="194"/>
-      <c r="L85" s="23"/>
       <c r="N85"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -20588,7 +20551,6 @@
       <c r="F86"/>
       <c r="I86"/>
       <c r="J86" s="194"/>
-      <c r="L86" s="23"/>
       <c r="N86"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -20597,7 +20559,6 @@
       <c r="F87"/>
       <c r="I87"/>
       <c r="J87" s="194"/>
-      <c r="L87" s="23"/>
       <c r="N87"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -20606,7 +20567,6 @@
       <c r="F88"/>
       <c r="I88"/>
       <c r="J88" s="194"/>
-      <c r="L88" s="23"/>
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -20616,8 +20576,7 @@
       <c r="F89"/>
       <c r="I89"/>
       <c r="J89" s="194"/>
-      <c r="L89" s="23"/>
-      <c r="M89"/>
+      <c r="M89" s="98"/>
       <c r="N89"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -20627,8 +20586,7 @@
       <c r="F90"/>
       <c r="I90"/>
       <c r="J90" s="194"/>
-      <c r="L90" s="23"/>
-      <c r="M90"/>
+      <c r="M90" s="98"/>
       <c r="N90"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -20638,8 +20596,7 @@
       <c r="F91"/>
       <c r="I91"/>
       <c r="J91" s="194"/>
-      <c r="L91" s="23"/>
-      <c r="M91"/>
+      <c r="M91" s="98"/>
       <c r="N91"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -20649,8 +20606,7 @@
       <c r="F92"/>
       <c r="I92"/>
       <c r="J92" s="194"/>
-      <c r="L92" s="23"/>
-      <c r="M92"/>
+      <c r="M92" s="98"/>
       <c r="N92"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -20660,8 +20616,7 @@
       <c r="F93"/>
       <c r="I93"/>
       <c r="J93" s="194"/>
-      <c r="L93" s="23"/>
-      <c r="M93"/>
+      <c r="M93" s="98"/>
       <c r="N93"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -20671,72 +20626,62 @@
       <c r="F94"/>
       <c r="I94"/>
       <c r="J94" s="194"/>
-      <c r="L94" s="23"/>
-      <c r="M94"/>
+      <c r="M94" s="98"/>
       <c r="N94"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B95" s="23"/>
       <c r="E95"/>
       <c r="J95" s="194"/>
-      <c r="L95" s="23"/>
-      <c r="M95"/>
+      <c r="M95" s="98"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B96" s="23"/>
       <c r="E96"/>
       <c r="J96" s="194"/>
-      <c r="L96" s="23"/>
-      <c r="M96"/>
+      <c r="M96" s="98"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="23"/>
       <c r="E97"/>
       <c r="J97" s="194"/>
-      <c r="L97" s="23"/>
-      <c r="M97"/>
+      <c r="M97" s="98"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="23"/>
       <c r="E98"/>
       <c r="J98" s="194"/>
-      <c r="L98" s="23"/>
-      <c r="M98"/>
+      <c r="M98" s="98"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="23"/>
       <c r="E99"/>
       <c r="J99" s="194"/>
-      <c r="L99" s="23"/>
-      <c r="M99"/>
+      <c r="M99" s="98"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="23"/>
       <c r="E100"/>
       <c r="J100" s="194"/>
-      <c r="L100" s="23"/>
-      <c r="M100"/>
+      <c r="M100" s="98"/>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="23"/>
       <c r="E101"/>
       <c r="J101" s="194"/>
-      <c r="L101" s="23"/>
-      <c r="M101"/>
+      <c r="M101" s="98"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="23"/>
       <c r="E102"/>
       <c r="J102" s="194"/>
-      <c r="L102" s="23"/>
-      <c r="M102"/>
+      <c r="M102" s="98"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="23"/>
       <c r="E103"/>
       <c r="J103" s="194"/>
-      <c r="L103" s="23"/>
-      <c r="M103"/>
+      <c r="M103" s="98"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="23"/>
@@ -20749,7 +20694,6 @@
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="23"/>
       <c r="J106" s="194"/>
-      <c r="L106" s="23"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="23"/>
@@ -20780,7 +20724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -20790,24 +20736,248 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="155"/>
+      <c r="C1" s="479" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" s="479"/>
+      <c r="E1" s="480"/>
+      <c r="F1" s="386"/>
+    </row>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="382"/>
+      <c r="C2" s="383"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="392"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="387"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="393"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="481" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="482"/>
+      <c r="D4" s="482"/>
+      <c r="E4" s="482"/>
+      <c r="F4" s="394">
+        <v>499853.16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="387"/>
+      <c r="C5" s="380"/>
+      <c r="D5" s="381"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="483" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="484"/>
+      <c r="D6" s="484"/>
+      <c r="E6" s="484"/>
+      <c r="F6" s="394">
+        <v>781251.72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="387"/>
+      <c r="C7" s="380"/>
+      <c r="D7" s="381"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="387"/>
+      <c r="C8" s="380"/>
+      <c r="D8" s="381"/>
+      <c r="E8" s="485" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="487">
+        <f>SUM(F4:F7)</f>
+        <v>1281104.8799999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="387"/>
+      <c r="C9" s="380"/>
+      <c r="D9" s="381"/>
+      <c r="E9" s="486"/>
+      <c r="F9" s="488"/>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="387"/>
+      <c r="C10" s="380"/>
+      <c r="D10" s="381"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="393"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="387"/>
+      <c r="C11" s="380"/>
+      <c r="D11" s="381"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="393"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="387"/>
+      <c r="C12" s="380"/>
+      <c r="D12" s="381"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="393"/>
+    </row>
+    <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="489" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" s="490"/>
+      <c r="D13" s="490"/>
+      <c r="E13" s="490"/>
+      <c r="F13" s="394">
+        <v>255460.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="387"/>
+      <c r="C14" s="380"/>
+      <c r="D14" s="381"/>
+      <c r="E14" s="252"/>
+      <c r="F14" s="395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="489" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="490"/>
+      <c r="D15" s="490"/>
+      <c r="E15" s="490"/>
+      <c r="F15" s="394">
+        <v>6037.34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="387"/>
+      <c r="C16" s="380"/>
+      <c r="D16" s="381"/>
+      <c r="E16" s="252"/>
+      <c r="F16" s="396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="387"/>
+      <c r="C17" s="380"/>
+      <c r="D17" s="381"/>
+      <c r="E17" s="491" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="493">
+        <f>SUM(F13:F16)</f>
+        <v>261497.74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="387"/>
+      <c r="C18" s="380"/>
+      <c r="D18" s="381"/>
+      <c r="E18" s="492"/>
+      <c r="F18" s="494"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="387"/>
+      <c r="C19" s="380"/>
+      <c r="D19" s="381"/>
+      <c r="E19" s="252"/>
+      <c r="F19" s="393"/>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="387"/>
+      <c r="C20" s="380"/>
+      <c r="D20" s="381"/>
+      <c r="E20" s="252"/>
+      <c r="F20" s="393"/>
+    </row>
+    <row r="21" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="388"/>
+      <c r="C21" s="389"/>
+      <c r="D21" s="390"/>
+      <c r="E21" s="391"/>
+      <c r="F21" s="393"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="473" t="s">
+        <v>321</v>
+      </c>
+      <c r="C22" s="474"/>
+      <c r="D22" s="474"/>
+      <c r="E22" s="474"/>
+      <c r="F22" s="477">
+        <v>12020</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="475"/>
+      <c r="C23" s="476"/>
+      <c r="D23" s="476"/>
+      <c r="E23" s="476"/>
+      <c r="F23" s="478"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="355"/>
+      <c r="C24" s="356"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="373"/>
+      <c r="F24" s="393"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>